--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Documents\coronadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA83334-8BFF-4EF4-8FD4-A6177B9FE139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF769F29-0BE0-49A1-9D86-25C708B9C215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coronadata_general" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +98,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +581,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,19 +936,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="M51" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="U63" sqref="U63"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -949,7 +960,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Documents\coronadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF769F29-0BE0-49A1-9D86-25C708B9C215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EF8A7-F3E7-4BB2-85C4-38AFCEC3B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +578,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,16 +934,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -960,7 +956,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4455,6 +4451,85 @@
       <c r="U62">
         <f>K62-O62</f>
         <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B63">
+        <f>B62+C63</f>
+        <v>2365</v>
+      </c>
+      <c r="C63">
+        <v>96</v>
+      </c>
+      <c r="D63">
+        <f>((B63-B62)/B62)*100</f>
+        <v>4.2309387395328333</v>
+      </c>
+      <c r="E63">
+        <v>29970</v>
+      </c>
+      <c r="F63">
+        <f>E63-E62</f>
+        <v>1372</v>
+      </c>
+      <c r="G63">
+        <f>((E63-E62)/E62)*100</f>
+        <v>4.7975382893908662</v>
+      </c>
+      <c r="H63">
+        <f>B63</f>
+        <v>2365</v>
+      </c>
+      <c r="I63">
+        <f>(H63/E63)*100</f>
+        <v>7.8912245578912241</v>
+      </c>
+      <c r="J63">
+        <f>(C63/F63)*100</f>
+        <v>6.9970845481049562</v>
+      </c>
+      <c r="K63">
+        <v>146</v>
+      </c>
+      <c r="L63">
+        <v>178</v>
+      </c>
+      <c r="M63">
+        <f>(L63/B63)*100</f>
+        <v>7.5264270613107822</v>
+      </c>
+      <c r="N63">
+        <f>((L63-L62)/L62)*100</f>
+        <v>2.2988505747126435</v>
+      </c>
+      <c r="O63">
+        <v>17</v>
+      </c>
+      <c r="P63">
+        <f>(O63/K63)*100</f>
+        <v>11.643835616438356</v>
+      </c>
+      <c r="Q63">
+        <v>1032</v>
+      </c>
+      <c r="R63">
+        <f>Q63-K63</f>
+        <v>886</v>
+      </c>
+      <c r="S63">
+        <f>(K63/Q63)*100</f>
+        <v>14.147286821705427</v>
+      </c>
+      <c r="T63">
+        <f>(O63/Q63)*100</f>
+        <v>1.6472868217054266</v>
+      </c>
+      <c r="U63">
+        <f>K63-O63</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EF8A7-F3E7-4BB2-85C4-38AFCEC3B04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEAC77-623E-4010-BBCA-C1A48743FF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4308" yWindow="3144" windowWidth="6912" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coronadata_general" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>new_cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent_increase </t>
   </si>
   <si>
     <t>tests_run</t>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>nonICU</t>
+  </si>
+  <si>
+    <t>percent_increase</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,58 +966,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -4530,6 +4530,85 @@
       <c r="U63">
         <f>K63-O63</f>
         <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B64">
+        <f>B63+C64</f>
+        <v>2425</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <f>((B64-B63)/B63)*100</f>
+        <v>2.536997885835095</v>
+      </c>
+      <c r="E64">
+        <v>30686</v>
+      </c>
+      <c r="F64">
+        <f>E64-E63</f>
+        <v>716</v>
+      </c>
+      <c r="G64">
+        <f>((E64-E63)/E63)*100</f>
+        <v>2.3890557223890561</v>
+      </c>
+      <c r="H64">
+        <f>B64</f>
+        <v>2425</v>
+      </c>
+      <c r="I64">
+        <f>(H64/E64)*100</f>
+        <v>7.902626604966434</v>
+      </c>
+      <c r="J64">
+        <f>(C64/F64)*100</f>
+        <v>8.3798882681564244</v>
+      </c>
+      <c r="K64">
+        <v>148</v>
+      </c>
+      <c r="L64">
+        <v>182</v>
+      </c>
+      <c r="M64">
+        <f>(L64/B64)*100</f>
+        <v>7.5051546391752568</v>
+      </c>
+      <c r="N64">
+        <f>((L64-L63)/L63)*100</f>
+        <v>2.2471910112359552</v>
+      </c>
+      <c r="O64">
+        <v>15</v>
+      </c>
+      <c r="P64">
+        <f>(O64/K64)*100</f>
+        <v>10.135135135135135</v>
+      </c>
+      <c r="Q64">
+        <v>1033</v>
+      </c>
+      <c r="R64">
+        <f>Q64-K64</f>
+        <v>885</v>
+      </c>
+      <c r="S64">
+        <f>(K64/Q64)*100</f>
+        <v>14.327202323330107</v>
+      </c>
+      <c r="T64">
+        <f>(O64/Q64)*100</f>
+        <v>1.452081316553727</v>
+      </c>
+      <c r="U64">
+        <f>K64-O64</f>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FEAC77-623E-4010-BBCA-C1A48743FF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51153D-F1F2-41CC-83ED-6B512A2A7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4308" yWindow="3144" windowWidth="6912" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coronadata_general" sheetId="1" r:id="rId1"/>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4611,6 +4611,164 @@
         <v>133</v>
       </c>
     </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B65">
+        <f>B64+C65</f>
+        <v>2505</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+      <c r="D65">
+        <f>((B65-B64)/B64)*100</f>
+        <v>3.2989690721649487</v>
+      </c>
+      <c r="E65">
+        <v>31310</v>
+      </c>
+      <c r="F65">
+        <f>E65-E64</f>
+        <v>624</v>
+      </c>
+      <c r="G65">
+        <f>((E65-E64)/E64)*100</f>
+        <v>2.0335006191748679</v>
+      </c>
+      <c r="H65">
+        <f>B65</f>
+        <v>2505</v>
+      </c>
+      <c r="I65">
+        <f>(H65/E65)*100</f>
+        <v>8.0006387735547744</v>
+      </c>
+      <c r="J65">
+        <f>(C65/F65)*100</f>
+        <v>12.820512820512819</v>
+      </c>
+      <c r="K65">
+        <v>157</v>
+      </c>
+      <c r="L65">
+        <v>185</v>
+      </c>
+      <c r="M65">
+        <f>(L65/B65)*100</f>
+        <v>7.3852295409181634</v>
+      </c>
+      <c r="N65">
+        <f>((L65-L64)/L64)*100</f>
+        <v>1.6483516483516485</v>
+      </c>
+      <c r="O65">
+        <v>16</v>
+      </c>
+      <c r="P65">
+        <f>(O65/K65)*100</f>
+        <v>10.191082802547772</v>
+      </c>
+      <c r="Q65">
+        <v>1084</v>
+      </c>
+      <c r="R65">
+        <f>Q65-K65</f>
+        <v>927</v>
+      </c>
+      <c r="S65">
+        <f>(K65/Q65)*100</f>
+        <v>14.48339483394834</v>
+      </c>
+      <c r="T65">
+        <f>(O65/Q65)*100</f>
+        <v>1.4760147601476015</v>
+      </c>
+      <c r="U65">
+        <f>K65-O65</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B66">
+        <f>B65+C66</f>
+        <v>2575</v>
+      </c>
+      <c r="C66">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <f>((B66-B65)/B65)*100</f>
+        <v>2.7944111776447107</v>
+      </c>
+      <c r="E66">
+        <v>33304</v>
+      </c>
+      <c r="F66">
+        <f>E66-E65</f>
+        <v>1994</v>
+      </c>
+      <c r="G66">
+        <f>((E66-E65)/E65)*100</f>
+        <v>6.3685723411050779</v>
+      </c>
+      <c r="H66">
+        <f>B66</f>
+        <v>2575</v>
+      </c>
+      <c r="I66">
+        <f>(H66/E66)*100</f>
+        <v>7.7318039875090072</v>
+      </c>
+      <c r="J66">
+        <f>(C66/F66)*100</f>
+        <v>3.5105315947843532</v>
+      </c>
+      <c r="K66">
+        <v>171</v>
+      </c>
+      <c r="L66">
+        <v>188</v>
+      </c>
+      <c r="M66">
+        <f>(L66/B66)*100</f>
+        <v>7.3009708737864081</v>
+      </c>
+      <c r="N66">
+        <f>((L66-L65)/L65)*100</f>
+        <v>1.6216216216216217</v>
+      </c>
+      <c r="O66">
+        <v>15</v>
+      </c>
+      <c r="P66">
+        <f>(O66/K66)*100</f>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="Q66">
+        <v>1114</v>
+      </c>
+      <c r="R66">
+        <f>Q66-K66</f>
+        <v>943</v>
+      </c>
+      <c r="S66">
+        <f>(K66/Q66)*100</f>
+        <v>15.350089766606823</v>
+      </c>
+      <c r="T66">
+        <f>(O66/Q66)*100</f>
+        <v>1.3464991023339317</v>
+      </c>
+      <c r="U66">
+        <f>K66-O66</f>
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51153D-F1F2-41CC-83ED-6B512A2A7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0180BA-2B80-4A26-B55A-731334A25E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,9 +576,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4705,16 +4706,16 @@
         <f>((B66-B65)/B65)*100</f>
         <v>2.7944111776447107</v>
       </c>
-      <c r="E66">
-        <v>33304</v>
+      <c r="E66" s="2">
+        <v>32304</v>
       </c>
       <c r="F66">
-        <f>E66-E65</f>
-        <v>1994</v>
+        <f t="shared" ref="F66:F69" si="0">E66-E65</f>
+        <v>994</v>
       </c>
       <c r="G66">
         <f>((E66-E65)/E65)*100</f>
-        <v>6.3685723411050779</v>
+        <v>3.1747045672309167</v>
       </c>
       <c r="H66">
         <f>B66</f>
@@ -4722,11 +4723,11 @@
       </c>
       <c r="I66">
         <f>(H66/E66)*100</f>
-        <v>7.7318039875090072</v>
+        <v>7.9711490837048036</v>
       </c>
       <c r="J66">
         <f>(C66/F66)*100</f>
-        <v>3.5105315947843532</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="K66">
         <v>171</v>
@@ -4767,6 +4768,243 @@
       <c r="U66">
         <f>K66-O66</f>
         <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B67">
+        <f>B66+C67</f>
+        <v>2627</v>
+      </c>
+      <c r="C67">
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <f>((B67-B66)/B66)*100</f>
+        <v>2.0194174757281553</v>
+      </c>
+      <c r="E67">
+        <v>32850</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="G67">
+        <f>((E67-E66)/E66)*100</f>
+        <v>1.6901931649331352</v>
+      </c>
+      <c r="H67">
+        <f>B67</f>
+        <v>2627</v>
+      </c>
+      <c r="I67">
+        <f>(H67/E67)*100</f>
+        <v>7.9969558599695585</v>
+      </c>
+      <c r="J67">
+        <f>(C67/F67)*100</f>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="K67">
+        <v>168</v>
+      </c>
+      <c r="L67">
+        <v>191</v>
+      </c>
+      <c r="M67">
+        <f>(L67/B67)*100</f>
+        <v>7.2706509326227629</v>
+      </c>
+      <c r="N67">
+        <f>((L67-L66)/L66)*100</f>
+        <v>1.5957446808510638</v>
+      </c>
+      <c r="O67">
+        <v>14</v>
+      </c>
+      <c r="P67">
+        <f>(O67/K67)*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="Q67">
+        <v>1118</v>
+      </c>
+      <c r="R67">
+        <f>Q67-K67</f>
+        <v>950</v>
+      </c>
+      <c r="S67">
+        <f>(K67/Q67)*100</f>
+        <v>15.026833631484795</v>
+      </c>
+      <c r="T67">
+        <f>(O67/Q67)*100</f>
+        <v>1.2522361359570662</v>
+      </c>
+      <c r="U67">
+        <f>K67-O67</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B68">
+        <f>B67+C68</f>
+        <v>2648</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <f>((B68-B67)/B67)*100</f>
+        <v>0.79939094023601054</v>
+      </c>
+      <c r="E68">
+        <v>33626</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="G68">
+        <f>((E68-E67)/E67)*100</f>
+        <v>2.3622526636225265</v>
+      </c>
+      <c r="H68">
+        <f>B68</f>
+        <v>2648</v>
+      </c>
+      <c r="I68">
+        <f>(H68/E68)*100</f>
+        <v>7.8748587402605121</v>
+      </c>
+      <c r="J68">
+        <f>(C68/F68)*100</f>
+        <v>2.7061855670103094</v>
+      </c>
+      <c r="K68">
+        <v>176</v>
+      </c>
+      <c r="L68">
+        <v>194</v>
+      </c>
+      <c r="M68">
+        <f>(L68/B68)*100</f>
+        <v>7.3262839879154082</v>
+      </c>
+      <c r="N68">
+        <f>((L68-L67)/L67)*100</f>
+        <v>1.5706806282722512</v>
+      </c>
+      <c r="O68">
+        <v>15</v>
+      </c>
+      <c r="P68">
+        <f>(O68/K68)*100</f>
+        <v>8.5227272727272716</v>
+      </c>
+      <c r="Q68">
+        <v>1094</v>
+      </c>
+      <c r="R68">
+        <f>Q68-K68</f>
+        <v>918</v>
+      </c>
+      <c r="S68">
+        <f>(K68/Q68)*100</f>
+        <v>16.087751371115175</v>
+      </c>
+      <c r="T68">
+        <f>(O68/Q68)*100</f>
+        <v>1.3711151736745886</v>
+      </c>
+      <c r="U68">
+        <f>K68-O68</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B69">
+        <f>B68+C69</f>
+        <v>2676</v>
+      </c>
+      <c r="C69">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <f>((B69-B68)/B68)*100</f>
+        <v>1.0574018126888218</v>
+      </c>
+      <c r="E69">
+        <v>35059</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>1433</v>
+      </c>
+      <c r="G69">
+        <f>((E69-E68)/E68)*100</f>
+        <v>4.2615832986379587</v>
+      </c>
+      <c r="H69">
+        <f>B69</f>
+        <v>2676</v>
+      </c>
+      <c r="I69">
+        <f>(H69/E69)*100</f>
+        <v>7.6328474856670185</v>
+      </c>
+      <c r="J69">
+        <f>(C69/F69)*100</f>
+        <v>1.9539427773900906</v>
+      </c>
+      <c r="K69">
+        <v>181</v>
+      </c>
+      <c r="L69">
+        <v>194</v>
+      </c>
+      <c r="M69">
+        <f>(L69/B69)*100</f>
+        <v>7.2496263079222718</v>
+      </c>
+      <c r="N69">
+        <f>((L69-L68)/L68)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>15</v>
+      </c>
+      <c r="P69">
+        <f>(O69/K69)*100</f>
+        <v>8.2872928176795568</v>
+      </c>
+      <c r="Q69">
+        <v>1094</v>
+      </c>
+      <c r="R69">
+        <f>Q69-K69</f>
+        <v>913</v>
+      </c>
+      <c r="S69">
+        <f>(K69/Q69)*100</f>
+        <v>16.544789762340038</v>
+      </c>
+      <c r="T69">
+        <f>(O69/Q69)*100</f>
+        <v>1.3711151736745886</v>
+      </c>
+      <c r="U69">
+        <f>K69-O69</f>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0180BA-2B80-4A26-B55A-731334A25E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90930264-BD39-409E-8E04-98EBF2E0D7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4909,19 +4909,19 @@
         <v>8.5227272727272716</v>
       </c>
       <c r="Q68">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="R68">
         <f>Q68-K68</f>
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="S68">
         <f>(K68/Q68)*100</f>
-        <v>16.087751371115175</v>
+        <v>16.341689879294336</v>
       </c>
       <c r="T68">
         <f>(O68/Q68)*100</f>
-        <v>1.3711151736745886</v>
+        <v>1.392757660167131</v>
       </c>
       <c r="U68">
         <f>K68-O68</f>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90930264-BD39-409E-8E04-98EBF2E0D7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E5060-5850-4AEF-B23E-67B99DDFC9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>percent_increase</t>
+  </si>
+  <si>
+    <t>average_TR_3</t>
   </si>
 </sst>
 </file>
@@ -935,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,16 +950,17 @@
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,72 +980,75 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43909</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>30</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43910</v>
       </c>
@@ -1054,23 +1061,23 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>36</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.7777777779999999</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43911</v>
       </c>
@@ -1083,23 +1090,23 @@
       <c r="D4">
         <v>27.777777780000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>46</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.1739130430000002</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43912</v>
       </c>
@@ -1115,32 +1122,32 @@
       <c r="E5">
         <v>1168</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>68</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.8219178080000002</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.4705882349999999</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>54.545454550000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43913</v>
       </c>
@@ -1159,38 +1166,38 @@
       <c r="F6">
         <v>203</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17.38013699</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>81</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5.9080962799999996</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.4039408870000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.4691358019999998</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43914</v>
       </c>
@@ -1209,38 +1216,38 @@
       <c r="F7">
         <v>202</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14.73377097</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>106</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.7387158300000003</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12.376237619999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.8301886789999999</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>50</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43915</v>
       </c>
@@ -1260,37 +1267,41 @@
         <v>130</v>
       </c>
       <c r="G8">
+        <f>AVERAGE(F6:F8)</f>
+        <v>178.33333333333334</v>
+      </c>
+      <c r="H8">
         <v>8.2644628099999995</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>121</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7.1051086320000003</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>11.53846154</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.4793388429999998</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>15</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43916</v>
       </c>
@@ -1310,37 +1321,41 @@
         <v>263</v>
       </c>
       <c r="G9">
+        <f t="shared" ref="G9:G70" si="0">AVERAGE(F7:F9)</f>
+        <v>198.33333333333334</v>
+      </c>
+      <c r="H9">
         <v>15.44333529</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>148</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7.5279755850000001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10.266159699999999</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>31</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.7027027029999999</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>33.333333330000002</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>19</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>61.290322580000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43917</v>
       </c>
@@ -1360,37 +1375,41 @@
         <v>36</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="H10">
         <v>1.831129196</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>166</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.2917082919999991</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>50</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>33</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.4096385539999998</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>21</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>63.636363639999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43918</v>
       </c>
@@ -1410,37 +1429,41 @@
         <v>476</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>258.33333333333331</v>
+      </c>
+      <c r="H11">
         <v>23.776223779999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>202</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8.1517352699999996</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7.5630252100000002</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>32</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.4752475249999999</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>25</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>22</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>68.75</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43919</v>
       </c>
@@ -1460,37 +1483,41 @@
         <v>141</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>217.66666666666666</v>
+      </c>
+      <c r="H12">
         <v>5.6900726390000003</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>223</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>8.5147002670000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>14.893617020000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>33</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.69058296</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>20</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>22</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>66.666666669999998</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43920</v>
       </c>
@@ -1510,37 +1537,41 @@
         <v>159</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>258.66666666666669</v>
+      </c>
+      <c r="H13">
         <v>6.0710194729999998</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>257</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9.2512598990000008</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>21.383647799999999</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>42</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3.1128404669999998</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>33.333333330000002</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>25</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>59.52380952</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -1560,37 +1591,41 @@
         <v>374</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>224.66666666666666</v>
+      </c>
+      <c r="H14">
         <v>13.462922969999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>300</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9.5177664970000002</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>11.4973262</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>57</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>12.5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>24</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>42.10526316</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43922</v>
       </c>
@@ -1610,37 +1645,41 @@
         <v>346</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="H15">
         <v>10.97715736</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>359</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10.26300743</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17.052023120000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>62</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>9</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.5069637880000002</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>28</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>45.161290319999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43923</v>
       </c>
@@ -1660,37 +1699,41 @@
         <v>270</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="H16">
         <v>7.7186963979999996</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>390</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10.350318469999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11.481481479999999</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>70</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.5641025640000001</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11.11111111</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>25</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>35.714285709999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43924</v>
       </c>
@@ -1710,37 +1753,41 @@
         <v>360</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>325.33333333333331</v>
+      </c>
+      <c r="H17">
         <v>9.5541401270000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>436</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>10.562015499999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12.777777779999999</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>14</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.211009174</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>40</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>28</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>36.363636360000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43925</v>
       </c>
@@ -1760,37 +1807,41 @@
         <v>194</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>274.66666666666669</v>
+      </c>
+      <c r="H18">
         <v>4.6996124029999997</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>481</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>11.129106889999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>23.195876290000001</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>77</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>17</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.5343035340000002</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>21.428571430000002</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>29</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>37.662337659999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43926</v>
       </c>
@@ -1810,37 +1861,41 @@
         <v>219</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>257.66666666666669</v>
+      </c>
+      <c r="H19">
         <v>5.0670985650000002</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>516</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>11.363135870000001</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>15.981735159999999</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>86</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>19</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3.6821705429999998</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>11.764705879999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>30</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>34.883720930000003</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43927</v>
       </c>
@@ -1860,37 +1915,41 @@
         <v>365</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>259.33333333333331</v>
+      </c>
+      <c r="H20">
         <v>8.0378771199999992</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>543</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>11.068079900000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7.3972602739999997</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>83</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>26</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>4.7882136280000003</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>36.842105259999997</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>30</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>36.14457831</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43928</v>
       </c>
@@ -1910,37 +1969,41 @@
         <v>412</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="H21">
         <v>8.3978801470000004</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>570</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>10.71831516</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6.553398058</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>83</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>31</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>5.4385964910000002</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>19.23076923</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>37</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>44.578313250000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43929</v>
       </c>
@@ -1960,37 +2023,41 @@
         <v>348</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="H22">
         <v>6.5438134640000003</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>627</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>11.066007770000001</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>16.37931034</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>86</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>34</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>5.4226475279999997</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>9.6774193549999996</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>39</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>45.348837209999999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43930</v>
       </c>
@@ -2010,37 +2077,41 @@
         <v>353</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="H23">
         <v>6.2301447230000004</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>680</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>11.297557729999999</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>15.01416431</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>85</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>40</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5.8823529409999997</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>17.647058820000002</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>37</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>43.529411760000002</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43931</v>
       </c>
@@ -2060,37 +2131,41 @@
         <v>328</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="H24">
         <v>5.4494102010000001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>712</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11.21789822</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9.7560975610000007</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>87</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>46</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>6.4606741569999997</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>15</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>36</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>41.379310340000004</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43932</v>
       </c>
@@ -2110,37 +2185,41 @@
         <v>135</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="H25">
         <v>2.126989129</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>742</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>11.44708423</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>22.222222219999999</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>90</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>49</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6.6037735849999999</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>6.5217391300000003</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>38</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>42.222222219999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43933</v>
       </c>
@@ -2160,37 +2239,41 @@
         <v>351</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>271.33333333333331</v>
+      </c>
+      <c r="H26">
         <v>5.4149953719999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>768</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>11.23957266</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>7.407407407</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>97</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>50</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>6.5104166670000003</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.0408163269999999</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>36</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>37.113402059999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43934</v>
       </c>
@@ -2210,37 +2293,41 @@
         <v>145</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>210.33333333333334</v>
+      </c>
+      <c r="H27">
         <v>2.1220547340000002</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>791</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>11.335626250000001</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>15.862068969999999</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>97</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>50</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6.3211125160000003</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>37</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>38.144329900000002</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43935</v>
       </c>
@@ -2260,37 +2347,41 @@
         <v>311</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="H28">
         <v>4.4568644309999996</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>834</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>11.44189875</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>13.82636656</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>97</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>56</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>6.714628297</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>12</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>35</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>36.082474230000003</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43936</v>
       </c>
@@ -2310,37 +2401,41 @@
         <v>355</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>270.33333333333331</v>
+      </c>
+      <c r="H29">
         <v>4.8703525860000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>883</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>11.551543690000001</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>13.8028169</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>97</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>57</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>6.4552661379999998</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.7857142859999999</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>35</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>36.082474230000003</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43937</v>
       </c>
@@ -2360,37 +2455,41 @@
         <v>284</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>316.66666666666669</v>
+      </c>
+      <c r="H30">
         <v>3.7153322869999998</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>932</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>11.75580222</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>17.253521129999999</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>96</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>62</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>6.6523605149999998</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>8.7719298250000008</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>35</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>36.458333330000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43938</v>
       </c>
@@ -2410,37 +2509,41 @@
         <v>372</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="H31">
         <v>4.692230071</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>973</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>11.72289157</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>11.021505380000001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>96</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>64</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>6.5775950669999999</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3.225806452</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>35</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>36.458333330000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43939</v>
       </c>
@@ -2460,37 +2563,41 @@
         <v>126</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>260.66666666666669</v>
+      </c>
+      <c r="H32">
         <v>1.518072289</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>11.868027530000001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>21.428571430000002</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>93</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>68</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>6.8</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>6.25</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>32</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>34.40860215</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43940</v>
       </c>
@@ -2510,52 +2617,56 @@
         <v>278</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>258.66666666666669</v>
+      </c>
+      <c r="H33">
         <v>3.2993116539999998</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1019</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>11.70726103</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>6.8345323740000001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>97</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>71</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>6.9676153090000001</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>4.4117647059999996</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>30</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>30.927835049999999</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>503</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>406</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>19.28429423</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>5.9642147120000004</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43941</v>
       </c>
@@ -2575,52 +2686,56 @@
         <v>110</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
+        <v>171.33333333333334</v>
+      </c>
+      <c r="H34">
         <v>1.2637867650000001</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1038</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>11.776718860000001</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>17.272727270000001</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>94</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>81</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>7.803468208</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>14.08450704</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>28</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>29.787234040000001</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>489</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>395</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>19.222903890000001</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>5.7259713699999999</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43942</v>
       </c>
@@ -2640,52 +2755,56 @@
         <v>508</v>
       </c>
       <c r="G35">
+        <f t="shared" si="0"/>
+        <v>298.66666666666669</v>
+      </c>
+      <c r="H35">
         <v>5.7635579760000004</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1077</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>11.553314739999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>7.6771653540000004</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>99</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>86</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>7.9851439180000003</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>6.1728395059999999</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>30</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>30.3030303</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>500</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>401</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>19.8</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>6</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43943</v>
       </c>
@@ -2705,52 +2824,56 @@
         <v>636</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="H36">
         <v>6.8225702640000003</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1133</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>11.3777867</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>8.8050314469999993</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>98</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>88</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7.7669902909999999</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2.3255813949999999</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>30</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>30.6122449</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>537</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>439</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>18.249534449999999</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>5.5865921790000002</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43944</v>
       </c>
@@ -2770,52 +2893,56 @@
         <v>412</v>
       </c>
       <c r="G37">
+        <f t="shared" si="0"/>
+        <v>518.66666666666663</v>
+      </c>
+      <c r="H37">
         <v>4.1373769830000002</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1174</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>11.321118609999999</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>9.9514563109999994</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>102</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>91</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>7.7512776829999996</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3.4090909090000001</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>30</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>29.41176471</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>555</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>453</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>18.378378380000001</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>5.4054054049999998</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43945</v>
       </c>
@@ -2835,52 +2962,56 @@
         <v>408</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
+        <v>485.33333333333331</v>
+      </c>
+      <c r="H38">
         <v>3.9344262300000001</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1220</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>11.319354239999999</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>11.274509800000001</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>100</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>96</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>7.8688524590000002</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>5.4945054950000003</v>
-      </c>
-      <c r="O38">
-        <v>30</v>
       </c>
       <c r="P38">
         <v>30</v>
       </c>
       <c r="Q38">
+        <v>30</v>
+      </c>
+      <c r="R38">
         <v>585</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>485</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>17.094017090000001</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>5.1282051280000003</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43946</v>
       </c>
@@ -2900,52 +3031,56 @@
         <v>411</v>
       </c>
       <c r="G39">
+        <f t="shared" si="0"/>
+        <v>410.33333333333331</v>
+      </c>
+      <c r="H39">
         <v>3.8133234370000002</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1260</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>11.26105997</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>9.7323600970000008</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>101</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>99</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>7.8571428570000004</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>3.125</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>29</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>28.712871289999999</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>601</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>500</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>16.805324460000001</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>4.8252911809999999</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43947</v>
       </c>
@@ -2965,52 +3100,56 @@
         <v>194</v>
       </c>
       <c r="G40">
+        <f t="shared" si="0"/>
+        <v>337.66666666666669</v>
+      </c>
+      <c r="H40">
         <v>1.7338457410000001</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>1280</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>11.244838789999999</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>10.30927835</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>108</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>106</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>8.28125</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>7.0707070710000002</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>23</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>21.296296300000002</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>577</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>469</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>18.717504330000001</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>3.9861351819999999</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43948</v>
       </c>
@@ -3030,52 +3169,56 @@
         <v>286</v>
       </c>
       <c r="G41">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="H41">
         <v>2.5125186679999998</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1299</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>11.1320593</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>6.6433566429999997</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>100</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>108</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>8.3140877599999996</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1.886792453</v>
-      </c>
-      <c r="O41">
-        <v>21</v>
       </c>
       <c r="P41">
         <v>21</v>
       </c>
       <c r="Q41">
+        <v>21</v>
+      </c>
+      <c r="R41">
         <v>587</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>487</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>17.035775130000001</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>3.5775127769999999</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43949</v>
       </c>
@@ -3095,52 +3238,56 @@
         <v>492</v>
       </c>
       <c r="G42">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="H42">
         <v>4.2162995969999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1345</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>11.059945730000001</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>9.3495934960000007</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>102</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>112</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>8.3271375459999994</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>3.703703704</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>22</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>21.568627450000001</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>622</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>520</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>16.398713829999998</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>3.5369774920000001</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43950</v>
       </c>
@@ -3160,52 +3307,56 @@
         <v>323</v>
       </c>
       <c r="G43">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="H43">
         <v>2.6560315760000002</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1371</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>10.98205703</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>8.0495356040000008</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>96</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>113</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>8.2421590079999998</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.89285714299999996</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>22</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>22.916666670000001</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>634</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>538</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>15.14195584</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>3.470031546</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43951</v>
       </c>
@@ -3225,52 +3376,56 @@
         <v>480</v>
       </c>
       <c r="G44">
+        <f t="shared" si="0"/>
+        <v>431.66666666666669</v>
+      </c>
+      <c r="H44">
         <v>3.8449214999999999</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1417</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>10.930268440000001</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>9.5833333330000006</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>96</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>115</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>8.1157374739999995</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1.769911504</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>23</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>23.958333329999999</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>646</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>550</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>14.86068111</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>3.5603715170000001</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43952</v>
       </c>
@@ -3290,52 +3445,56 @@
         <v>511</v>
       </c>
       <c r="G45">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="H45">
         <v>3.9416846649999999</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1457</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>10.81261596</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7.8277886499999996</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>99</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>121</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>8.3047357579999996</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>5.2173913040000004</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>22</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>22.222222219999999</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>644</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>545</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>15.372670810000001</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>3.4161490680000002</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43953</v>
       </c>
@@ -3355,52 +3514,56 @@
         <v>572</v>
       </c>
       <c r="G46">
+        <f t="shared" si="0"/>
+        <v>521</v>
+      </c>
+      <c r="H46">
         <v>4.2448979590000002</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1507</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>10.72826938</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>8.7412587409999993</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>98</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>126</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>8.3609820839999998</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>4.1322314049999997</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>22</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>22.44897959</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>668</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>570</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>14.670658680000001</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>3.2934131739999999</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43954</v>
       </c>
@@ -3420,52 +3583,56 @@
         <v>532</v>
       </c>
       <c r="G47">
+        <f t="shared" si="0"/>
+        <v>538.33333333333337</v>
+      </c>
+      <c r="H47">
         <v>3.7872855410000001</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1540</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>10.563138759999999</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>6.2030075189999998</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>105</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>127</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>8.2467532469999991</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.79365079400000005</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>22</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>20.952380949999998</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>699</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>594</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>15.02145923</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>3.147353362</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43955</v>
       </c>
@@ -3485,52 +3652,56 @@
         <v>684</v>
       </c>
       <c r="G48">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="H48">
         <v>4.6916798130000004</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1559</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>10.2142436</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>2.7777777779999999</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>104</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>128</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>8.2103912759999993</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.78740157499999996</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>19</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>18.26923077</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>702</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>598</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>14.81481481</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>2.7065527070000002</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43956</v>
       </c>
@@ -3550,52 +3721,56 @@
         <v>744</v>
       </c>
       <c r="G49">
+        <f t="shared" si="0"/>
+        <v>653.33333333333337</v>
+      </c>
+      <c r="H49">
         <v>4.8745331849999998</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1599</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>9.9893796459999997</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>5.3763440859999996</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>98</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>131</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>8.1926203879999999</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>2.34375</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>17</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>17.346938779999999</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>661</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>563</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>14.82602118</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>2.5718608170000001</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43957</v>
       </c>
@@ -3615,52 +3790,56 @@
         <v>801</v>
       </c>
       <c r="G50">
+        <f t="shared" si="0"/>
+        <v>743</v>
+      </c>
+      <c r="H50">
         <v>5.0040607230000003</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1626</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>9.6739647790000003</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>3.370786517</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>98</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>137</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>8.4255842560000005</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>4.5801526719999996</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>17</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>17.346938779999999</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>666</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>568</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>14.714714710000001</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>2.5525525529999999</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43958</v>
       </c>
@@ -3680,52 +3859,56 @@
         <v>752</v>
       </c>
       <c r="G51">
+        <f t="shared" si="0"/>
+        <v>765.66666666666663</v>
+      </c>
+      <c r="H51">
         <v>4.474059971</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1672</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>9.5216400910000001</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>6.1170212770000001</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>90</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>139</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>8.3133971290000002</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1.4598540149999999</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>16</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>17.777777780000001</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>678</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>588</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>13.27433628</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>2.3598820059999999</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43959</v>
       </c>
@@ -3745,52 +3928,56 @@
         <v>790</v>
       </c>
       <c r="G52">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="H52">
         <v>4.4988610480000002</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1704</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>9.2861035419999993</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>4.0506329110000001</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>88</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>143</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>8.3920187790000007</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>2.8776978419999999</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>16</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>18.18181818</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>672</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>584</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>13.0952381</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>2.3809523810000002</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43960</v>
       </c>
@@ -3810,52 +3997,56 @@
         <v>966</v>
       </c>
       <c r="G53">
+        <f t="shared" si="0"/>
+        <v>836</v>
+      </c>
+      <c r="H53">
         <v>5.2643051769999998</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1742</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>9.018430317</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>3.9337474120000002</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>82</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>147</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>8.4385763489999999</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>2.7972027970000002</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>19</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>23.170731709999998</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>675</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>593</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>12.148148150000001</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>2.8148148150000001</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43961</v>
       </c>
@@ -3875,52 +4066,56 @@
         <v>987</v>
       </c>
       <c r="G54">
+        <f t="shared" si="0"/>
+        <v>914.33333333333337</v>
+      </c>
+      <c r="H54">
         <v>5.1097535719999998</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1788</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>8.8065803079999991</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>4.6605876390000001</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>85</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>148</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>8.2774049220000006</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>0.68027210900000001</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>19</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>22.352941179999998</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>669</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>584</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>12.705530639999999</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>2.8400597909999998</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43962</v>
       </c>
@@ -3940,52 +4135,56 @@
         <v>369</v>
       </c>
       <c r="G55">
+        <f t="shared" si="0"/>
+        <v>774</v>
+      </c>
+      <c r="H55">
         <v>1.817465399</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1817</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>8.7896671830000006</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>7.8590785910000003</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>91</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>152</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>8.3654375339999998</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>2.7027027029999999</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>19</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>20.879120879999999</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>665</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>574</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>13.68421053</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>2.8571428569999999</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43963</v>
       </c>
@@ -4005,52 +4204,56 @@
         <v>622</v>
       </c>
       <c r="G56">
+        <f t="shared" si="0"/>
+        <v>659.33333333333337</v>
+      </c>
+      <c r="H56">
         <v>3.0089009290000002</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1851</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>8.6925894620000008</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>5.4662379420000002</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>93</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>156</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>8.4278768230000001</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>2.6315789469999999</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>19</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>20.430107530000001</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>670</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>577</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>13.880597010000001</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>2.835820896</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43964</v>
       </c>
@@ -4070,52 +4273,56 @@
         <v>1704</v>
       </c>
       <c r="G57">
+        <f t="shared" si="0"/>
+        <v>898.33333333333337</v>
+      </c>
+      <c r="H57">
         <v>8.0022541559999993</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1934</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>8.4094269070000003</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>4.8708920190000002</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>101</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>162</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>8.3764219230000005</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>3.846153846</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>20</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>19.801980199999999</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>717</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>616</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>14.08647141</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>2.7894002790000001</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43965</v>
       </c>
@@ -4135,52 +4342,56 @@
         <v>1225</v>
       </c>
       <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1183.6666666666667</v>
+      </c>
+      <c r="H58">
         <v>5.3265501349999997</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2010</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>8.2978986910000003</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>6.2040816330000004</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>109</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>163</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>8.1094527359999997</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.617283951</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>20</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>18.348623849999999</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>783</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>674</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>13.92081737</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>2.5542784159999998</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43966</v>
       </c>
@@ -4200,52 +4411,56 @@
         <v>1176</v>
       </c>
       <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1368.3333333333333</v>
+      </c>
+      <c r="H59">
         <v>4.8548899810000004</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2104</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>8.2837907000000008</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>7.9931972790000003</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>119</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>167</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>7.9372623569999998</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>2.4539877300000001</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>22</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>18.48739496</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>837</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>718</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>14.217443250000001</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>2.628434886</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43967</v>
       </c>
@@ -4265,52 +4480,56 @@
         <v>947</v>
       </c>
       <c r="G60">
+        <f t="shared" si="0"/>
+        <v>1116</v>
+      </c>
+      <c r="H60">
         <v>3.7284932479999999</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2183</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>8.2858878009999994</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>8.3421330519999994</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>119</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>171</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>7.8332569860000003</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2.395209581</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>21</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>17.647058820000002</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>887</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>768</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>13.416009020000001</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>2.3675310029999999</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43968</v>
       </c>
@@ -4330,52 +4549,56 @@
         <v>1577</v>
       </c>
       <c r="G61">
+        <f t="shared" si="0"/>
+        <v>1233.3333333333333</v>
+      </c>
+      <c r="H61">
         <v>5.9857283839999997</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2228</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>7.9790853420000003</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>2.8535193410000002</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>124</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>172</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>7.7199281869999998</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0.58479532199999995</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>21</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>16.935483869999999</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>911</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>787</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>13.611416030000001</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>2.3051591660000001</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43969</v>
       </c>
@@ -4398,63 +4621,67 @@
         <v>675</v>
       </c>
       <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1066.3333333333333</v>
+      </c>
+      <c r="H62">
         <f>((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <f>B62</f>
         <v>2269</v>
       </c>
-      <c r="I62">
-        <f>(H62/E62)*100</f>
+      <c r="J62">
+        <f>(I62/E62)*100</f>
         <v>7.9341212672214834</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f>(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>136</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>174</v>
       </c>
-      <c r="M62">
-        <f>(L62/B62)*100</f>
+      <c r="N62">
+        <f>(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
-      <c r="N62">
-        <f>((L62-L61)/L61)*100</f>
+      <c r="O62">
+        <f>((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>21</v>
       </c>
-      <c r="P62">
-        <f>(O62/K62)*100</f>
+      <c r="Q62">
+        <f>(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>941</v>
       </c>
-      <c r="R62">
-        <f>Q62-K62</f>
+      <c r="S62">
+        <f>R62-L62</f>
         <v>805</v>
       </c>
-      <c r="S62">
-        <f>(K62/Q62)*100</f>
+      <c r="T62">
+        <f>(L62/R62)*100</f>
         <v>14.452709883103083</v>
       </c>
-      <c r="T62">
-        <f>(O62/Q62)*100</f>
+      <c r="U62">
+        <f>(P62/R62)*100</f>
         <v>2.2316684378320937</v>
       </c>
-      <c r="U62">
-        <f>K62-O62</f>
+      <c r="V62">
+        <f>L62-P62</f>
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43970</v>
       </c>
@@ -4477,63 +4704,67 @@
         <v>1372</v>
       </c>
       <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1208</v>
+      </c>
+      <c r="H63">
         <f>((E63-E62)/E62)*100</f>
         <v>4.7975382893908662</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f>B63</f>
         <v>2365</v>
       </c>
-      <c r="I63">
-        <f>(H63/E63)*100</f>
+      <c r="J63">
+        <f>(I63/E63)*100</f>
         <v>7.8912245578912241</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f>(C63/F63)*100</f>
         <v>6.9970845481049562</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>146</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>178</v>
       </c>
-      <c r="M63">
-        <f>(L63/B63)*100</f>
+      <c r="N63">
+        <f>(M63/B63)*100</f>
         <v>7.5264270613107822</v>
       </c>
-      <c r="N63">
-        <f>((L63-L62)/L62)*100</f>
+      <c r="O63">
+        <f>((M63-M62)/M62)*100</f>
         <v>2.2988505747126435</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>17</v>
       </c>
-      <c r="P63">
-        <f>(O63/K63)*100</f>
+      <c r="Q63">
+        <f>(P63/L63)*100</f>
         <v>11.643835616438356</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>1032</v>
       </c>
-      <c r="R63">
-        <f>Q63-K63</f>
+      <c r="S63">
+        <f>R63-L63</f>
         <v>886</v>
       </c>
-      <c r="S63">
-        <f>(K63/Q63)*100</f>
+      <c r="T63">
+        <f>(L63/R63)*100</f>
         <v>14.147286821705427</v>
       </c>
-      <c r="T63">
-        <f>(O63/Q63)*100</f>
+      <c r="U63">
+        <f>(P63/R63)*100</f>
         <v>1.6472868217054266</v>
       </c>
-      <c r="U63">
-        <f>K63-O63</f>
+      <c r="V63">
+        <f>L63-P63</f>
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43971</v>
       </c>
@@ -4556,63 +4787,67 @@
         <v>716</v>
       </c>
       <c r="G64">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="H64">
         <f>((E64-E63)/E63)*100</f>
         <v>2.3890557223890561</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <f>B64</f>
         <v>2425</v>
       </c>
-      <c r="I64">
-        <f>(H64/E64)*100</f>
+      <c r="J64">
+        <f>(I64/E64)*100</f>
         <v>7.902626604966434</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f>(C64/F64)*100</f>
         <v>8.3798882681564244</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>148</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>182</v>
       </c>
-      <c r="M64">
-        <f>(L64/B64)*100</f>
+      <c r="N64">
+        <f>(M64/B64)*100</f>
         <v>7.5051546391752568</v>
       </c>
-      <c r="N64">
-        <f>((L64-L63)/L63)*100</f>
+      <c r="O64">
+        <f>((M64-M63)/M63)*100</f>
         <v>2.2471910112359552</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>15</v>
       </c>
-      <c r="P64">
-        <f>(O64/K64)*100</f>
+      <c r="Q64">
+        <f>(P64/L64)*100</f>
         <v>10.135135135135135</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>1033</v>
       </c>
-      <c r="R64">
-        <f>Q64-K64</f>
+      <c r="S64">
+        <f>R64-L64</f>
         <v>885</v>
       </c>
-      <c r="S64">
-        <f>(K64/Q64)*100</f>
+      <c r="T64">
+        <f>(L64/R64)*100</f>
         <v>14.327202323330107</v>
       </c>
-      <c r="T64">
-        <f>(O64/Q64)*100</f>
+      <c r="U64">
+        <f>(P64/R64)*100</f>
         <v>1.452081316553727</v>
       </c>
-      <c r="U64">
-        <f>K64-O64</f>
+      <c r="V64">
+        <f>L64-P64</f>
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43972</v>
       </c>
@@ -4635,63 +4870,67 @@
         <v>624</v>
       </c>
       <c r="G65">
+        <f t="shared" si="0"/>
+        <v>904</v>
+      </c>
+      <c r="H65">
         <f>((E65-E64)/E64)*100</f>
         <v>2.0335006191748679</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f>B65</f>
         <v>2505</v>
       </c>
-      <c r="I65">
-        <f>(H65/E65)*100</f>
+      <c r="J65">
+        <f>(I65/E65)*100</f>
         <v>8.0006387735547744</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f>(C65/F65)*100</f>
         <v>12.820512820512819</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>157</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>185</v>
       </c>
-      <c r="M65">
-        <f>(L65/B65)*100</f>
+      <c r="N65">
+        <f>(M65/B65)*100</f>
         <v>7.3852295409181634</v>
       </c>
-      <c r="N65">
-        <f>((L65-L64)/L64)*100</f>
+      <c r="O65">
+        <f>((M65-M64)/M64)*100</f>
         <v>1.6483516483516485</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>16</v>
       </c>
-      <c r="P65">
-        <f>(O65/K65)*100</f>
+      <c r="Q65">
+        <f>(P65/L65)*100</f>
         <v>10.191082802547772</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>1084</v>
       </c>
-      <c r="R65">
-        <f>Q65-K65</f>
+      <c r="S65">
+        <f>R65-L65</f>
         <v>927</v>
       </c>
-      <c r="S65">
-        <f>(K65/Q65)*100</f>
+      <c r="T65">
+        <f>(L65/R65)*100</f>
         <v>14.48339483394834</v>
       </c>
-      <c r="T65">
-        <f>(O65/Q65)*100</f>
+      <c r="U65">
+        <f>(P65/R65)*100</f>
         <v>1.4760147601476015</v>
       </c>
-      <c r="U65">
-        <f>K65-O65</f>
+      <c r="V65">
+        <f>L65-P65</f>
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43973</v>
       </c>
@@ -4710,67 +4949,71 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F69" si="0">E66-E65</f>
+        <f t="shared" ref="F66:F70" si="1">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
+        <f t="shared" si="0"/>
+        <v>778</v>
+      </c>
+      <c r="H66">
         <f>((E66-E65)/E65)*100</f>
         <v>3.1747045672309167</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <f>B66</f>
         <v>2575</v>
       </c>
-      <c r="I66">
-        <f>(H66/E66)*100</f>
+      <c r="J66">
+        <f>(I66/E66)*100</f>
         <v>7.9711490837048036</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f>(C66/F66)*100</f>
         <v>7.042253521126761</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>171</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>188</v>
       </c>
-      <c r="M66">
-        <f>(L66/B66)*100</f>
+      <c r="N66">
+        <f>(M66/B66)*100</f>
         <v>7.3009708737864081</v>
       </c>
-      <c r="N66">
-        <f>((L66-L65)/L65)*100</f>
+      <c r="O66">
+        <f>((M66-M65)/M65)*100</f>
         <v>1.6216216216216217</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>15</v>
       </c>
-      <c r="P66">
-        <f>(O66/K66)*100</f>
+      <c r="Q66">
+        <f>(P66/L66)*100</f>
         <v>8.7719298245614024</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>1114</v>
       </c>
-      <c r="R66">
-        <f>Q66-K66</f>
+      <c r="S66">
+        <f>R66-L66</f>
         <v>943</v>
       </c>
-      <c r="S66">
-        <f>(K66/Q66)*100</f>
+      <c r="T66">
+        <f>(L66/R66)*100</f>
         <v>15.350089766606823</v>
       </c>
-      <c r="T66">
-        <f>(O66/Q66)*100</f>
+      <c r="U66">
+        <f>(P66/R66)*100</f>
         <v>1.3464991023339317</v>
       </c>
-      <c r="U66">
-        <f>K66-O66</f>
+      <c r="V66">
+        <f>L66-P66</f>
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43974</v>
       </c>
@@ -4789,67 +5032,71 @@
         <v>32850</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="G67">
+        <f t="shared" si="0"/>
+        <v>721.33333333333337</v>
+      </c>
+      <c r="H67">
         <f>((E67-E66)/E66)*100</f>
         <v>1.6901931649331352</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <f>B67</f>
         <v>2627</v>
       </c>
-      <c r="I67">
-        <f>(H67/E67)*100</f>
+      <c r="J67">
+        <f>(I67/E67)*100</f>
         <v>7.9969558599695585</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f>(C67/F67)*100</f>
         <v>9.5238095238095237</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>168</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>191</v>
       </c>
-      <c r="M67">
-        <f>(L67/B67)*100</f>
+      <c r="N67">
+        <f>(M67/B67)*100</f>
         <v>7.2706509326227629</v>
       </c>
-      <c r="N67">
-        <f>((L67-L66)/L66)*100</f>
+      <c r="O67">
+        <f>((M67-M66)/M66)*100</f>
         <v>1.5957446808510638</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>14</v>
       </c>
-      <c r="P67">
-        <f>(O67/K67)*100</f>
+      <c r="Q67">
+        <f>(P67/L67)*100</f>
         <v>8.3333333333333321</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>1118</v>
       </c>
-      <c r="R67">
-        <f>Q67-K67</f>
+      <c r="S67">
+        <f>R67-L67</f>
         <v>950</v>
       </c>
-      <c r="S67">
-        <f>(K67/Q67)*100</f>
+      <c r="T67">
+        <f>(L67/R67)*100</f>
         <v>15.026833631484795</v>
       </c>
-      <c r="T67">
-        <f>(O67/Q67)*100</f>
+      <c r="U67">
+        <f>(P67/R67)*100</f>
         <v>1.2522361359570662</v>
       </c>
-      <c r="U67">
-        <f>K67-O67</f>
+      <c r="V67">
+        <f>L67-P67</f>
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43975</v>
       </c>
@@ -4868,67 +5115,71 @@
         <v>33626</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>776</v>
       </c>
       <c r="G68">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="H68">
         <f>((E68-E67)/E67)*100</f>
         <v>2.3622526636225265</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <f>B68</f>
         <v>2648</v>
       </c>
-      <c r="I68">
-        <f>(H68/E68)*100</f>
+      <c r="J68">
+        <f>(I68/E68)*100</f>
         <v>7.8748587402605121</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f>(C68/F68)*100</f>
         <v>2.7061855670103094</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>176</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>194</v>
       </c>
-      <c r="M68">
-        <f>(L68/B68)*100</f>
+      <c r="N68">
+        <f>(M68/B68)*100</f>
         <v>7.3262839879154082</v>
       </c>
-      <c r="N68">
-        <f>((L68-L67)/L67)*100</f>
+      <c r="O68">
+        <f>((M68-M67)/M67)*100</f>
         <v>1.5706806282722512</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>15</v>
       </c>
-      <c r="P68">
-        <f>(O68/K68)*100</f>
+      <c r="Q68">
+        <f>(P68/L68)*100</f>
         <v>8.5227272727272716</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>1077</v>
       </c>
-      <c r="R68">
-        <f>Q68-K68</f>
+      <c r="S68">
+        <f>R68-L68</f>
         <v>901</v>
       </c>
-      <c r="S68">
-        <f>(K68/Q68)*100</f>
+      <c r="T68">
+        <f>(L68/R68)*100</f>
         <v>16.341689879294336</v>
       </c>
-      <c r="T68">
-        <f>(O68/Q68)*100</f>
+      <c r="U68">
+        <f>(P68/R68)*100</f>
         <v>1.392757660167131</v>
       </c>
-      <c r="U68">
-        <f>K68-O68</f>
+      <c r="V68">
+        <f>L68-P68</f>
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43976</v>
       </c>
@@ -4947,64 +5198,151 @@
         <v>35059</v>
       </c>
       <c r="F69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1433</v>
       </c>
       <c r="G69">
+        <f t="shared" si="0"/>
+        <v>918.33333333333337</v>
+      </c>
+      <c r="H69">
         <f>((E69-E68)/E68)*100</f>
         <v>4.2615832986379587</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <f>B69</f>
         <v>2676</v>
       </c>
-      <c r="I69">
-        <f>(H69/E69)*100</f>
+      <c r="J69">
+        <f>(I69/E69)*100</f>
         <v>7.6328474856670185</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f>(C69/F69)*100</f>
         <v>1.9539427773900906</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>181</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>194</v>
       </c>
-      <c r="M69">
-        <f>(L69/B69)*100</f>
+      <c r="N69">
+        <f>(M69/B69)*100</f>
         <v>7.2496263079222718</v>
       </c>
-      <c r="N69">
-        <f>((L69-L68)/L68)*100</f>
+      <c r="O69">
+        <f>((M69-M68)/M68)*100</f>
         <v>0</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>15</v>
       </c>
-      <c r="P69">
-        <f>(O69/K69)*100</f>
+      <c r="Q69">
+        <f>(P69/L69)*100</f>
         <v>8.2872928176795568</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>1094</v>
       </c>
-      <c r="R69">
-        <f>Q69-K69</f>
+      <c r="S69">
+        <f>R69-L69</f>
         <v>913</v>
       </c>
-      <c r="S69">
-        <f>(K69/Q69)*100</f>
+      <c r="T69">
+        <f>(L69/R69)*100</f>
         <v>16.544789762340038</v>
       </c>
-      <c r="T69">
-        <f>(O69/Q69)*100</f>
+      <c r="U69">
+        <f>(P69/R69)*100</f>
         <v>1.3711151736745886</v>
       </c>
-      <c r="U69">
-        <f>K69-O69</f>
+      <c r="V69">
+        <f>L69-P69</f>
         <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B70">
+        <f>B69+C70</f>
+        <v>2702</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <f>((B70-B69)/B69)*100</f>
+        <v>0.97159940209267559</v>
+      </c>
+      <c r="E70">
+        <v>35985</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>926</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="H70">
+        <f>((E70-E69)/E69)*100</f>
+        <v>2.641261872842922</v>
+      </c>
+      <c r="I70">
+        <f>B70</f>
+        <v>2702</v>
+      </c>
+      <c r="J70">
+        <f>(I70/E70)*100</f>
+        <v>7.508684173961373</v>
+      </c>
+      <c r="K70">
+        <f>(C70/F70)*100</f>
+        <v>2.8077753779697625</v>
+      </c>
+      <c r="L70">
+        <v>176</v>
+      </c>
+      <c r="M70">
+        <v>198</v>
+      </c>
+      <c r="N70">
+        <f>(M70/B70)*100</f>
+        <v>7.3279052553663959</v>
+      </c>
+      <c r="O70">
+        <f>((M70-M69)/M69)*100</f>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="P70">
+        <v>17</v>
+      </c>
+      <c r="Q70">
+        <f>(P70/L70)*100</f>
+        <v>9.6590909090909083</v>
+      </c>
+      <c r="R70">
+        <v>1083</v>
+      </c>
+      <c r="S70">
+        <f>R70-L70</f>
+        <v>907</v>
+      </c>
+      <c r="T70">
+        <f>(L70/R70)*100</f>
+        <v>16.251154201292707</v>
+      </c>
+      <c r="U70">
+        <f>(P70/R70)*100</f>
+        <v>1.5697137580794089</v>
+      </c>
+      <c r="V70">
+        <f>L70-P70</f>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E5060-5850-4AEF-B23E-67B99DDFC9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC77865-AC46-45E2-A2D9-7DEDFFB9056E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G70" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G71" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4949,7 +4949,7 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F70" si="1">E66-E65</f>
+        <f t="shared" ref="F66:F71" si="1">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -5343,6 +5343,89 @@
       <c r="V70">
         <f>L70-P70</f>
         <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B71">
+        <f>B70+C71</f>
+        <v>2741</v>
+      </c>
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <f>((B71-B70)/B70)*100</f>
+        <v>1.4433752775721687</v>
+      </c>
+      <c r="E71">
+        <v>36586</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>601</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>986.66666666666663</v>
+      </c>
+      <c r="H71">
+        <f>((E71-E70)/E70)*100</f>
+        <v>1.6701403362512159</v>
+      </c>
+      <c r="I71">
+        <f>B71</f>
+        <v>2741</v>
+      </c>
+      <c r="J71">
+        <f>(I71/E71)*100</f>
+        <v>7.4919368064286882</v>
+      </c>
+      <c r="K71">
+        <f>(C71/F71)*100</f>
+        <v>6.4891846921797001</v>
+      </c>
+      <c r="L71">
+        <v>190</v>
+      </c>
+      <c r="M71">
+        <v>211</v>
+      </c>
+      <c r="N71">
+        <f>(M71/B71)*100</f>
+        <v>7.6979204669828531</v>
+      </c>
+      <c r="O71">
+        <f>((M71-M70)/M70)*100</f>
+        <v>6.5656565656565666</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71">
+        <f>(P71/L71)*100</f>
+        <v>9.4736842105263168</v>
+      </c>
+      <c r="R71">
+        <v>1059</v>
+      </c>
+      <c r="S71">
+        <f>R71-L71</f>
+        <v>869</v>
+      </c>
+      <c r="T71">
+        <f>(L71/R71)*100</f>
+        <v>17.941454202077431</v>
+      </c>
+      <c r="U71">
+        <f>(P71/R71)*100</f>
+        <v>1.6997167138810201</v>
+      </c>
+      <c r="V71">
+        <f>L71-P71</f>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC77865-AC46-45E2-A2D9-7DEDFFB9056E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC6BCD-9994-4264-A4E9-6382210CD72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G71" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G75" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4949,7 +4949,7 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F71" si="1">E66-E65</f>
+        <f t="shared" ref="F66:F75" si="1">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -5305,7 +5305,7 @@
         <v>2.8077753779697625</v>
       </c>
       <c r="L70">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M70">
         <v>198</v>
@@ -5323,18 +5323,18 @@
       </c>
       <c r="Q70">
         <f>(P70/L70)*100</f>
-        <v>9.6590909090909083</v>
+        <v>9.1397849462365599</v>
       </c>
       <c r="R70">
         <v>1083</v>
       </c>
       <c r="S70">
         <f>R70-L70</f>
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="T70">
         <f>(L70/R70)*100</f>
-        <v>16.251154201292707</v>
+        <v>17.174515235457065</v>
       </c>
       <c r="U70">
         <f>(P70/R70)*100</f>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="V70">
         <f>L70-P70</f>
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -5426,6 +5426,338 @@
       <c r="V71">
         <f>L71-P71</f>
         <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B72">
+        <f>B71+C72</f>
+        <v>2773</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+      <c r="D72">
+        <f>((B72-B71)/B71)*100</f>
+        <v>1.1674571324334184</v>
+      </c>
+      <c r="E72">
+        <v>37442</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>856</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>794.33333333333337</v>
+      </c>
+      <c r="H72">
+        <f>((E72-E71)/E71)*100</f>
+        <v>2.3396927786585033</v>
+      </c>
+      <c r="I72">
+        <f>B72</f>
+        <v>2773</v>
+      </c>
+      <c r="J72">
+        <f>(I72/E72)*100</f>
+        <v>7.4061214678703067</v>
+      </c>
+      <c r="K72">
+        <f>(C72/F72)*100</f>
+        <v>3.7383177570093453</v>
+      </c>
+      <c r="L72">
+        <v>191</v>
+      </c>
+      <c r="M72">
+        <v>216</v>
+      </c>
+      <c r="N72">
+        <f>(M72/B72)*100</f>
+        <v>7.7893977641543461</v>
+      </c>
+      <c r="O72">
+        <f>((M72-M71)/M71)*100</f>
+        <v>2.3696682464454977</v>
+      </c>
+      <c r="P72">
+        <v>19</v>
+      </c>
+      <c r="Q72">
+        <f>(P72/L72)*100</f>
+        <v>9.9476439790575917</v>
+      </c>
+      <c r="R72">
+        <v>1060</v>
+      </c>
+      <c r="S72">
+        <f>R72-L72</f>
+        <v>869</v>
+      </c>
+      <c r="T72">
+        <f>(L72/R72)*100</f>
+        <v>18.018867924528301</v>
+      </c>
+      <c r="U72">
+        <f>(P72/R72)*100</f>
+        <v>1.7924528301886793</v>
+      </c>
+      <c r="V72">
+        <f>L72-P72</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B73">
+        <f>B72+C73</f>
+        <v>2807</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73">
+        <f>((B73-B72)/B72)*100</f>
+        <v>1.2261089073205915</v>
+      </c>
+      <c r="E73">
+        <v>38178</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+      <c r="H73">
+        <f>((E73-E72)/E72)*100</f>
+        <v>1.9657069600982853</v>
+      </c>
+      <c r="I73">
+        <f>B73</f>
+        <v>2807</v>
+      </c>
+      <c r="J73">
+        <f>(I73/E73)*100</f>
+        <v>7.3524019068573514</v>
+      </c>
+      <c r="K73">
+        <f>(C73/F73)*100</f>
+        <v>4.6195652173913038</v>
+      </c>
+      <c r="L73">
+        <v>187</v>
+      </c>
+      <c r="M73">
+        <v>218</v>
+      </c>
+      <c r="N73">
+        <f>(M73/B73)*100</f>
+        <v>7.766298539365871</v>
+      </c>
+      <c r="O73">
+        <f>((M73-M72)/M72)*100</f>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="P73">
+        <v>19</v>
+      </c>
+      <c r="Q73">
+        <f>(P73/L73)*100</f>
+        <v>10.160427807486631</v>
+      </c>
+      <c r="R73">
+        <v>1030</v>
+      </c>
+      <c r="S73">
+        <f>R73-L73</f>
+        <v>843</v>
+      </c>
+      <c r="T73">
+        <f>(L73/R73)*100</f>
+        <v>18.155339805825243</v>
+      </c>
+      <c r="U73">
+        <f>(P73/R73)*100</f>
+        <v>1.8446601941747571</v>
+      </c>
+      <c r="V73">
+        <f>L73-P73</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B74">
+        <f>B73+C74</f>
+        <v>2851</v>
+      </c>
+      <c r="C74">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <f>((B74-B73)/B73)*100</f>
+        <v>1.5675097969362308</v>
+      </c>
+      <c r="E74">
+        <v>40070</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1892</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>1161.3333333333333</v>
+      </c>
+      <c r="H74">
+        <f>((E74-E73)/E73)*100</f>
+        <v>4.9557336686049558</v>
+      </c>
+      <c r="I74">
+        <f>B74</f>
+        <v>2851</v>
+      </c>
+      <c r="J74">
+        <f>(I74/E74)*100</f>
+        <v>7.1150486648365359</v>
+      </c>
+      <c r="K74">
+        <f>(C74/F74)*100</f>
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="L74">
+        <v>189</v>
+      </c>
+      <c r="M74">
+        <v>218</v>
+      </c>
+      <c r="N74">
+        <f>(M74/B74)*100</f>
+        <v>7.6464398456681861</v>
+      </c>
+      <c r="O74">
+        <f>((M74-M73)/M73)*100</f>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>20</v>
+      </c>
+      <c r="Q74">
+        <f>(P74/L74)*100</f>
+        <v>10.582010582010582</v>
+      </c>
+      <c r="R74">
+        <v>985</v>
+      </c>
+      <c r="S74">
+        <f>R74-L74</f>
+        <v>796</v>
+      </c>
+      <c r="T74">
+        <f>(L74/R74)*100</f>
+        <v>19.18781725888325</v>
+      </c>
+      <c r="U74">
+        <f>(P74/R74)*100</f>
+        <v>2.030456852791878</v>
+      </c>
+      <c r="V74">
+        <f>L74-P74</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B75">
+        <f>B74+C75</f>
+        <v>2876</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <f>((B75-B74)/B74)*100</f>
+        <v>0.87688530340231485</v>
+      </c>
+      <c r="E75">
+        <v>41459</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1389</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>1339</v>
+      </c>
+      <c r="H75">
+        <f>((E75-E74)/E74)*100</f>
+        <v>3.4664337409533315</v>
+      </c>
+      <c r="I75">
+        <f>B75</f>
+        <v>2876</v>
+      </c>
+      <c r="J75">
+        <f>(I75/E75)*100</f>
+        <v>6.9369738778069898</v>
+      </c>
+      <c r="K75">
+        <f>(C75/F75)*100</f>
+        <v>1.7998560115190785</v>
+      </c>
+      <c r="L75">
+        <v>195</v>
+      </c>
+      <c r="M75">
+        <v>219</v>
+      </c>
+      <c r="N75">
+        <f>(M75/B75)*100</f>
+        <v>7.6147426981919324</v>
+      </c>
+      <c r="O75">
+        <f>((M75-M74)/M74)*100</f>
+        <v>0.45871559633027525</v>
+      </c>
+      <c r="P75">
+        <v>19</v>
+      </c>
+      <c r="Q75">
+        <f>(P75/L75)*100</f>
+        <v>9.7435897435897445</v>
+      </c>
+      <c r="R75">
+        <v>952</v>
+      </c>
+      <c r="S75">
+        <f>R75-L75</f>
+        <v>757</v>
+      </c>
+      <c r="T75">
+        <f>(L75/R75)*100</f>
+        <v>20.483193277310924</v>
+      </c>
+      <c r="U75">
+        <f>(P75/R75)*100</f>
+        <v>1.9957983193277309</v>
+      </c>
+      <c r="V75">
+        <f>L75-P75</f>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC6BCD-9994-4264-A4E9-6382210CD72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27BF1E3-5EFA-4ECE-A183-F099486F538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G75" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G76" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4949,7 +4949,7 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F75" si="1">E66-E65</f>
+        <f t="shared" ref="F66:F76" si="1">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -5758,6 +5758,89 @@
       <c r="V75">
         <f>L75-P75</f>
         <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B76">
+        <f>B75+C76</f>
+        <v>2887</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <f>((B76-B75)/B75)*100</f>
+        <v>0.3824756606397775</v>
+      </c>
+      <c r="E76">
+        <v>42825</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1366</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>1549</v>
+      </c>
+      <c r="H76">
+        <f>((E76-E75)/E75)*100</f>
+        <v>3.2948213898067973</v>
+      </c>
+      <c r="I76">
+        <f>B76</f>
+        <v>2887</v>
+      </c>
+      <c r="J76">
+        <f>(I76/E76)*100</f>
+        <v>6.7413893753648573</v>
+      </c>
+      <c r="K76">
+        <f>(C76/F76)*100</f>
+        <v>0.80527086383601754</v>
+      </c>
+      <c r="L76">
+        <v>188</v>
+      </c>
+      <c r="M76">
+        <v>224</v>
+      </c>
+      <c r="N76">
+        <f>(M76/B76)*100</f>
+        <v>7.7589192933841353</v>
+      </c>
+      <c r="O76">
+        <f>((M76-M75)/M75)*100</f>
+        <v>2.2831050228310499</v>
+      </c>
+      <c r="P76">
+        <v>20</v>
+      </c>
+      <c r="Q76">
+        <f>(P76/L76)*100</f>
+        <v>10.638297872340425</v>
+      </c>
+      <c r="R76">
+        <v>916</v>
+      </c>
+      <c r="S76">
+        <f>R76-L76</f>
+        <v>728</v>
+      </c>
+      <c r="T76">
+        <f>(L76/R76)*100</f>
+        <v>20.52401746724891</v>
+      </c>
+      <c r="U76">
+        <f>(P76/R76)*100</f>
+        <v>2.1834061135371177</v>
+      </c>
+      <c r="V76">
+        <f>L76-P76</f>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27BF1E3-5EFA-4ECE-A183-F099486F538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578F04D-E626-4BCE-AD17-25F7C32BABE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G76" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G77" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4603,14 +4603,14 @@
         <v>43969</v>
       </c>
       <c r="B62">
-        <f>B61+C62</f>
+        <f t="shared" ref="B62:B76" si="1">B61+C62</f>
         <v>2269</v>
       </c>
       <c r="C62">
         <v>41</v>
       </c>
       <c r="D62">
-        <f>((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D77" si="2">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4625,19 +4625,19 @@
         <v>1066.3333333333333</v>
       </c>
       <c r="H62">
-        <f>((E62-E61)/E61)*100</f>
+        <f t="shared" ref="H62:H77" si="3">((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
       <c r="I62">
-        <f>B62</f>
+        <f t="shared" ref="I62:I77" si="4">B62</f>
         <v>2269</v>
       </c>
       <c r="J62">
-        <f>(I62/E62)*100</f>
+        <f t="shared" ref="J62:J77" si="5">(I62/E62)*100</f>
         <v>7.9341212672214834</v>
       </c>
       <c r="K62">
-        <f>(C62/F62)*100</f>
+        <f t="shared" ref="K62:K77" si="6">(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
       <c r="L62">
@@ -4647,37 +4647,37 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f>(M62/B62)*100</f>
+        <f t="shared" ref="N62:N77" si="7">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
       <c r="O62">
-        <f>((M62-M61)/M61)*100</f>
+        <f t="shared" ref="O62:O77" si="8">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
       <c r="P62">
         <v>21</v>
       </c>
       <c r="Q62">
-        <f>(P62/L62)*100</f>
+        <f t="shared" ref="Q62:Q77" si="9">(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
       <c r="R62">
         <v>941</v>
       </c>
       <c r="S62">
-        <f>R62-L62</f>
+        <f t="shared" ref="S62:S77" si="10">R62-L62</f>
         <v>805</v>
       </c>
       <c r="T62">
-        <f>(L62/R62)*100</f>
+        <f t="shared" ref="T62:T77" si="11">(L62/R62)*100</f>
         <v>14.452709883103083</v>
       </c>
       <c r="U62">
-        <f>(P62/R62)*100</f>
+        <f t="shared" ref="U62:U77" si="12">(P62/R62)*100</f>
         <v>2.2316684378320937</v>
       </c>
       <c r="V62">
-        <f>L62-P62</f>
+        <f t="shared" ref="V62:V77" si="13">L62-P62</f>
         <v>115</v>
       </c>
     </row>
@@ -4686,14 +4686,14 @@
         <v>43970</v>
       </c>
       <c r="B63">
-        <f>B62+C63</f>
+        <f t="shared" si="1"/>
         <v>2365</v>
       </c>
       <c r="C63">
         <v>96</v>
       </c>
       <c r="D63">
-        <f>((B63-B62)/B62)*100</f>
+        <f t="shared" si="2"/>
         <v>4.2309387395328333</v>
       </c>
       <c r="E63">
@@ -4708,19 +4708,19 @@
         <v>1208</v>
       </c>
       <c r="H63">
-        <f>((E63-E62)/E62)*100</f>
+        <f t="shared" si="3"/>
         <v>4.7975382893908662</v>
       </c>
       <c r="I63">
-        <f>B63</f>
+        <f t="shared" si="4"/>
         <v>2365</v>
       </c>
       <c r="J63">
-        <f>(I63/E63)*100</f>
+        <f t="shared" si="5"/>
         <v>7.8912245578912241</v>
       </c>
       <c r="K63">
-        <f>(C63/F63)*100</f>
+        <f t="shared" si="6"/>
         <v>6.9970845481049562</v>
       </c>
       <c r="L63">
@@ -4730,37 +4730,37 @@
         <v>178</v>
       </c>
       <c r="N63">
-        <f>(M63/B63)*100</f>
+        <f t="shared" si="7"/>
         <v>7.5264270613107822</v>
       </c>
       <c r="O63">
-        <f>((M63-M62)/M62)*100</f>
+        <f t="shared" si="8"/>
         <v>2.2988505747126435</v>
       </c>
       <c r="P63">
         <v>17</v>
       </c>
       <c r="Q63">
-        <f>(P63/L63)*100</f>
+        <f t="shared" si="9"/>
         <v>11.643835616438356</v>
       </c>
       <c r="R63">
         <v>1032</v>
       </c>
       <c r="S63">
-        <f>R63-L63</f>
+        <f t="shared" si="10"/>
         <v>886</v>
       </c>
       <c r="T63">
-        <f>(L63/R63)*100</f>
+        <f t="shared" si="11"/>
         <v>14.147286821705427</v>
       </c>
       <c r="U63">
-        <f>(P63/R63)*100</f>
+        <f t="shared" si="12"/>
         <v>1.6472868217054266</v>
       </c>
       <c r="V63">
-        <f>L63-P63</f>
+        <f t="shared" si="13"/>
         <v>129</v>
       </c>
     </row>
@@ -4769,14 +4769,14 @@
         <v>43971</v>
       </c>
       <c r="B64">
-        <f>B63+C64</f>
+        <f t="shared" si="1"/>
         <v>2425</v>
       </c>
       <c r="C64">
         <v>60</v>
       </c>
       <c r="D64">
-        <f>((B64-B63)/B63)*100</f>
+        <f t="shared" si="2"/>
         <v>2.536997885835095</v>
       </c>
       <c r="E64">
@@ -4791,19 +4791,19 @@
         <v>921</v>
       </c>
       <c r="H64">
-        <f>((E64-E63)/E63)*100</f>
+        <f t="shared" si="3"/>
         <v>2.3890557223890561</v>
       </c>
       <c r="I64">
-        <f>B64</f>
+        <f t="shared" si="4"/>
         <v>2425</v>
       </c>
       <c r="J64">
-        <f>(I64/E64)*100</f>
+        <f t="shared" si="5"/>
         <v>7.902626604966434</v>
       </c>
       <c r="K64">
-        <f>(C64/F64)*100</f>
+        <f t="shared" si="6"/>
         <v>8.3798882681564244</v>
       </c>
       <c r="L64">
@@ -4813,37 +4813,37 @@
         <v>182</v>
       </c>
       <c r="N64">
-        <f>(M64/B64)*100</f>
+        <f t="shared" si="7"/>
         <v>7.5051546391752568</v>
       </c>
       <c r="O64">
-        <f>((M64-M63)/M63)*100</f>
+        <f t="shared" si="8"/>
         <v>2.2471910112359552</v>
       </c>
       <c r="P64">
         <v>15</v>
       </c>
       <c r="Q64">
-        <f>(P64/L64)*100</f>
+        <f t="shared" si="9"/>
         <v>10.135135135135135</v>
       </c>
       <c r="R64">
         <v>1033</v>
       </c>
       <c r="S64">
-        <f>R64-L64</f>
+        <f t="shared" si="10"/>
         <v>885</v>
       </c>
       <c r="T64">
-        <f>(L64/R64)*100</f>
+        <f t="shared" si="11"/>
         <v>14.327202323330107</v>
       </c>
       <c r="U64">
-        <f>(P64/R64)*100</f>
+        <f t="shared" si="12"/>
         <v>1.452081316553727</v>
       </c>
       <c r="V64">
-        <f>L64-P64</f>
+        <f t="shared" si="13"/>
         <v>133</v>
       </c>
     </row>
@@ -4852,14 +4852,14 @@
         <v>43972</v>
       </c>
       <c r="B65">
-        <f>B64+C65</f>
+        <f t="shared" si="1"/>
         <v>2505</v>
       </c>
       <c r="C65">
         <v>80</v>
       </c>
       <c r="D65">
-        <f>((B65-B64)/B64)*100</f>
+        <f t="shared" si="2"/>
         <v>3.2989690721649487</v>
       </c>
       <c r="E65">
@@ -4874,19 +4874,19 @@
         <v>904</v>
       </c>
       <c r="H65">
-        <f>((E65-E64)/E64)*100</f>
+        <f t="shared" si="3"/>
         <v>2.0335006191748679</v>
       </c>
       <c r="I65">
-        <f>B65</f>
+        <f t="shared" si="4"/>
         <v>2505</v>
       </c>
       <c r="J65">
-        <f>(I65/E65)*100</f>
+        <f t="shared" si="5"/>
         <v>8.0006387735547744</v>
       </c>
       <c r="K65">
-        <f>(C65/F65)*100</f>
+        <f t="shared" si="6"/>
         <v>12.820512820512819</v>
       </c>
       <c r="L65">
@@ -4896,37 +4896,37 @@
         <v>185</v>
       </c>
       <c r="N65">
-        <f>(M65/B65)*100</f>
+        <f t="shared" si="7"/>
         <v>7.3852295409181634</v>
       </c>
       <c r="O65">
-        <f>((M65-M64)/M64)*100</f>
+        <f t="shared" si="8"/>
         <v>1.6483516483516485</v>
       </c>
       <c r="P65">
         <v>16</v>
       </c>
       <c r="Q65">
-        <f>(P65/L65)*100</f>
+        <f t="shared" si="9"/>
         <v>10.191082802547772</v>
       </c>
       <c r="R65">
         <v>1084</v>
       </c>
       <c r="S65">
-        <f>R65-L65</f>
+        <f t="shared" si="10"/>
         <v>927</v>
       </c>
       <c r="T65">
-        <f>(L65/R65)*100</f>
+        <f t="shared" si="11"/>
         <v>14.48339483394834</v>
       </c>
       <c r="U65">
-        <f>(P65/R65)*100</f>
+        <f t="shared" si="12"/>
         <v>1.4760147601476015</v>
       </c>
       <c r="V65">
-        <f>L65-P65</f>
+        <f t="shared" si="13"/>
         <v>141</v>
       </c>
     </row>
@@ -4935,21 +4935,21 @@
         <v>43973</v>
       </c>
       <c r="B66">
-        <f>B65+C66</f>
+        <f t="shared" si="1"/>
         <v>2575</v>
       </c>
       <c r="C66">
         <v>70</v>
       </c>
       <c r="D66">
-        <f>((B66-B65)/B65)*100</f>
+        <f t="shared" si="2"/>
         <v>2.7944111776447107</v>
       </c>
       <c r="E66" s="2">
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F76" si="1">E66-E65</f>
+        <f t="shared" ref="F66:F77" si="14">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -4957,19 +4957,19 @@
         <v>778</v>
       </c>
       <c r="H66">
-        <f>((E66-E65)/E65)*100</f>
+        <f t="shared" si="3"/>
         <v>3.1747045672309167</v>
       </c>
       <c r="I66">
-        <f>B66</f>
+        <f t="shared" si="4"/>
         <v>2575</v>
       </c>
       <c r="J66">
-        <f>(I66/E66)*100</f>
+        <f t="shared" si="5"/>
         <v>7.9711490837048036</v>
       </c>
       <c r="K66">
-        <f>(C66/F66)*100</f>
+        <f t="shared" si="6"/>
         <v>7.042253521126761</v>
       </c>
       <c r="L66">
@@ -4979,37 +4979,37 @@
         <v>188</v>
       </c>
       <c r="N66">
-        <f>(M66/B66)*100</f>
+        <f t="shared" si="7"/>
         <v>7.3009708737864081</v>
       </c>
       <c r="O66">
-        <f>((M66-M65)/M65)*100</f>
+        <f t="shared" si="8"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="P66">
         <v>15</v>
       </c>
       <c r="Q66">
-        <f>(P66/L66)*100</f>
+        <f t="shared" si="9"/>
         <v>8.7719298245614024</v>
       </c>
       <c r="R66">
         <v>1114</v>
       </c>
       <c r="S66">
-        <f>R66-L66</f>
+        <f t="shared" si="10"/>
         <v>943</v>
       </c>
       <c r="T66">
-        <f>(L66/R66)*100</f>
+        <f t="shared" si="11"/>
         <v>15.350089766606823</v>
       </c>
       <c r="U66">
-        <f>(P66/R66)*100</f>
+        <f t="shared" si="12"/>
         <v>1.3464991023339317</v>
       </c>
       <c r="V66">
-        <f>L66-P66</f>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
     </row>
@@ -5018,21 +5018,21 @@
         <v>43974</v>
       </c>
       <c r="B67">
-        <f>B66+C67</f>
+        <f t="shared" si="1"/>
         <v>2627</v>
       </c>
       <c r="C67">
         <v>52</v>
       </c>
       <c r="D67">
-        <f>((B67-B66)/B66)*100</f>
+        <f t="shared" si="2"/>
         <v>2.0194174757281553</v>
       </c>
       <c r="E67">
         <v>32850</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>546</v>
       </c>
       <c r="G67">
@@ -5040,19 +5040,19 @@
         <v>721.33333333333337</v>
       </c>
       <c r="H67">
-        <f>((E67-E66)/E66)*100</f>
+        <f t="shared" si="3"/>
         <v>1.6901931649331352</v>
       </c>
       <c r="I67">
-        <f>B67</f>
+        <f t="shared" si="4"/>
         <v>2627</v>
       </c>
       <c r="J67">
-        <f>(I67/E67)*100</f>
+        <f t="shared" si="5"/>
         <v>7.9969558599695585</v>
       </c>
       <c r="K67">
-        <f>(C67/F67)*100</f>
+        <f t="shared" si="6"/>
         <v>9.5238095238095237</v>
       </c>
       <c r="L67">
@@ -5062,37 +5062,37 @@
         <v>191</v>
       </c>
       <c r="N67">
-        <f>(M67/B67)*100</f>
+        <f t="shared" si="7"/>
         <v>7.2706509326227629</v>
       </c>
       <c r="O67">
-        <f>((M67-M66)/M66)*100</f>
+        <f t="shared" si="8"/>
         <v>1.5957446808510638</v>
       </c>
       <c r="P67">
         <v>14</v>
       </c>
       <c r="Q67">
-        <f>(P67/L67)*100</f>
+        <f t="shared" si="9"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="R67">
         <v>1118</v>
       </c>
       <c r="S67">
-        <f>R67-L67</f>
+        <f t="shared" si="10"/>
         <v>950</v>
       </c>
       <c r="T67">
-        <f>(L67/R67)*100</f>
+        <f t="shared" si="11"/>
         <v>15.026833631484795</v>
       </c>
       <c r="U67">
-        <f>(P67/R67)*100</f>
+        <f t="shared" si="12"/>
         <v>1.2522361359570662</v>
       </c>
       <c r="V67">
-        <f>L67-P67</f>
+        <f t="shared" si="13"/>
         <v>154</v>
       </c>
     </row>
@@ -5101,21 +5101,21 @@
         <v>43975</v>
       </c>
       <c r="B68">
-        <f>B67+C68</f>
+        <f t="shared" si="1"/>
         <v>2648</v>
       </c>
       <c r="C68">
         <v>21</v>
       </c>
       <c r="D68">
-        <f>((B68-B67)/B67)*100</f>
+        <f t="shared" si="2"/>
         <v>0.79939094023601054</v>
       </c>
       <c r="E68">
         <v>33626</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>776</v>
       </c>
       <c r="G68">
@@ -5123,19 +5123,19 @@
         <v>772</v>
       </c>
       <c r="H68">
-        <f>((E68-E67)/E67)*100</f>
+        <f t="shared" si="3"/>
         <v>2.3622526636225265</v>
       </c>
       <c r="I68">
-        <f>B68</f>
+        <f t="shared" si="4"/>
         <v>2648</v>
       </c>
       <c r="J68">
-        <f>(I68/E68)*100</f>
+        <f t="shared" si="5"/>
         <v>7.8748587402605121</v>
       </c>
       <c r="K68">
-        <f>(C68/F68)*100</f>
+        <f t="shared" si="6"/>
         <v>2.7061855670103094</v>
       </c>
       <c r="L68">
@@ -5145,37 +5145,37 @@
         <v>194</v>
       </c>
       <c r="N68">
-        <f>(M68/B68)*100</f>
+        <f t="shared" si="7"/>
         <v>7.3262839879154082</v>
       </c>
       <c r="O68">
-        <f>((M68-M67)/M67)*100</f>
+        <f t="shared" si="8"/>
         <v>1.5706806282722512</v>
       </c>
       <c r="P68">
         <v>15</v>
       </c>
       <c r="Q68">
-        <f>(P68/L68)*100</f>
+        <f t="shared" si="9"/>
         <v>8.5227272727272716</v>
       </c>
       <c r="R68">
         <v>1077</v>
       </c>
       <c r="S68">
-        <f>R68-L68</f>
+        <f t="shared" si="10"/>
         <v>901</v>
       </c>
       <c r="T68">
-        <f>(L68/R68)*100</f>
+        <f t="shared" si="11"/>
         <v>16.341689879294336</v>
       </c>
       <c r="U68">
-        <f>(P68/R68)*100</f>
+        <f t="shared" si="12"/>
         <v>1.392757660167131</v>
       </c>
       <c r="V68">
-        <f>L68-P68</f>
+        <f t="shared" si="13"/>
         <v>161</v>
       </c>
     </row>
@@ -5184,21 +5184,21 @@
         <v>43976</v>
       </c>
       <c r="B69">
-        <f>B68+C69</f>
+        <f t="shared" si="1"/>
         <v>2676</v>
       </c>
       <c r="C69">
         <v>28</v>
       </c>
       <c r="D69">
-        <f>((B69-B68)/B68)*100</f>
+        <f t="shared" si="2"/>
         <v>1.0574018126888218</v>
       </c>
       <c r="E69">
         <v>35059</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1433</v>
       </c>
       <c r="G69">
@@ -5206,19 +5206,19 @@
         <v>918.33333333333337</v>
       </c>
       <c r="H69">
-        <f>((E69-E68)/E68)*100</f>
+        <f t="shared" si="3"/>
         <v>4.2615832986379587</v>
       </c>
       <c r="I69">
-        <f>B69</f>
+        <f t="shared" si="4"/>
         <v>2676</v>
       </c>
       <c r="J69">
-        <f>(I69/E69)*100</f>
+        <f t="shared" si="5"/>
         <v>7.6328474856670185</v>
       </c>
       <c r="K69">
-        <f>(C69/F69)*100</f>
+        <f t="shared" si="6"/>
         <v>1.9539427773900906</v>
       </c>
       <c r="L69">
@@ -5228,37 +5228,37 @@
         <v>194</v>
       </c>
       <c r="N69">
-        <f>(M69/B69)*100</f>
+        <f t="shared" si="7"/>
         <v>7.2496263079222718</v>
       </c>
       <c r="O69">
-        <f>((M69-M68)/M68)*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P69">
         <v>15</v>
       </c>
       <c r="Q69">
-        <f>(P69/L69)*100</f>
+        <f t="shared" si="9"/>
         <v>8.2872928176795568</v>
       </c>
       <c r="R69">
         <v>1094</v>
       </c>
       <c r="S69">
-        <f>R69-L69</f>
+        <f t="shared" si="10"/>
         <v>913</v>
       </c>
       <c r="T69">
-        <f>(L69/R69)*100</f>
+        <f t="shared" si="11"/>
         <v>16.544789762340038</v>
       </c>
       <c r="U69">
-        <f>(P69/R69)*100</f>
+        <f t="shared" si="12"/>
         <v>1.3711151736745886</v>
       </c>
       <c r="V69">
-        <f>L69-P69</f>
+        <f t="shared" si="13"/>
         <v>166</v>
       </c>
     </row>
@@ -5267,21 +5267,21 @@
         <v>43977</v>
       </c>
       <c r="B70">
-        <f>B69+C70</f>
+        <f t="shared" si="1"/>
         <v>2702</v>
       </c>
       <c r="C70">
         <v>26</v>
       </c>
       <c r="D70">
-        <f>((B70-B69)/B69)*100</f>
+        <f t="shared" si="2"/>
         <v>0.97159940209267559</v>
       </c>
       <c r="E70">
         <v>35985</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>926</v>
       </c>
       <c r="G70">
@@ -5289,19 +5289,19 @@
         <v>1045</v>
       </c>
       <c r="H70">
-        <f>((E70-E69)/E69)*100</f>
+        <f t="shared" si="3"/>
         <v>2.641261872842922</v>
       </c>
       <c r="I70">
-        <f>B70</f>
+        <f t="shared" si="4"/>
         <v>2702</v>
       </c>
       <c r="J70">
-        <f>(I70/E70)*100</f>
+        <f t="shared" si="5"/>
         <v>7.508684173961373</v>
       </c>
       <c r="K70">
-        <f>(C70/F70)*100</f>
+        <f t="shared" si="6"/>
         <v>2.8077753779697625</v>
       </c>
       <c r="L70">
@@ -5311,37 +5311,37 @@
         <v>198</v>
       </c>
       <c r="N70">
-        <f>(M70/B70)*100</f>
+        <f t="shared" si="7"/>
         <v>7.3279052553663959</v>
       </c>
       <c r="O70">
-        <f>((M70-M69)/M69)*100</f>
+        <f t="shared" si="8"/>
         <v>2.0618556701030926</v>
       </c>
       <c r="P70">
         <v>17</v>
       </c>
       <c r="Q70">
-        <f>(P70/L70)*100</f>
+        <f t="shared" si="9"/>
         <v>9.1397849462365599</v>
       </c>
       <c r="R70">
         <v>1083</v>
       </c>
       <c r="S70">
-        <f>R70-L70</f>
+        <f t="shared" si="10"/>
         <v>897</v>
       </c>
       <c r="T70">
-        <f>(L70/R70)*100</f>
+        <f t="shared" si="11"/>
         <v>17.174515235457065</v>
       </c>
       <c r="U70">
-        <f>(P70/R70)*100</f>
+        <f t="shared" si="12"/>
         <v>1.5697137580794089</v>
       </c>
       <c r="V70">
-        <f>L70-P70</f>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
     </row>
@@ -5350,21 +5350,21 @@
         <v>43978</v>
       </c>
       <c r="B71">
-        <f>B70+C71</f>
+        <f t="shared" si="1"/>
         <v>2741</v>
       </c>
       <c r="C71">
         <v>39</v>
       </c>
       <c r="D71">
-        <f>((B71-B70)/B70)*100</f>
+        <f t="shared" si="2"/>
         <v>1.4433752775721687</v>
       </c>
       <c r="E71">
         <v>36586</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>601</v>
       </c>
       <c r="G71">
@@ -5372,19 +5372,19 @@
         <v>986.66666666666663</v>
       </c>
       <c r="H71">
-        <f>((E71-E70)/E70)*100</f>
+        <f t="shared" si="3"/>
         <v>1.6701403362512159</v>
       </c>
       <c r="I71">
-        <f>B71</f>
+        <f t="shared" si="4"/>
         <v>2741</v>
       </c>
       <c r="J71">
-        <f>(I71/E71)*100</f>
+        <f t="shared" si="5"/>
         <v>7.4919368064286882</v>
       </c>
       <c r="K71">
-        <f>(C71/F71)*100</f>
+        <f t="shared" si="6"/>
         <v>6.4891846921797001</v>
       </c>
       <c r="L71">
@@ -5394,37 +5394,37 @@
         <v>211</v>
       </c>
       <c r="N71">
-        <f>(M71/B71)*100</f>
+        <f t="shared" si="7"/>
         <v>7.6979204669828531</v>
       </c>
       <c r="O71">
-        <f>((M71-M70)/M70)*100</f>
+        <f t="shared" si="8"/>
         <v>6.5656565656565666</v>
       </c>
       <c r="P71">
         <v>18</v>
       </c>
       <c r="Q71">
-        <f>(P71/L71)*100</f>
+        <f t="shared" si="9"/>
         <v>9.4736842105263168</v>
       </c>
       <c r="R71">
         <v>1059</v>
       </c>
       <c r="S71">
-        <f>R71-L71</f>
+        <f t="shared" si="10"/>
         <v>869</v>
       </c>
       <c r="T71">
-        <f>(L71/R71)*100</f>
+        <f t="shared" si="11"/>
         <v>17.941454202077431</v>
       </c>
       <c r="U71">
-        <f>(P71/R71)*100</f>
+        <f t="shared" si="12"/>
         <v>1.6997167138810201</v>
       </c>
       <c r="V71">
-        <f>L71-P71</f>
+        <f t="shared" si="13"/>
         <v>172</v>
       </c>
     </row>
@@ -5433,21 +5433,21 @@
         <v>43979</v>
       </c>
       <c r="B72">
-        <f>B71+C72</f>
+        <f t="shared" si="1"/>
         <v>2773</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72">
-        <f>((B72-B71)/B71)*100</f>
+        <f t="shared" si="2"/>
         <v>1.1674571324334184</v>
       </c>
       <c r="E72">
         <v>37442</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>856</v>
       </c>
       <c r="G72">
@@ -5455,19 +5455,19 @@
         <v>794.33333333333337</v>
       </c>
       <c r="H72">
-        <f>((E72-E71)/E71)*100</f>
+        <f t="shared" si="3"/>
         <v>2.3396927786585033</v>
       </c>
       <c r="I72">
-        <f>B72</f>
+        <f t="shared" si="4"/>
         <v>2773</v>
       </c>
       <c r="J72">
-        <f>(I72/E72)*100</f>
+        <f t="shared" si="5"/>
         <v>7.4061214678703067</v>
       </c>
       <c r="K72">
-        <f>(C72/F72)*100</f>
+        <f t="shared" si="6"/>
         <v>3.7383177570093453</v>
       </c>
       <c r="L72">
@@ -5477,37 +5477,37 @@
         <v>216</v>
       </c>
       <c r="N72">
-        <f>(M72/B72)*100</f>
+        <f t="shared" si="7"/>
         <v>7.7893977641543461</v>
       </c>
       <c r="O72">
-        <f>((M72-M71)/M71)*100</f>
+        <f t="shared" si="8"/>
         <v>2.3696682464454977</v>
       </c>
       <c r="P72">
         <v>19</v>
       </c>
       <c r="Q72">
-        <f>(P72/L72)*100</f>
+        <f t="shared" si="9"/>
         <v>9.9476439790575917</v>
       </c>
       <c r="R72">
         <v>1060</v>
       </c>
       <c r="S72">
-        <f>R72-L72</f>
+        <f t="shared" si="10"/>
         <v>869</v>
       </c>
       <c r="T72">
-        <f>(L72/R72)*100</f>
+        <f t="shared" si="11"/>
         <v>18.018867924528301</v>
       </c>
       <c r="U72">
-        <f>(P72/R72)*100</f>
+        <f t="shared" si="12"/>
         <v>1.7924528301886793</v>
       </c>
       <c r="V72">
-        <f>L72-P72</f>
+        <f t="shared" si="13"/>
         <v>172</v>
       </c>
     </row>
@@ -5516,21 +5516,21 @@
         <v>43980</v>
       </c>
       <c r="B73">
-        <f>B72+C73</f>
+        <f t="shared" si="1"/>
         <v>2807</v>
       </c>
       <c r="C73">
         <v>34</v>
       </c>
       <c r="D73">
-        <f>((B73-B72)/B72)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2261089073205915</v>
       </c>
       <c r="E73">
         <v>38178</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>736</v>
       </c>
       <c r="G73">
@@ -5538,19 +5538,19 @@
         <v>731</v>
       </c>
       <c r="H73">
-        <f>((E73-E72)/E72)*100</f>
+        <f t="shared" si="3"/>
         <v>1.9657069600982853</v>
       </c>
       <c r="I73">
-        <f>B73</f>
+        <f t="shared" si="4"/>
         <v>2807</v>
       </c>
       <c r="J73">
-        <f>(I73/E73)*100</f>
+        <f t="shared" si="5"/>
         <v>7.3524019068573514</v>
       </c>
       <c r="K73">
-        <f>(C73/F73)*100</f>
+        <f t="shared" si="6"/>
         <v>4.6195652173913038</v>
       </c>
       <c r="L73">
@@ -5560,37 +5560,37 @@
         <v>218</v>
       </c>
       <c r="N73">
-        <f>(M73/B73)*100</f>
+        <f t="shared" si="7"/>
         <v>7.766298539365871</v>
       </c>
       <c r="O73">
-        <f>((M73-M72)/M72)*100</f>
+        <f t="shared" si="8"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="P73">
         <v>19</v>
       </c>
       <c r="Q73">
-        <f>(P73/L73)*100</f>
+        <f t="shared" si="9"/>
         <v>10.160427807486631</v>
       </c>
       <c r="R73">
         <v>1030</v>
       </c>
       <c r="S73">
-        <f>R73-L73</f>
+        <f t="shared" si="10"/>
         <v>843</v>
       </c>
       <c r="T73">
-        <f>(L73/R73)*100</f>
+        <f t="shared" si="11"/>
         <v>18.155339805825243</v>
       </c>
       <c r="U73">
-        <f>(P73/R73)*100</f>
+        <f t="shared" si="12"/>
         <v>1.8446601941747571</v>
       </c>
       <c r="V73">
-        <f>L73-P73</f>
+        <f t="shared" si="13"/>
         <v>168</v>
       </c>
     </row>
@@ -5599,21 +5599,21 @@
         <v>43981</v>
       </c>
       <c r="B74">
-        <f>B73+C74</f>
+        <f t="shared" si="1"/>
         <v>2851</v>
       </c>
       <c r="C74">
         <v>44</v>
       </c>
       <c r="D74">
-        <f>((B74-B73)/B73)*100</f>
+        <f t="shared" si="2"/>
         <v>1.5675097969362308</v>
       </c>
       <c r="E74">
         <v>40070</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1892</v>
       </c>
       <c r="G74">
@@ -5621,19 +5621,19 @@
         <v>1161.3333333333333</v>
       </c>
       <c r="H74">
-        <f>((E74-E73)/E73)*100</f>
+        <f t="shared" si="3"/>
         <v>4.9557336686049558</v>
       </c>
       <c r="I74">
-        <f>B74</f>
+        <f t="shared" si="4"/>
         <v>2851</v>
       </c>
       <c r="J74">
-        <f>(I74/E74)*100</f>
+        <f t="shared" si="5"/>
         <v>7.1150486648365359</v>
       </c>
       <c r="K74">
-        <f>(C74/F74)*100</f>
+        <f t="shared" si="6"/>
         <v>2.3255813953488373</v>
       </c>
       <c r="L74">
@@ -5643,37 +5643,37 @@
         <v>218</v>
       </c>
       <c r="N74">
-        <f>(M74/B74)*100</f>
+        <f t="shared" si="7"/>
         <v>7.6464398456681861</v>
       </c>
       <c r="O74">
-        <f>((M74-M73)/M73)*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P74">
         <v>20</v>
       </c>
       <c r="Q74">
-        <f>(P74/L74)*100</f>
+        <f t="shared" si="9"/>
         <v>10.582010582010582</v>
       </c>
       <c r="R74">
         <v>985</v>
       </c>
       <c r="S74">
-        <f>R74-L74</f>
+        <f t="shared" si="10"/>
         <v>796</v>
       </c>
       <c r="T74">
-        <f>(L74/R74)*100</f>
+        <f t="shared" si="11"/>
         <v>19.18781725888325</v>
       </c>
       <c r="U74">
-        <f>(P74/R74)*100</f>
+        <f t="shared" si="12"/>
         <v>2.030456852791878</v>
       </c>
       <c r="V74">
-        <f>L74-P74</f>
+        <f t="shared" si="13"/>
         <v>169</v>
       </c>
     </row>
@@ -5682,21 +5682,21 @@
         <v>43982</v>
       </c>
       <c r="B75">
-        <f>B74+C75</f>
+        <f t="shared" si="1"/>
         <v>2876</v>
       </c>
       <c r="C75">
         <v>25</v>
       </c>
       <c r="D75">
-        <f>((B75-B74)/B74)*100</f>
+        <f t="shared" si="2"/>
         <v>0.87688530340231485</v>
       </c>
       <c r="E75">
         <v>41459</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1389</v>
       </c>
       <c r="G75">
@@ -5704,19 +5704,19 @@
         <v>1339</v>
       </c>
       <c r="H75">
-        <f>((E75-E74)/E74)*100</f>
+        <f t="shared" si="3"/>
         <v>3.4664337409533315</v>
       </c>
       <c r="I75">
-        <f>B75</f>
+        <f t="shared" si="4"/>
         <v>2876</v>
       </c>
       <c r="J75">
-        <f>(I75/E75)*100</f>
+        <f t="shared" si="5"/>
         <v>6.9369738778069898</v>
       </c>
       <c r="K75">
-        <f>(C75/F75)*100</f>
+        <f t="shared" si="6"/>
         <v>1.7998560115190785</v>
       </c>
       <c r="L75">
@@ -5726,37 +5726,37 @@
         <v>219</v>
       </c>
       <c r="N75">
-        <f>(M75/B75)*100</f>
+        <f t="shared" si="7"/>
         <v>7.6147426981919324</v>
       </c>
       <c r="O75">
-        <f>((M75-M74)/M74)*100</f>
+        <f t="shared" si="8"/>
         <v>0.45871559633027525</v>
       </c>
       <c r="P75">
         <v>19</v>
       </c>
       <c r="Q75">
-        <f>(P75/L75)*100</f>
+        <f t="shared" si="9"/>
         <v>9.7435897435897445</v>
       </c>
       <c r="R75">
         <v>952</v>
       </c>
       <c r="S75">
-        <f>R75-L75</f>
+        <f t="shared" si="10"/>
         <v>757</v>
       </c>
       <c r="T75">
-        <f>(L75/R75)*100</f>
+        <f t="shared" si="11"/>
         <v>20.483193277310924</v>
       </c>
       <c r="U75">
-        <f>(P75/R75)*100</f>
+        <f t="shared" si="12"/>
         <v>1.9957983193277309</v>
       </c>
       <c r="V75">
-        <f>L75-P75</f>
+        <f t="shared" si="13"/>
         <v>176</v>
       </c>
     </row>
@@ -5765,21 +5765,21 @@
         <v>43983</v>
       </c>
       <c r="B76">
-        <f>B75+C76</f>
+        <f t="shared" si="1"/>
         <v>2887</v>
       </c>
       <c r="C76">
         <v>11</v>
       </c>
       <c r="D76">
-        <f>((B76-B75)/B75)*100</f>
+        <f t="shared" si="2"/>
         <v>0.3824756606397775</v>
       </c>
       <c r="E76">
         <v>42825</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1366</v>
       </c>
       <c r="G76">
@@ -5787,19 +5787,19 @@
         <v>1549</v>
       </c>
       <c r="H76">
-        <f>((E76-E75)/E75)*100</f>
+        <f t="shared" si="3"/>
         <v>3.2948213898067973</v>
       </c>
       <c r="I76">
-        <f>B76</f>
+        <f t="shared" si="4"/>
         <v>2887</v>
       </c>
       <c r="J76">
-        <f>(I76/E76)*100</f>
+        <f t="shared" si="5"/>
         <v>6.7413893753648573</v>
       </c>
       <c r="K76">
-        <f>(C76/F76)*100</f>
+        <f t="shared" si="6"/>
         <v>0.80527086383601754</v>
       </c>
       <c r="L76">
@@ -5809,38 +5809,121 @@
         <v>224</v>
       </c>
       <c r="N76">
-        <f>(M76/B76)*100</f>
+        <f t="shared" si="7"/>
         <v>7.7589192933841353</v>
       </c>
       <c r="O76">
-        <f>((M76-M75)/M75)*100</f>
+        <f t="shared" si="8"/>
         <v>2.2831050228310499</v>
       </c>
       <c r="P76">
         <v>20</v>
       </c>
       <c r="Q76">
-        <f>(P76/L76)*100</f>
+        <f t="shared" si="9"/>
         <v>10.638297872340425</v>
       </c>
       <c r="R76">
         <v>916</v>
       </c>
       <c r="S76">
-        <f>R76-L76</f>
+        <f t="shared" si="10"/>
         <v>728</v>
       </c>
       <c r="T76">
-        <f>(L76/R76)*100</f>
+        <f t="shared" si="11"/>
         <v>20.52401746724891</v>
       </c>
       <c r="U76">
-        <f>(P76/R76)*100</f>
+        <f t="shared" si="12"/>
         <v>2.1834061135371177</v>
       </c>
       <c r="V76">
-        <f>L76-P76</f>
+        <f t="shared" si="13"/>
         <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B77">
+        <f>B76+C77</f>
+        <v>2930</v>
+      </c>
+      <c r="C77">
+        <v>43</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>1.489435400069276</v>
+      </c>
+      <c r="E77">
+        <v>45273</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>2448</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>1734.3333333333333</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>5.7162872154115583</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>2930</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>6.4718485631612657</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>1.7565359477124183</v>
+      </c>
+      <c r="L77">
+        <v>187</v>
+      </c>
+      <c r="M77">
+        <v>227</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="7"/>
+        <v>7.747440273037542</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="8"/>
+        <v>1.3392857142857142</v>
+      </c>
+      <c r="P77">
+        <v>20</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="9"/>
+        <v>10.695187165775401</v>
+      </c>
+      <c r="R77">
+        <v>893</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="10"/>
+        <v>706</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="11"/>
+        <v>20.940649496080628</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="12"/>
+        <v>2.2396416573348263</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="13"/>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578F04D-E626-4BCE-AD17-25F7C32BABE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0BA0D-3275-4DC9-B5D8-BB2B2BCBFD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G77" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G79" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4610,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D77" si="2">((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D79" si="2">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4625,19 +4625,19 @@
         <v>1066.3333333333333</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H77" si="3">((E62-E61)/E61)*100</f>
+        <f t="shared" ref="H62:H79" si="3">((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I77" si="4">B62</f>
+        <f t="shared" ref="I62:I79" si="4">B62</f>
         <v>2269</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J77" si="5">(I62/E62)*100</f>
+        <f t="shared" ref="J62:J79" si="5">(I62/E62)*100</f>
         <v>7.9341212672214834</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K77" si="6">(C62/F62)*100</f>
+        <f t="shared" ref="K62:K79" si="6">(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
       <c r="L62">
@@ -4647,37 +4647,37 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N77" si="7">(M62/B62)*100</f>
+        <f t="shared" ref="N62:N79" si="7">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62:O77" si="8">((M62-M61)/M61)*100</f>
+        <f t="shared" ref="O62:O79" si="8">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
       <c r="P62">
         <v>21</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:Q77" si="9">(P62/L62)*100</f>
+        <f t="shared" ref="Q62:Q79" si="9">(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
       <c r="R62">
         <v>941</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:S77" si="10">R62-L62</f>
+        <f t="shared" ref="S62:S79" si="10">R62-L62</f>
         <v>805</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T77" si="11">(L62/R62)*100</f>
+        <f t="shared" ref="T62:T79" si="11">(L62/R62)*100</f>
         <v>14.452709883103083</v>
       </c>
       <c r="U62">
-        <f t="shared" ref="U62:U77" si="12">(P62/R62)*100</f>
+        <f t="shared" ref="U62:U79" si="12">(P62/R62)*100</f>
         <v>2.2316684378320937</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V77" si="13">L62-P62</f>
+        <f t="shared" ref="V62:V79" si="13">L62-P62</f>
         <v>115</v>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F77" si="14">E66-E65</f>
+        <f t="shared" ref="F66:F79" si="14">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -5924,6 +5924,172 @@
       <c r="V77">
         <f t="shared" si="13"/>
         <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B78">
+        <f>B77+C78</f>
+        <v>2967</v>
+      </c>
+      <c r="C78">
+        <v>37</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>1.2627986348122866</v>
+      </c>
+      <c r="E78">
+        <v>45529</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="0"/>
+        <v>1356.6666666666667</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>0.56545844101340759</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="4"/>
+        <v>2967</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>6.5167256034615306</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="6"/>
+        <v>14.453125</v>
+      </c>
+      <c r="L78">
+        <v>183</v>
+      </c>
+      <c r="M78">
+        <v>228</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="7"/>
+        <v>7.684529828109202</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="8"/>
+        <v>0.44052863436123352</v>
+      </c>
+      <c r="P78">
+        <v>19</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="9"/>
+        <v>10.382513661202186</v>
+      </c>
+      <c r="R78">
+        <v>903</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="10"/>
+        <v>720</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="11"/>
+        <v>20.26578073089701</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="12"/>
+        <v>2.1040974529346621</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="13"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B79">
+        <f>B78+C79</f>
+        <v>3000</v>
+      </c>
+      <c r="C79">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>1.1122345803842264</v>
+      </c>
+      <c r="E79">
+        <v>46588</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="14"/>
+        <v>1059</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="0"/>
+        <v>1254.3333333333333</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>2.3259900283335897</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>6.4394264617498074</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>3.1161473087818696</v>
+      </c>
+      <c r="L79">
+        <v>178</v>
+      </c>
+      <c r="M79">
+        <v>230</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="7"/>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="8"/>
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="P79">
+        <v>17</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="9"/>
+        <v>9.5505617977528079</v>
+      </c>
+      <c r="R79">
+        <v>903</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="10"/>
+        <v>725</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="11"/>
+        <v>19.712070874861574</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="12"/>
+        <v>1.8826135105204873</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="13"/>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0BA0D-3275-4DC9-B5D8-BB2B2BCBFD91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74447D-D70D-49D1-A9EE-3FACBBE8B36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G79" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G81" si="0">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -4610,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D79" si="2">((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D82" si="2">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4625,19 +4625,19 @@
         <v>1066.3333333333333</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H79" si="3">((E62-E61)/E61)*100</f>
+        <f t="shared" ref="H62:H82" si="3">((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I79" si="4">B62</f>
+        <f t="shared" ref="I62:I81" si="4">B62</f>
         <v>2269</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J79" si="5">(I62/E62)*100</f>
+        <f t="shared" ref="J62:J81" si="5">(I62/E62)*100</f>
         <v>7.9341212672214834</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K79" si="6">(C62/F62)*100</f>
+        <f t="shared" ref="K62:K82" si="6">(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
       <c r="L62">
@@ -4647,37 +4647,37 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N79" si="7">(M62/B62)*100</f>
+        <f t="shared" ref="N62:N82" si="7">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62:O79" si="8">((M62-M61)/M61)*100</f>
+        <f t="shared" ref="O62:O82" si="8">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
       <c r="P62">
         <v>21</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:Q79" si="9">(P62/L62)*100</f>
+        <f t="shared" ref="Q62:Q82" si="9">(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
       <c r="R62">
         <v>941</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:S79" si="10">R62-L62</f>
+        <f t="shared" ref="S62:S82" si="10">R62-L62</f>
         <v>805</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T79" si="11">(L62/R62)*100</f>
+        <f t="shared" ref="T62:T82" si="11">(L62/R62)*100</f>
         <v>14.452709883103083</v>
       </c>
       <c r="U62">
-        <f t="shared" ref="U62:U79" si="12">(P62/R62)*100</f>
+        <f t="shared" ref="U62:U82" si="12">(P62/R62)*100</f>
         <v>2.2316684378320937</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V79" si="13">L62-P62</f>
+        <f t="shared" ref="V62:V82" si="13">L62-P62</f>
         <v>115</v>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F79" si="14">E66-E65</f>
+        <f t="shared" ref="F66:F81" si="14">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
@@ -6090,6 +6090,255 @@
       <c r="V79">
         <f t="shared" si="13"/>
         <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B80">
+        <f>B79+C80</f>
+        <v>3030</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>47935</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>1347</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>887.33333333333337</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>2.8913024813256629</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>3030</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>6.3210597684364238</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>2.2271714922048997</v>
+      </c>
+      <c r="L80">
+        <v>168</v>
+      </c>
+      <c r="M80">
+        <v>230</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="7"/>
+        <v>7.5907590759075907</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>16</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="R80">
+        <v>902</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="10"/>
+        <v>734</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="11"/>
+        <v>18.625277161862527</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="12"/>
+        <v>1.7738359201773837</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B81">
+        <f>B80+C81</f>
+        <v>3062</v>
+      </c>
+      <c r="C81">
+        <v>32</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1.056105610561056</v>
+      </c>
+      <c r="E81">
+        <v>50621</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>2686</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>1697.3333333333333</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>5.6034212996766453</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>3062</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>6.0488729973726318</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>1.1913626209977661</v>
+      </c>
+      <c r="L81">
+        <v>164</v>
+      </c>
+      <c r="M81">
+        <v>235</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="7"/>
+        <v>7.6747224036577393</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="8"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="P81">
+        <v>16</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="9"/>
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="R81">
+        <v>851</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="10"/>
+        <v>687</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="11"/>
+        <v>19.271445358401881</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="12"/>
+        <v>1.8801410105757932</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="13"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B82">
+        <f>B81+C82</f>
+        <v>3094</v>
+      </c>
+      <c r="C82">
+        <v>32</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1.0450685826257349</v>
+      </c>
+      <c r="E82">
+        <v>51455</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82" si="15">E82-E81</f>
+        <v>834</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82" si="16">AVERAGE(F80:F82)</f>
+        <v>1622.3333333333333</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82" si="17">((E82-E81)/E81)*100</f>
+        <v>1.6475375832164518</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82" si="18">B82</f>
+        <v>3094</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82" si="19">(I82/E82)*100</f>
+        <v>6.0130210863861624</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82" si="20">(C82/F82)*100</f>
+        <v>3.8369304556354913</v>
+      </c>
+      <c r="L82">
+        <v>167</v>
+      </c>
+      <c r="M82">
+        <v>236</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="7"/>
+        <v>7.6276664511958634</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="8"/>
+        <v>0.42553191489361702</v>
+      </c>
+      <c r="P82">
+        <v>17</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="9"/>
+        <v>10.179640718562874</v>
+      </c>
+      <c r="R82">
+        <v>870</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="10"/>
+        <v>703</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="11"/>
+        <v>19.195402298850574</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="12"/>
+        <v>1.9540229885057472</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="13"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74447D-D70D-49D1-A9EE-3FACBBE8B36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4797E-98A9-4EB7-89C2-7C273E7F1FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>average_TR_3</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -938,10 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4610,7 +4614,7 @@
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D82" si="2">((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D97" si="2">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4625,7 +4629,7 @@
         <v>1066.3333333333333</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H82" si="3">((E62-E61)/E61)*100</f>
+        <f t="shared" ref="H62:H81" si="3">((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
       <c r="I62">
@@ -4637,7 +4641,7 @@
         <v>7.9341212672214834</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K82" si="6">(C62/F62)*100</f>
+        <f t="shared" ref="K62:K81" si="6">(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
       <c r="L62">
@@ -4647,37 +4651,37 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N82" si="7">(M62/B62)*100</f>
+        <f t="shared" ref="N62:N97" si="7">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62:O82" si="8">((M62-M61)/M61)*100</f>
+        <f t="shared" ref="O62:O97" si="8">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
       <c r="P62">
         <v>21</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:Q82" si="9">(P62/L62)*100</f>
+        <f t="shared" ref="Q62:Q97" si="9">(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
       <c r="R62">
         <v>941</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:S82" si="10">R62-L62</f>
+        <f t="shared" ref="S62:S83" si="10">R62-L62</f>
         <v>805</v>
       </c>
       <c r="T62">
-        <f t="shared" ref="T62:T82" si="11">(L62/R62)*100</f>
+        <f t="shared" ref="T62:T83" si="11">(L62/R62)*100</f>
         <v>14.452709883103083</v>
       </c>
       <c r="U62">
-        <f t="shared" ref="U62:U82" si="12">(P62/R62)*100</f>
+        <f t="shared" ref="U62:U83" si="12">(P62/R62)*100</f>
         <v>2.2316684378320937</v>
       </c>
       <c r="V62">
-        <f t="shared" ref="V62:V82" si="13">L62-P62</f>
+        <f t="shared" ref="V62:V83" si="13">L62-P62</f>
         <v>115</v>
       </c>
     </row>
@@ -5848,7 +5852,7 @@
         <v>43984</v>
       </c>
       <c r="B77">
-        <f>B76+C77</f>
+        <f t="shared" ref="B77:B82" si="15">B76+C77</f>
         <v>2930</v>
       </c>
       <c r="C77">
@@ -5931,7 +5935,7 @@
         <v>43985</v>
       </c>
       <c r="B78">
-        <f>B77+C78</f>
+        <f t="shared" si="15"/>
         <v>2967</v>
       </c>
       <c r="C78">
@@ -6014,7 +6018,7 @@
         <v>43986</v>
       </c>
       <c r="B79">
-        <f>B78+C79</f>
+        <f t="shared" si="15"/>
         <v>3000</v>
       </c>
       <c r="C79">
@@ -6097,7 +6101,7 @@
         <v>43987</v>
       </c>
       <c r="B80">
-        <f>B79+C80</f>
+        <f t="shared" si="15"/>
         <v>3030</v>
       </c>
       <c r="C80">
@@ -6180,7 +6184,7 @@
         <v>43988</v>
       </c>
       <c r="B81">
-        <f>B80+C81</f>
+        <f t="shared" si="15"/>
         <v>3062</v>
       </c>
       <c r="C81">
@@ -6263,42 +6267,42 @@
         <v>43989</v>
       </c>
       <c r="B82">
-        <f>B81+C82</f>
-        <v>3094</v>
+        <f t="shared" si="15"/>
+        <v>3086</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
-        <v>1.0450685826257349</v>
+        <v>0.78380143696930116</v>
       </c>
       <c r="E82">
         <v>51455</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="15">E82-E81</f>
+        <f t="shared" ref="F82" si="16">E82-E81</f>
         <v>834</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="16">AVERAGE(F80:F82)</f>
+        <f t="shared" ref="G82:G89" si="17">AVERAGE(F80:F82)</f>
         <v>1622.3333333333333</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="17">((E82-E81)/E81)*100</f>
+        <f t="shared" ref="H82:H86" si="18">((E82-E81)/E81)*100</f>
         <v>1.6475375832164518</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="18">B82</f>
-        <v>3094</v>
+        <f t="shared" ref="I82:I97" si="19">B82</f>
+        <v>3086</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="19">(I82/E82)*100</f>
-        <v>6.0130210863861624</v>
+        <f t="shared" ref="J82:J94" si="20">(I82/E82)*100</f>
+        <v>5.9974735205519387</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="20">(C82/F82)*100</f>
-        <v>3.8369304556354913</v>
+        <f t="shared" ref="K82:K86" si="21">(C82/F82)*100</f>
+        <v>2.877697841726619</v>
       </c>
       <c r="L82">
         <v>167</v>
@@ -6308,7 +6312,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
-        <v>7.6276664511958634</v>
+        <v>7.6474400518470516</v>
       </c>
       <c r="O82">
         <f t="shared" si="8"/>
@@ -6339,6 +6343,1126 @@
       <c r="V82">
         <f t="shared" si="13"/>
         <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B83">
+        <f>B82+C83</f>
+        <v>3104</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>0.58327932598833443</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="19"/>
+        <v>3104</v>
+      </c>
+      <c r="L83">
+        <v>169</v>
+      </c>
+      <c r="M83">
+        <v>239</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="7"/>
+        <v>7.6997422680412377</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="8"/>
+        <v>1.2711864406779663</v>
+      </c>
+      <c r="P83">
+        <v>17</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="9"/>
+        <v>10.059171597633137</v>
+      </c>
+      <c r="R83">
+        <v>866</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="10"/>
+        <v>697</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="11"/>
+        <v>19.515011547344109</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="12"/>
+        <v>1.9630484988452657</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B84">
+        <f>B83+C84</f>
+        <v>3127</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>0.74097938144329889</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="19"/>
+        <v>3127</v>
+      </c>
+      <c r="L84">
+        <v>169</v>
+      </c>
+      <c r="M84">
+        <v>239</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="7"/>
+        <v>7.6431084106172058</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>17</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="9"/>
+        <v>10.059171597633137</v>
+      </c>
+      <c r="R84">
+        <v>866</v>
+      </c>
+      <c r="S84">
+        <f t="shared" ref="S84:S95" si="22">R84-L84</f>
+        <v>697</v>
+      </c>
+      <c r="T84">
+        <f t="shared" ref="T84:T95" si="23">(L84/R84)*100</f>
+        <v>19.515011547344109</v>
+      </c>
+      <c r="U84">
+        <f t="shared" ref="U84:U95" si="24">(P84/R84)*100</f>
+        <v>1.9630484988452657</v>
+      </c>
+      <c r="V84">
+        <f t="shared" ref="V84:V95" si="25">L84-P84</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B85">
+        <f>B84+C85</f>
+        <v>3148</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>0.67157019507515192</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="19"/>
+        <v>3148</v>
+      </c>
+      <c r="L85">
+        <v>154</v>
+      </c>
+      <c r="M85">
+        <v>247</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="7"/>
+        <v>7.8462515883100377</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="8"/>
+        <v>3.3472803347280333</v>
+      </c>
+      <c r="P85">
+        <v>16</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="9"/>
+        <v>10.38961038961039</v>
+      </c>
+      <c r="R85">
+        <v>844</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="22"/>
+        <v>690</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="23"/>
+        <v>18.246445497630333</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="24"/>
+        <v>1.8957345971563981</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="25"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B86">
+        <f>B85+C86</f>
+        <v>3170</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>0.69885641677255406</v>
+      </c>
+      <c r="E86">
+        <v>55697</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="19"/>
+        <v>3170</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="20"/>
+        <v>5.6915094170242559</v>
+      </c>
+      <c r="L86">
+        <v>151</v>
+      </c>
+      <c r="M86">
+        <v>247</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="7"/>
+        <v>7.7917981072555209</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>16</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="9"/>
+        <v>10.596026490066226</v>
+      </c>
+      <c r="R86">
+        <v>848</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="22"/>
+        <v>697</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="23"/>
+        <v>17.806603773584907</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="24"/>
+        <v>1.8867924528301887</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="25"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B87">
+        <f>B86+C87</f>
+        <v>3194</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>0.75709779179810721</v>
+      </c>
+      <c r="E87">
+        <v>56320</v>
+      </c>
+      <c r="F87">
+        <f>E87-E86</f>
+        <v>623</v>
+      </c>
+      <c r="H87">
+        <f>((E87-E86)/E86)*100</f>
+        <v>1.1185521661848932</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="19"/>
+        <v>3194</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="20"/>
+        <v>5.6711647727272725</v>
+      </c>
+      <c r="K87">
+        <f>(C87/F87)*100</f>
+        <v>3.8523274478330656</v>
+      </c>
+      <c r="L87">
+        <v>147</v>
+      </c>
+      <c r="M87">
+        <v>247</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="7"/>
+        <v>7.7332498434564814</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>17</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="9"/>
+        <v>11.564625850340136</v>
+      </c>
+      <c r="R87">
+        <v>861</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="22"/>
+        <v>714</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="23"/>
+        <v>17.073170731707318</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="24"/>
+        <v>1.9744483159117305</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="25"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B88">
+        <f>B87+C88</f>
+        <v>3205</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>0.34439574201628054</v>
+      </c>
+      <c r="E88">
+        <v>57328</v>
+      </c>
+      <c r="F88">
+        <f>E88-E87</f>
+        <v>1008</v>
+      </c>
+      <c r="H88">
+        <f>((E88-E87)/E87)*100</f>
+        <v>1.7897727272727273</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="19"/>
+        <v>3205</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="20"/>
+        <v>5.5906363382640247</v>
+      </c>
+      <c r="K88">
+        <f>(C88/F88)*100</f>
+        <v>1.0912698412698412</v>
+      </c>
+      <c r="L88">
+        <v>141</v>
+      </c>
+      <c r="M88">
+        <v>248</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="7"/>
+        <v>7.7379095163806548</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="8"/>
+        <v>0.40485829959514169</v>
+      </c>
+      <c r="P88">
+        <v>18</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="9"/>
+        <v>12.76595744680851</v>
+      </c>
+      <c r="R88">
+        <v>860</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="22"/>
+        <v>719</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="23"/>
+        <v>16.395348837209305</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="24"/>
+        <v>2.0930232558139537</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="25"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B89">
+        <f>B88+C89</f>
+        <v>3232</v>
+      </c>
+      <c r="C89">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>0.84243369734789386</v>
+      </c>
+      <c r="E89">
+        <v>59130</v>
+      </c>
+      <c r="F89">
+        <f>E89-E88</f>
+        <v>1802</v>
+      </c>
+      <c r="G89">
+        <f>AVERAGE(F87:F89)</f>
+        <v>1144.3333333333333</v>
+      </c>
+      <c r="H89">
+        <f>((E89-E88)/E88)*100</f>
+        <v>3.1433156572704437</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="19"/>
+        <v>3232</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="20"/>
+        <v>5.465922543548114</v>
+      </c>
+      <c r="K89">
+        <f>(C89/F89)*100</f>
+        <v>1.4983351831298557</v>
+      </c>
+      <c r="L89">
+        <v>144</v>
+      </c>
+      <c r="M89">
+        <v>250</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="7"/>
+        <v>7.7351485148514847</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="8"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="P89">
+        <v>17</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="9"/>
+        <v>11.805555555555555</v>
+      </c>
+      <c r="R89">
+        <v>847</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="22"/>
+        <v>703</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="23"/>
+        <v>17.001180637544273</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="24"/>
+        <v>2.0070838252656436</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="25"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B90">
+        <f>B89+C90</f>
+        <v>3240</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>0.24752475247524752</v>
+      </c>
+      <c r="E90">
+        <v>59388</v>
+      </c>
+      <c r="F90">
+        <f>E90-E89</f>
+        <v>258</v>
+      </c>
+      <c r="G90">
+        <f>AVERAGE(F88:F90)</f>
+        <v>1022.6666666666666</v>
+      </c>
+      <c r="H90">
+        <f>((E90-E89)/E89)*100</f>
+        <v>0.43632673769660069</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="19"/>
+        <v>3240</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="20"/>
+        <v>5.4556476055768837</v>
+      </c>
+      <c r="K90">
+        <f>(C90/F90)*100</f>
+        <v>3.1007751937984498</v>
+      </c>
+      <c r="L90">
+        <v>136</v>
+      </c>
+      <c r="M90">
+        <v>250</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="7"/>
+        <v>7.716049382716049</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>17</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="R90">
+        <v>818</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="22"/>
+        <v>682</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="23"/>
+        <v>16.625916870415647</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="24"/>
+        <v>2.0782396088019559</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="25"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B91">
+        <f>B90+C91</f>
+        <v>3256</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="E91">
+        <v>60467</v>
+      </c>
+      <c r="F91">
+        <f>E91-E90</f>
+        <v>1079</v>
+      </c>
+      <c r="G91">
+        <f>AVERAGE(F89:F91)</f>
+        <v>1046.3333333333333</v>
+      </c>
+      <c r="H91">
+        <f>((E91-E90)/E90)*100</f>
+        <v>1.8168653600053881</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="19"/>
+        <v>3256</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="20"/>
+        <v>5.3847553210842278</v>
+      </c>
+      <c r="K91">
+        <f>(C91/F91)*100</f>
+        <v>1.4828544949026876</v>
+      </c>
+      <c r="L91">
+        <v>131</v>
+      </c>
+      <c r="M91">
+        <v>252</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="7"/>
+        <v>7.73955773955774</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="P91">
+        <v>16</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="9"/>
+        <v>12.213740458015266</v>
+      </c>
+      <c r="R91">
+        <v>802</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="22"/>
+        <v>671</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="23"/>
+        <v>16.334164588528679</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="24"/>
+        <v>1.99501246882793</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="25"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B92">
+        <f>B91+C92</f>
+        <v>3275</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>0.58353808353808345</v>
+      </c>
+      <c r="E92">
+        <v>61330</v>
+      </c>
+      <c r="F92">
+        <f>E92-E91</f>
+        <v>863</v>
+      </c>
+      <c r="G92">
+        <f>AVERAGE(F90:F92)</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="H92">
+        <f>((E92-E91)/E91)*100</f>
+        <v>1.4272247672284057</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="19"/>
+        <v>3275</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="20"/>
+        <v>5.3399641284852439</v>
+      </c>
+      <c r="K92">
+        <f>(C92/F92)*100</f>
+        <v>2.2016222479721899</v>
+      </c>
+      <c r="L92">
+        <v>123</v>
+      </c>
+      <c r="M92">
+        <v>254</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="7"/>
+        <v>7.7557251908396951</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="8"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="P92">
+        <v>15</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="9"/>
+        <v>12.195121951219512</v>
+      </c>
+      <c r="R92">
+        <v>543</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="22"/>
+        <v>420</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="23"/>
+        <v>22.651933701657459</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="24"/>
+        <v>2.7624309392265194</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="25"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B93">
+        <f>B92+C93</f>
+        <v>3296</v>
+      </c>
+      <c r="C93">
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>0.64122137404580148</v>
+      </c>
+      <c r="E93">
+        <v>61861</v>
+      </c>
+      <c r="F93">
+        <f>E93-E92</f>
+        <v>531</v>
+      </c>
+      <c r="G93">
+        <f>AVERAGE(F91:F93)</f>
+        <v>824.33333333333337</v>
+      </c>
+      <c r="H93">
+        <f>((E93-E92)/E92)*100</f>
+        <v>0.86580792434371423</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="19"/>
+        <v>3296</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="20"/>
+        <v>5.3280742309371005</v>
+      </c>
+      <c r="K93">
+        <f>(C93/F93)*100</f>
+        <v>3.9548022598870061</v>
+      </c>
+      <c r="L93">
+        <v>117</v>
+      </c>
+      <c r="M93">
+        <v>255</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="7"/>
+        <v>7.7366504854368925</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="8"/>
+        <v>0.39370078740157477</v>
+      </c>
+      <c r="P93">
+        <v>14</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="9"/>
+        <v>11.965811965811966</v>
+      </c>
+      <c r="R93">
+        <v>450</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="22"/>
+        <v>333</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="24"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B94">
+        <f>B93+C94</f>
+        <v>3316</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>0.60679611650485432</v>
+      </c>
+      <c r="E94">
+        <v>62205</v>
+      </c>
+      <c r="F94">
+        <f>E94-E93</f>
+        <v>344</v>
+      </c>
+      <c r="G94">
+        <f>AVERAGE(F92:F94)</f>
+        <v>579.33333333333337</v>
+      </c>
+      <c r="H94">
+        <f>((E94-E93)/E93)*100</f>
+        <v>0.55608541730654215</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="19"/>
+        <v>3316</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="20"/>
+        <v>5.3307611928301588</v>
+      </c>
+      <c r="K94">
+        <f>(C94/F94)*100</f>
+        <v>5.8139534883720927</v>
+      </c>
+      <c r="L94">
+        <v>111</v>
+      </c>
+      <c r="M94">
+        <v>257</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="7"/>
+        <v>7.7503015681544021</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="8"/>
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="P94">
+        <v>13</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="9"/>
+        <v>11.711711711711711</v>
+      </c>
+      <c r="R94">
+        <v>447</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="22"/>
+        <v>336</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="23"/>
+        <v>24.832214765100673</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="24"/>
+        <v>2.9082774049217002</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="25"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B95">
+        <f>B94+C95</f>
+        <v>3332</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>0.48250904704463204</v>
+      </c>
+      <c r="E95">
+        <v>63312</v>
+      </c>
+      <c r="F95">
+        <f>E95-E94</f>
+        <v>1107</v>
+      </c>
+      <c r="G95">
+        <f>AVERAGE(F93:F95)</f>
+        <v>660.66666666666663</v>
+      </c>
+      <c r="H95">
+        <f>((E95-E94)/E94)*100</f>
+        <v>1.7795997106341932</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="19"/>
+        <v>3332</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95" si="26">(I95/E95)*100</f>
+        <v>5.2628253727571392</v>
+      </c>
+      <c r="K95">
+        <f>(C95/F95)*100</f>
+        <v>1.4453477868112015</v>
+      </c>
+      <c r="L95">
+        <v>108</v>
+      </c>
+      <c r="M95">
+        <v>259</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="7"/>
+        <v>7.7731092436974789</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="8"/>
+        <v>0.77821011673151752</v>
+      </c>
+      <c r="P95">
+        <v>11</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="9"/>
+        <v>10.185185185185185</v>
+      </c>
+      <c r="R95">
+        <v>435</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="22"/>
+        <v>327</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="23"/>
+        <v>24.827586206896552</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="24"/>
+        <v>2.5287356321839081</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B96">
+        <f>B95+C96</f>
+        <v>3350</v>
+      </c>
+      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>0.54021608643457386</v>
+      </c>
+      <c r="E96">
+        <v>64363</v>
+      </c>
+      <c r="F96">
+        <f>E96-E95</f>
+        <v>1051</v>
+      </c>
+      <c r="G96">
+        <f>AVERAGE(F94:F96)</f>
+        <v>834</v>
+      </c>
+      <c r="H96">
+        <f>((E96-E95)/E95)*100</f>
+        <v>1.6600328531715947</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="19"/>
+        <v>3350</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ref="J96:J97" si="27">(I96/E96)*100</f>
+        <v>5.2048537203051444</v>
+      </c>
+      <c r="K96">
+        <f>(C96/F96)*100</f>
+        <v>1.7126546146527115</v>
+      </c>
+      <c r="R96">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B97">
+        <f>B96+C97</f>
+        <v>3356</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>0.17910447761194029</v>
+      </c>
+      <c r="E97">
+        <v>65186</v>
+      </c>
+      <c r="F97">
+        <f>E97-E96</f>
+        <v>823</v>
+      </c>
+      <c r="G97">
+        <f>AVERAGE(F95:F97)</f>
+        <v>993.66666666666663</v>
+      </c>
+      <c r="H97">
+        <f>((E97-E96)/E96)*100</f>
+        <v>1.2786849587495921</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="19"/>
+        <v>3356</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="27"/>
+        <v>5.148344736599884</v>
+      </c>
+      <c r="K97">
+        <f>(C97/F97)*100</f>
+        <v>0.72904009720534624</v>
+      </c>
+      <c r="L97">
+        <v>106</v>
+      </c>
+      <c r="M97">
+        <v>261</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="7"/>
+        <v>7.7771156138259832</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="9"/>
+        <v>11.320754716981133</v>
+      </c>
+      <c r="R97">
+        <v>415</v>
+      </c>
+      <c r="S97">
+        <f t="shared" ref="S96:S97" si="28">R97-L97</f>
+        <v>309</v>
+      </c>
+      <c r="T97">
+        <f t="shared" ref="T96:T97" si="29">(L97/R97)*100</f>
+        <v>25.542168674698797</v>
+      </c>
+      <c r="U97">
+        <f t="shared" ref="U96:U97" si="30">(P97/R97)*100</f>
+        <v>2.8915662650602409</v>
+      </c>
+      <c r="V97">
+        <f t="shared" ref="V96:V97" si="31">L97-P97</f>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4797E-98A9-4EB7-89C2-7C273E7F1FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D194769-A2A2-4957-84DA-61AC86C7049D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S100" sqref="S100"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4614,7 +4614,7 @@
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D97" si="2">((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D111" si="2">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4651,18 +4651,18 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N97" si="7">(M62/B62)*100</f>
+        <f t="shared" ref="N62:N111" si="7">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62:O97" si="8">((M62-M61)/M61)*100</f>
+        <f t="shared" ref="O62:O111" si="8">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
       <c r="P62">
         <v>21</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:Q97" si="9">(P62/L62)*100</f>
+        <f t="shared" ref="Q62:Q111" si="9">(P62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
       <c r="R62">
@@ -6285,15 +6285,15 @@
         <v>834</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82:G89" si="17">AVERAGE(F80:F82)</f>
+        <f t="shared" ref="G82" si="17">AVERAGE(F80:F82)</f>
         <v>1622.3333333333333</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H86" si="18">((E82-E81)/E81)*100</f>
+        <f t="shared" ref="H82" si="18">((E82-E81)/E81)*100</f>
         <v>1.6475375832164518</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82:I97" si="19">B82</f>
+        <f t="shared" ref="I82:I99" si="19">B82</f>
         <v>3086</v>
       </c>
       <c r="J82">
@@ -6301,7 +6301,7 @@
         <v>5.9974735205519387</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82:K86" si="21">(C82/F82)*100</f>
+        <f t="shared" ref="K82" si="21">(C82/F82)*100</f>
         <v>2.877697841726619</v>
       </c>
       <c r="L82">
@@ -6350,7 +6350,7 @@
         <v>43990</v>
       </c>
       <c r="B83">
-        <f>B82+C83</f>
+        <f t="shared" ref="B83:B100" si="22">B82+C83</f>
         <v>3104</v>
       </c>
       <c r="C83">
@@ -6413,7 +6413,7 @@
         <v>43991</v>
       </c>
       <c r="B84">
-        <f>B83+C84</f>
+        <f t="shared" si="22"/>
         <v>3127</v>
       </c>
       <c r="C84">
@@ -6455,19 +6455,19 @@
         <v>866</v>
       </c>
       <c r="S84">
-        <f t="shared" ref="S84:S95" si="22">R84-L84</f>
+        <f t="shared" ref="S84:S95" si="23">R84-L84</f>
         <v>697</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T95" si="23">(L84/R84)*100</f>
+        <f t="shared" ref="T84:T95" si="24">(L84/R84)*100</f>
         <v>19.515011547344109</v>
       </c>
       <c r="U84">
-        <f t="shared" ref="U84:U95" si="24">(P84/R84)*100</f>
+        <f t="shared" ref="U84:U95" si="25">(P84/R84)*100</f>
         <v>1.9630484988452657</v>
       </c>
       <c r="V84">
-        <f t="shared" ref="V84:V95" si="25">L84-P84</f>
+        <f t="shared" ref="V84:V95" si="26">L84-P84</f>
         <v>152</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
         <v>43992</v>
       </c>
       <c r="B85">
-        <f>B84+C85</f>
+        <f t="shared" si="22"/>
         <v>3148</v>
       </c>
       <c r="C85">
@@ -6518,19 +6518,19 @@
         <v>844</v>
       </c>
       <c r="S85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>690</v>
       </c>
       <c r="T85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18.246445497630333</v>
       </c>
       <c r="U85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8957345971563981</v>
       </c>
       <c r="V85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>138</v>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
         <v>43993</v>
       </c>
       <c r="B86">
-        <f>B85+C86</f>
+        <f t="shared" si="22"/>
         <v>3170</v>
       </c>
       <c r="C86">
@@ -6585,19 +6585,19 @@
         <v>848</v>
       </c>
       <c r="S86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>697</v>
       </c>
       <c r="T86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.806603773584907</v>
       </c>
       <c r="U86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8867924528301887</v>
       </c>
       <c r="V86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>135</v>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
         <v>43994</v>
       </c>
       <c r="B87">
-        <f>B86+C87</f>
+        <f t="shared" si="22"/>
         <v>3194</v>
       </c>
       <c r="C87">
@@ -6620,11 +6620,11 @@
         <v>56320</v>
       </c>
       <c r="F87">
-        <f>E87-E86</f>
+        <f t="shared" ref="F87:F101" si="27">E87-E86</f>
         <v>623</v>
       </c>
       <c r="H87">
-        <f>((E87-E86)/E86)*100</f>
+        <f t="shared" ref="H87:H103" si="28">((E87-E86)/E86)*100</f>
         <v>1.1185521661848932</v>
       </c>
       <c r="I87">
@@ -6636,7 +6636,7 @@
         <v>5.6711647727272725</v>
       </c>
       <c r="K87">
-        <f>(C87/F87)*100</f>
+        <f t="shared" ref="K87:K99" si="29">(C87/F87)*100</f>
         <v>3.8523274478330656</v>
       </c>
       <c r="L87">
@@ -6664,19 +6664,19 @@
         <v>861</v>
       </c>
       <c r="S87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>714</v>
       </c>
       <c r="T87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.073170731707318</v>
       </c>
       <c r="U87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9744483159117305</v>
       </c>
       <c r="V87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>130</v>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
         <v>43995</v>
       </c>
       <c r="B88">
-        <f>B87+C88</f>
+        <f t="shared" si="22"/>
         <v>3205</v>
       </c>
       <c r="C88">
@@ -6699,11 +6699,11 @@
         <v>57328</v>
       </c>
       <c r="F88">
-        <f>E88-E87</f>
+        <f t="shared" si="27"/>
         <v>1008</v>
       </c>
       <c r="H88">
-        <f>((E88-E87)/E87)*100</f>
+        <f t="shared" si="28"/>
         <v>1.7897727272727273</v>
       </c>
       <c r="I88">
@@ -6715,7 +6715,7 @@
         <v>5.5906363382640247</v>
       </c>
       <c r="K88">
-        <f>(C88/F88)*100</f>
+        <f t="shared" si="29"/>
         <v>1.0912698412698412</v>
       </c>
       <c r="L88">
@@ -6743,19 +6743,19 @@
         <v>860</v>
       </c>
       <c r="S88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>719</v>
       </c>
       <c r="T88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.395348837209305</v>
       </c>
       <c r="U88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0930232558139537</v>
       </c>
       <c r="V88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>123</v>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
         <v>43996</v>
       </c>
       <c r="B89">
-        <f>B88+C89</f>
+        <f t="shared" si="22"/>
         <v>3232</v>
       </c>
       <c r="C89">
@@ -6778,15 +6778,15 @@
         <v>59130</v>
       </c>
       <c r="F89">
-        <f>E89-E88</f>
+        <f t="shared" si="27"/>
         <v>1802</v>
       </c>
       <c r="G89">
-        <f>AVERAGE(F87:F89)</f>
+        <f t="shared" ref="G89:G104" si="30">AVERAGE(F87:F89)</f>
         <v>1144.3333333333333</v>
       </c>
       <c r="H89">
-        <f>((E89-E88)/E88)*100</f>
+        <f t="shared" si="28"/>
         <v>3.1433156572704437</v>
       </c>
       <c r="I89">
@@ -6798,7 +6798,7 @@
         <v>5.465922543548114</v>
       </c>
       <c r="K89">
-        <f>(C89/F89)*100</f>
+        <f t="shared" si="29"/>
         <v>1.4983351831298557</v>
       </c>
       <c r="L89">
@@ -6826,19 +6826,19 @@
         <v>847</v>
       </c>
       <c r="S89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>703</v>
       </c>
       <c r="T89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.001180637544273</v>
       </c>
       <c r="U89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0070838252656436</v>
       </c>
       <c r="V89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
         <v>43997</v>
       </c>
       <c r="B90">
-        <f>B89+C90</f>
+        <f t="shared" si="22"/>
         <v>3240</v>
       </c>
       <c r="C90">
@@ -6861,15 +6861,15 @@
         <v>59388</v>
       </c>
       <c r="F90">
-        <f>E90-E89</f>
+        <f t="shared" si="27"/>
         <v>258</v>
       </c>
       <c r="G90">
-        <f>AVERAGE(F88:F90)</f>
+        <f t="shared" si="30"/>
         <v>1022.6666666666666</v>
       </c>
       <c r="H90">
-        <f>((E90-E89)/E89)*100</f>
+        <f t="shared" si="28"/>
         <v>0.43632673769660069</v>
       </c>
       <c r="I90">
@@ -6881,7 +6881,7 @@
         <v>5.4556476055768837</v>
       </c>
       <c r="K90">
-        <f>(C90/F90)*100</f>
+        <f t="shared" si="29"/>
         <v>3.1007751937984498</v>
       </c>
       <c r="L90">
@@ -6909,19 +6909,19 @@
         <v>818</v>
       </c>
       <c r="S90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>682</v>
       </c>
       <c r="T90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.625916870415647</v>
       </c>
       <c r="U90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0782396088019559</v>
       </c>
       <c r="V90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>119</v>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
         <v>43998</v>
       </c>
       <c r="B91">
-        <f>B90+C91</f>
+        <f t="shared" si="22"/>
         <v>3256</v>
       </c>
       <c r="C91">
@@ -6944,15 +6944,15 @@
         <v>60467</v>
       </c>
       <c r="F91">
-        <f>E91-E90</f>
+        <f t="shared" si="27"/>
         <v>1079</v>
       </c>
       <c r="G91">
-        <f>AVERAGE(F89:F91)</f>
+        <f t="shared" si="30"/>
         <v>1046.3333333333333</v>
       </c>
       <c r="H91">
-        <f>((E91-E90)/E90)*100</f>
+        <f t="shared" si="28"/>
         <v>1.8168653600053881</v>
       </c>
       <c r="I91">
@@ -6964,7 +6964,7 @@
         <v>5.3847553210842278</v>
       </c>
       <c r="K91">
-        <f>(C91/F91)*100</f>
+        <f t="shared" si="29"/>
         <v>1.4828544949026876</v>
       </c>
       <c r="L91">
@@ -6992,19 +6992,19 @@
         <v>802</v>
       </c>
       <c r="S91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>671</v>
       </c>
       <c r="T91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.334164588528679</v>
       </c>
       <c r="U91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.99501246882793</v>
       </c>
       <c r="V91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>43999</v>
       </c>
       <c r="B92">
-        <f>B91+C92</f>
+        <f t="shared" si="22"/>
         <v>3275</v>
       </c>
       <c r="C92">
@@ -7027,15 +7027,15 @@
         <v>61330</v>
       </c>
       <c r="F92">
-        <f>E92-E91</f>
+        <f t="shared" si="27"/>
         <v>863</v>
       </c>
       <c r="G92">
-        <f>AVERAGE(F90:F92)</f>
+        <f t="shared" si="30"/>
         <v>733.33333333333337</v>
       </c>
       <c r="H92">
-        <f>((E92-E91)/E91)*100</f>
+        <f t="shared" si="28"/>
         <v>1.4272247672284057</v>
       </c>
       <c r="I92">
@@ -7047,7 +7047,7 @@
         <v>5.3399641284852439</v>
       </c>
       <c r="K92">
-        <f>(C92/F92)*100</f>
+        <f t="shared" si="29"/>
         <v>2.2016222479721899</v>
       </c>
       <c r="L92">
@@ -7075,19 +7075,19 @@
         <v>543</v>
       </c>
       <c r="S92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>420</v>
       </c>
       <c r="T92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>22.651933701657459</v>
       </c>
       <c r="U92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.7624309392265194</v>
       </c>
       <c r="V92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
         <v>44000</v>
       </c>
       <c r="B93">
-        <f>B92+C93</f>
+        <f t="shared" si="22"/>
         <v>3296</v>
       </c>
       <c r="C93">
@@ -7110,15 +7110,15 @@
         <v>61861</v>
       </c>
       <c r="F93">
-        <f>E93-E92</f>
+        <f t="shared" si="27"/>
         <v>531</v>
       </c>
       <c r="G93">
-        <f>AVERAGE(F91:F93)</f>
+        <f t="shared" si="30"/>
         <v>824.33333333333337</v>
       </c>
       <c r="H93">
-        <f>((E93-E92)/E92)*100</f>
+        <f t="shared" si="28"/>
         <v>0.86580792434371423</v>
       </c>
       <c r="I93">
@@ -7130,7 +7130,7 @@
         <v>5.3280742309371005</v>
       </c>
       <c r="K93">
-        <f>(C93/F93)*100</f>
+        <f t="shared" si="29"/>
         <v>3.9548022598870061</v>
       </c>
       <c r="L93">
@@ -7158,19 +7158,19 @@
         <v>450</v>
       </c>
       <c r="S93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>333</v>
       </c>
       <c r="T93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="U93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1111111111111112</v>
       </c>
       <c r="V93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>103</v>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
         <v>44001</v>
       </c>
       <c r="B94">
-        <f>B93+C94</f>
+        <f t="shared" si="22"/>
         <v>3316</v>
       </c>
       <c r="C94">
@@ -7193,15 +7193,15 @@
         <v>62205</v>
       </c>
       <c r="F94">
-        <f>E94-E93</f>
+        <f t="shared" si="27"/>
         <v>344</v>
       </c>
       <c r="G94">
-        <f>AVERAGE(F92:F94)</f>
+        <f t="shared" si="30"/>
         <v>579.33333333333337</v>
       </c>
       <c r="H94">
-        <f>((E94-E93)/E93)*100</f>
+        <f t="shared" si="28"/>
         <v>0.55608541730654215</v>
       </c>
       <c r="I94">
@@ -7213,7 +7213,7 @@
         <v>5.3307611928301588</v>
       </c>
       <c r="K94">
-        <f>(C94/F94)*100</f>
+        <f t="shared" si="29"/>
         <v>5.8139534883720927</v>
       </c>
       <c r="L94">
@@ -7241,19 +7241,19 @@
         <v>447</v>
       </c>
       <c r="S94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>336</v>
       </c>
       <c r="T94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24.832214765100673</v>
       </c>
       <c r="U94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.9082774049217002</v>
       </c>
       <c r="V94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
         <v>44002</v>
       </c>
       <c r="B95">
-        <f>B94+C95</f>
+        <f t="shared" si="22"/>
         <v>3332</v>
       </c>
       <c r="C95">
@@ -7276,15 +7276,15 @@
         <v>63312</v>
       </c>
       <c r="F95">
-        <f>E95-E94</f>
+        <f t="shared" si="27"/>
         <v>1107</v>
       </c>
       <c r="G95">
-        <f>AVERAGE(F93:F95)</f>
+        <f t="shared" si="30"/>
         <v>660.66666666666663</v>
       </c>
       <c r="H95">
-        <f>((E95-E94)/E94)*100</f>
+        <f t="shared" si="28"/>
         <v>1.7795997106341932</v>
       </c>
       <c r="I95">
@@ -7292,11 +7292,11 @@
         <v>3332</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95" si="26">(I95/E95)*100</f>
+        <f t="shared" ref="J95" si="31">(I95/E95)*100</f>
         <v>5.2628253727571392</v>
       </c>
       <c r="K95">
-        <f>(C95/F95)*100</f>
+        <f t="shared" si="29"/>
         <v>1.4453477868112015</v>
       </c>
       <c r="L95">
@@ -7324,19 +7324,19 @@
         <v>435</v>
       </c>
       <c r="S95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>327</v>
       </c>
       <c r="T95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24.827586206896552</v>
       </c>
       <c r="U95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5287356321839081</v>
       </c>
       <c r="V95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
         <v>44003</v>
       </c>
       <c r="B96">
-        <f>B95+C96</f>
+        <f t="shared" si="22"/>
         <v>3350</v>
       </c>
       <c r="C96">
@@ -7359,15 +7359,15 @@
         <v>64363</v>
       </c>
       <c r="F96">
-        <f>E96-E95</f>
+        <f t="shared" si="27"/>
         <v>1051</v>
       </c>
       <c r="G96">
-        <f>AVERAGE(F94:F96)</f>
+        <f t="shared" si="30"/>
         <v>834</v>
       </c>
       <c r="H96">
-        <f>((E96-E95)/E95)*100</f>
+        <f t="shared" si="28"/>
         <v>1.6600328531715947</v>
       </c>
       <c r="I96">
@@ -7375,11 +7375,11 @@
         <v>3350</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96:J97" si="27">(I96/E96)*100</f>
+        <f t="shared" ref="J96:J99" si="32">(I96/E96)*100</f>
         <v>5.2048537203051444</v>
       </c>
       <c r="K96">
-        <f>(C96/F96)*100</f>
+        <f t="shared" si="29"/>
         <v>1.7126546146527115</v>
       </c>
       <c r="R96">
@@ -7391,7 +7391,7 @@
         <v>44004</v>
       </c>
       <c r="B97">
-        <f>B96+C97</f>
+        <f t="shared" si="22"/>
         <v>3356</v>
       </c>
       <c r="C97">
@@ -7405,15 +7405,15 @@
         <v>65186</v>
       </c>
       <c r="F97">
-        <f>E97-E96</f>
+        <f t="shared" si="27"/>
         <v>823</v>
       </c>
       <c r="G97">
-        <f>AVERAGE(F95:F97)</f>
+        <f t="shared" si="30"/>
         <v>993.66666666666663</v>
       </c>
       <c r="H97">
-        <f>((E97-E96)/E96)*100</f>
+        <f t="shared" si="28"/>
         <v>1.2786849587495921</v>
       </c>
       <c r="I97">
@@ -7421,11 +7421,11 @@
         <v>3356</v>
       </c>
       <c r="J97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>5.148344736599884</v>
       </c>
       <c r="K97">
-        <f>(C97/F97)*100</f>
+        <f t="shared" si="29"/>
         <v>0.72904009720534624</v>
       </c>
       <c r="L97">
@@ -7449,21 +7449,1089 @@
         <v>415</v>
       </c>
       <c r="S97">
-        <f t="shared" ref="S96:S97" si="28">R97-L97</f>
+        <f t="shared" ref="S97:S110" si="33">R97-L97</f>
         <v>309</v>
       </c>
       <c r="T97">
-        <f t="shared" ref="T96:T97" si="29">(L97/R97)*100</f>
+        <f t="shared" ref="T97:T110" si="34">(L97/R97)*100</f>
         <v>25.542168674698797</v>
       </c>
       <c r="U97">
-        <f t="shared" ref="U96:U97" si="30">(P97/R97)*100</f>
+        <f t="shared" ref="U97:U110" si="35">(P97/R97)*100</f>
         <v>2.8915662650602409</v>
       </c>
       <c r="V97">
-        <f t="shared" ref="V96:V97" si="31">L97-P97</f>
+        <f t="shared" ref="V97:V111" si="36">L97-P97</f>
         <v>94</v>
       </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="22"/>
+        <v>3386</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>0.89392133492252679</v>
+      </c>
+      <c r="E98">
+        <v>66197</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="27"/>
+        <v>1011</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="30"/>
+        <v>961.66666666666663</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="28"/>
+        <v>1.5509465222593808</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="19"/>
+        <v>3386</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="32"/>
+        <v>5.1150354245660683</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="29"/>
+        <v>2.9673590504451042</v>
+      </c>
+      <c r="L98">
+        <v>88</v>
+      </c>
+      <c r="M98">
+        <v>264</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="7"/>
+        <v>7.7968103957471948</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="8"/>
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="P98">
+        <v>11</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="R98">
+        <v>429</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="33"/>
+        <v>341</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="34"/>
+        <v>20.512820512820511</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="35"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="36"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="22"/>
+        <v>3419</v>
+      </c>
+      <c r="C99">
+        <v>33</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>0.97460129946839935</v>
+      </c>
+      <c r="E99">
+        <v>67172</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="27"/>
+        <v>975</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="30"/>
+        <v>936.33333333333337</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="28"/>
+        <v>1.4728764143390183</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="19"/>
+        <v>3419</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="32"/>
+        <v>5.0899184183886144</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="29"/>
+        <v>3.3846153846153846</v>
+      </c>
+      <c r="L99">
+        <v>89</v>
+      </c>
+      <c r="M99">
+        <v>265</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="7"/>
+        <v>7.750804328751097</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="8"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="P99">
+        <v>10</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="9"/>
+        <v>11.235955056179774</v>
+      </c>
+      <c r="R99">
+        <v>436</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="33"/>
+        <v>347</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="34"/>
+        <v>20.412844036697248</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="35"/>
+        <v>2.2935779816513762</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="36"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="22"/>
+        <v>3457</v>
+      </c>
+      <c r="C100">
+        <v>38</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>1.1114360924246856</v>
+      </c>
+      <c r="E100">
+        <v>67914</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="27"/>
+        <v>742</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="30"/>
+        <v>909.33333333333337</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="28"/>
+        <v>1.1046269278866194</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100:I103" si="37">B100</f>
+        <v>3457</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ref="J100:J102" si="38">(I100/E100)*100</f>
+        <v>5.0902612127101925</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ref="K100:K102" si="39">(C100/F100)*100</f>
+        <v>5.1212938005390836</v>
+      </c>
+      <c r="L100">
+        <v>83</v>
+      </c>
+      <c r="M100">
+        <v>266</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="7"/>
+        <v>7.694532831935204</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="8"/>
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="P100">
+        <v>10</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="9"/>
+        <v>12.048192771084338</v>
+      </c>
+      <c r="R100">
+        <v>451</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="33"/>
+        <v>368</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="34"/>
+        <v>18.403547671840354</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="35"/>
+        <v>2.2172949002217295</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="36"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B101">
+        <f>B100+C101</f>
+        <v>3488</v>
+      </c>
+      <c r="C101">
+        <v>31</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>0.89673126988718543</v>
+      </c>
+      <c r="E101">
+        <v>68535</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="27"/>
+        <v>621</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="30"/>
+        <v>779.33333333333337</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="28"/>
+        <v>0.91439173071826141</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="37"/>
+        <v>3488</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="38"/>
+        <v>5.0893703946888449</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="39"/>
+        <v>4.9919484702093397</v>
+      </c>
+      <c r="L101">
+        <v>82</v>
+      </c>
+      <c r="M101">
+        <v>269</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="7"/>
+        <v>7.7121559633027523</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="8"/>
+        <v>1.1278195488721803</v>
+      </c>
+      <c r="P101">
+        <v>10</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="9"/>
+        <v>12.195121951219512</v>
+      </c>
+      <c r="R101">
+        <v>453</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="33"/>
+        <v>371</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="34"/>
+        <v>18.101545253863137</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="35"/>
+        <v>2.2075055187637971</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="36"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B102">
+        <f>B101+C102</f>
+        <v>3511</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>0.65940366972477071</v>
+      </c>
+      <c r="E102">
+        <f>E101+F102</f>
+        <v>69671</v>
+      </c>
+      <c r="F102">
+        <v>1136</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="30"/>
+        <v>833</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="28"/>
+        <v>1.6575472386371928</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="37"/>
+        <v>3511</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="38"/>
+        <v>5.0393994631912848</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="39"/>
+        <v>2.024647887323944</v>
+      </c>
+      <c r="L102">
+        <v>76</v>
+      </c>
+      <c r="M102">
+        <v>269</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="7"/>
+        <v>7.6616348618627175</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>10</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="9"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="R102">
+        <v>454</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="33"/>
+        <v>378</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="34"/>
+        <v>16.740088105726873</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="35"/>
+        <v>2.2026431718061676</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="36"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B103">
+        <f>B102+C103</f>
+        <v>3534</v>
+      </c>
+      <c r="C103">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>0.65508402164625468</v>
+      </c>
+      <c r="E103">
+        <v>70722</v>
+      </c>
+      <c r="F103">
+        <f>E103-E102</f>
+        <v>1051</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="30"/>
+        <v>936</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="28"/>
+        <v>1.5085186088903559</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="37"/>
+        <v>3534</v>
+      </c>
+      <c r="J103">
+        <f t="shared" ref="J103" si="40">(I103/E103)*100</f>
+        <v>4.9970306269619069</v>
+      </c>
+      <c r="K103">
+        <f t="shared" ref="K103" si="41">(C103/F103)*100</f>
+        <v>2.1883920076117986</v>
+      </c>
+      <c r="L103">
+        <v>76</v>
+      </c>
+      <c r="M103">
+        <v>269</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="7"/>
+        <v>7.6117713638936042</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>10</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="9"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="R103">
+        <v>460</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="33"/>
+        <v>384</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="34"/>
+        <v>16.521739130434781</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="35"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="36"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B104">
+        <f>B103+C104</f>
+        <v>3563</v>
+      </c>
+      <c r="C104">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>0.82059988681380869</v>
+      </c>
+      <c r="E104">
+        <v>71431</v>
+      </c>
+      <c r="F104">
+        <f>E104-E103</f>
+        <v>709</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="30"/>
+        <v>965.33333333333337</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ref="H104" si="42">((E104-E103)/E103)*100</f>
+        <v>1.0025168971465739</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ref="I104:I111" si="43">B104</f>
+        <v>3563</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104:J106" si="44">(I104/E104)*100</f>
+        <v>4.9880304069661632</v>
+      </c>
+      <c r="K104">
+        <f t="shared" ref="K104:K106" si="45">(C104/F104)*100</f>
+        <v>4.090267983074753</v>
+      </c>
+      <c r="L104">
+        <v>75</v>
+      </c>
+      <c r="M104">
+        <v>270</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="7"/>
+        <v>7.5778838057816449</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="8"/>
+        <v>0.37174721189591076</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="R104">
+        <v>469</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="33"/>
+        <v>394</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="34"/>
+        <v>15.991471215351813</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="35"/>
+        <v>1.9189765458422177</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="36"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B105">
+        <f>B104+C105</f>
+        <v>3596</v>
+      </c>
+      <c r="C105">
+        <v>33</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>0.92618579848442328</v>
+      </c>
+      <c r="E105">
+        <v>72486</v>
+      </c>
+      <c r="F105">
+        <f>E105-E104</f>
+        <v>1055</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ref="G105" si="46">AVERAGE(F103:F105)</f>
+        <v>938.33333333333337</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ref="H105" si="47">((E105-E104)/E104)*100</f>
+        <v>1.476949783707354</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="43"/>
+        <v>3596</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="44"/>
+        <v>4.9609579780923214</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="45"/>
+        <v>3.1279620853080567</v>
+      </c>
+      <c r="L105">
+        <v>76</v>
+      </c>
+      <c r="M105">
+        <v>271</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="7"/>
+        <v>7.5361512791991103</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="8"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="9"/>
+        <v>11.842105263157894</v>
+      </c>
+      <c r="R105">
+        <v>486</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="33"/>
+        <v>410</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="34"/>
+        <v>15.637860082304528</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="35"/>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="36"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B106">
+        <f>B105+C106</f>
+        <v>3628</v>
+      </c>
+      <c r="C106">
+        <v>32</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>0.88987764182424911</v>
+      </c>
+      <c r="E106">
+        <v>73513</v>
+      </c>
+      <c r="F106">
+        <f>E106-E105</f>
+        <v>1027</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ref="G106:G107" si="48">AVERAGE(F104:F106)</f>
+        <v>930.33333333333337</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ref="H106:H107" si="49">((E106-E105)/E105)*100</f>
+        <v>1.4168253179924399</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="43"/>
+        <v>3628</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="44"/>
+        <v>4.9351815325180581</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="45"/>
+        <v>3.1158714703018502</v>
+      </c>
+      <c r="L106">
+        <v>71</v>
+      </c>
+      <c r="M106">
+        <v>272</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="7"/>
+        <v>7.4972436604189632</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="8"/>
+        <v>0.36900369003690037</v>
+      </c>
+      <c r="P106">
+        <v>7</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="9"/>
+        <v>9.8591549295774641</v>
+      </c>
+      <c r="R106">
+        <v>492</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="33"/>
+        <v>421</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="34"/>
+        <v>14.43089430894309</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="35"/>
+        <v>1.4227642276422763</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="36"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B107">
+        <f>B106+C107</f>
+        <v>3668</v>
+      </c>
+      <c r="C107">
+        <v>40</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>1.1025358324145533</v>
+      </c>
+      <c r="E107">
+        <v>74557</v>
+      </c>
+      <c r="F107">
+        <f>E107-E106</f>
+        <v>1044</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="48"/>
+        <v>1042</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="49"/>
+        <v>1.4201569790377213</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="43"/>
+        <v>3668</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ref="J107:J111" si="50">(I107/E107)*100</f>
+        <v>4.9197258473382774</v>
+      </c>
+      <c r="K107">
+        <f t="shared" ref="K107" si="51">(C107/F107)*100</f>
+        <v>3.8314176245210727</v>
+      </c>
+      <c r="L107">
+        <v>73</v>
+      </c>
+      <c r="M107">
+        <v>273</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="7"/>
+        <v>7.4427480916030531</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="8"/>
+        <v>0.36764705882352938</v>
+      </c>
+      <c r="P107">
+        <v>8</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="9"/>
+        <v>10.95890410958904</v>
+      </c>
+      <c r="R107">
+        <v>500</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="33"/>
+        <v>427</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="34"/>
+        <v>14.6</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="35"/>
+        <v>1.6</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="36"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B108">
+        <f>B107+C108</f>
+        <v>3706</v>
+      </c>
+      <c r="C108">
+        <v>38</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>1.0359869138495092</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="43"/>
+        <v>3706</v>
+      </c>
+      <c r="L108">
+        <v>76</v>
+      </c>
+      <c r="M108">
+        <v>273</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="7"/>
+        <v>7.3664328116567726</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>8</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="9"/>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="R108">
+        <v>506</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="33"/>
+        <v>430</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="34"/>
+        <v>15.019762845849801</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="35"/>
+        <v>1.5810276679841897</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="36"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B109">
+        <f>B108+C109</f>
+        <v>3738</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>0.86346465191581223</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="43"/>
+        <v>3738</v>
+      </c>
+      <c r="L109">
+        <v>77</v>
+      </c>
+      <c r="M109">
+        <v>273</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="7"/>
+        <v>7.3033707865168536</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>8</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="9"/>
+        <v>10.38961038961039</v>
+      </c>
+      <c r="R109">
+        <v>483</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="33"/>
+        <v>406</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="34"/>
+        <v>15.942028985507244</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="35"/>
+        <v>1.6563146997929608</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="36"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B110">
+        <f>B109+C110</f>
+        <v>3766</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>0.74906367041198507</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="43"/>
+        <v>3766</v>
+      </c>
+      <c r="L110">
+        <v>74</v>
+      </c>
+      <c r="M110">
+        <v>273</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="7"/>
+        <v>7.2490706319702598</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>8</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="9"/>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="R110">
+        <v>456</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="33"/>
+        <v>382</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="34"/>
+        <v>16.228070175438596</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="35"/>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="36"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B111">
+        <f>B110+C111</f>
+        <v>3783</v>
+      </c>
+      <c r="C111">
+        <v>17</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>0.45140732873074879</v>
+      </c>
+      <c r="E111">
+        <v>79441</v>
+      </c>
+      <c r="G111">
+        <v>1628</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="43"/>
+        <v>3783</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="50"/>
+        <v>4.762024647222467</v>
+      </c>
+      <c r="L111">
+        <v>74</v>
+      </c>
+      <c r="M111">
+        <v>273</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="7"/>
+        <v>7.216494845360824</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>8</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="9"/>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="36"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D194769-A2A2-4957-84DA-61AC86C7049D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714E149-0C71-4299-8D6D-46A80E8842D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,9 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R111" sqref="R111"/>
+      <selection pane="bottomLeft" activeCell="S118" sqref="S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8525,10 +8525,6 @@
         <f t="shared" si="9"/>
         <v>10.810810810810811</v>
       </c>
-      <c r="V111">
-        <f t="shared" si="36"/>
-        <v>66</v>
-      </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>

--- a/coronadata_general.xlsx
+++ b/coronadata_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714E149-0C71-4299-8D6D-46A80E8842D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B86CC95-5A8C-470D-9662-88067063EAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>new_deaths</t>
   </si>
 </sst>
 </file>
@@ -941,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:W120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S118" sqref="S118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,13 +961,14 @@
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,34 +1009,37 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43909</v>
       </c>
@@ -1048,11 +1055,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43910</v>
       </c>
@@ -1075,13 +1082,17 @@
         <v>1</v>
       </c>
       <c r="N3">
+        <f>M3-M2</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>2.7777777779999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43911</v>
       </c>
@@ -1104,13 +1115,17 @@
         <v>1</v>
       </c>
       <c r="N4">
+        <f t="shared" ref="N4:N67" si="0">M4-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>2.1739130430000002</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43912</v>
       </c>
@@ -1139,19 +1154,23 @@
         <v>1</v>
       </c>
       <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>1.4705882349999999</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>54.545454550000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43913</v>
       </c>
@@ -1189,19 +1208,23 @@
         <v>2</v>
       </c>
       <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>2.4691358019999998</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>6</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43914</v>
       </c>
@@ -1239,19 +1262,23 @@
         <v>3</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>2.8301886789999999</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>50</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>9</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43915</v>
       </c>
@@ -1293,19 +1320,23 @@
         <v>3</v>
       </c>
       <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>2.4793388429999998</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43916</v>
       </c>
@@ -1325,7 +1356,7 @@
         <v>263</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G81" si="0">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="G9:G81" si="1">AVERAGE(F7:F9)</f>
         <v>198.33333333333334</v>
       </c>
       <c r="H9">
@@ -1347,19 +1378,23 @@
         <v>4</v>
       </c>
       <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>2.7027027029999999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>33.333333330000002</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>19</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>61.290322580000002</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43917</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>36</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="H10">
@@ -1401,19 +1436,23 @@
         <v>4</v>
       </c>
       <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>2.4096385539999998</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>21</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>63.636363639999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43918</v>
       </c>
@@ -1433,7 +1472,7 @@
         <v>476</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>258.33333333333331</v>
       </c>
       <c r="H11">
@@ -1455,19 +1494,23 @@
         <v>5</v>
       </c>
       <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>2.4752475249999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>25</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>22</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>68.75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43919</v>
       </c>
@@ -1487,7 +1530,7 @@
         <v>141</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217.66666666666666</v>
       </c>
       <c r="H12">
@@ -1509,19 +1552,23 @@
         <v>6</v>
       </c>
       <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>2.69058296</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>22</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>66.666666669999998</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43920</v>
       </c>
@@ -1541,7 +1588,7 @@
         <v>159</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>258.66666666666669</v>
       </c>
       <c r="H13">
@@ -1563,19 +1610,23 @@
         <v>8</v>
       </c>
       <c r="N13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>3.1128404669999998</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>33.333333330000002</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>25</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>59.52380952</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -1595,7 +1646,7 @@
         <v>374</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224.66666666666666</v>
       </c>
       <c r="H14">
@@ -1617,19 +1668,23 @@
         <v>9</v>
       </c>
       <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>12.5</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>24</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>42.10526316</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43922</v>
       </c>
@@ -1649,7 +1704,7 @@
         <v>346</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>293</v>
       </c>
       <c r="H15">
@@ -1671,19 +1726,23 @@
         <v>9</v>
       </c>
       <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>2.5069637880000002</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>28</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>45.161290319999999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43923</v>
       </c>
@@ -1703,7 +1762,7 @@
         <v>270</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="H16">
@@ -1725,19 +1784,23 @@
         <v>10</v>
       </c>
       <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>2.5641025640000001</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>11.11111111</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>25</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>35.714285709999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43924</v>
       </c>
@@ -1757,7 +1820,7 @@
         <v>360</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>325.33333333333331</v>
       </c>
       <c r="H17">
@@ -1779,19 +1842,23 @@
         <v>14</v>
       </c>
       <c r="N17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O17">
         <v>3.211009174</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>40</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>28</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>36.363636360000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43925</v>
       </c>
@@ -1811,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274.66666666666669</v>
       </c>
       <c r="H18">
@@ -1833,19 +1900,23 @@
         <v>17</v>
       </c>
       <c r="N18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
         <v>3.5343035340000002</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>21.428571430000002</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>29</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>37.662337659999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43926</v>
       </c>
@@ -1865,7 +1936,7 @@
         <v>219</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>257.66666666666669</v>
       </c>
       <c r="H19">
@@ -1887,19 +1958,23 @@
         <v>19</v>
       </c>
       <c r="N19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
         <v>3.6821705429999998</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>11.764705879999999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>30</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>34.883720930000003</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43927</v>
       </c>
@@ -1919,7 +1994,7 @@
         <v>365</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.33333333333331</v>
       </c>
       <c r="H20">
@@ -1941,19 +2016,23 @@
         <v>26</v>
       </c>
       <c r="N20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O20">
         <v>4.7882136280000003</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>36.842105259999997</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>30</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>36.14457831</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43928</v>
       </c>
@@ -1973,7 +2052,7 @@
         <v>412</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332</v>
       </c>
       <c r="H21">
@@ -1995,19 +2074,23 @@
         <v>31</v>
       </c>
       <c r="N21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O21">
         <v>5.4385964910000002</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>19.23076923</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>37</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>44.578313250000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43929</v>
       </c>
@@ -2027,7 +2110,7 @@
         <v>348</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
       <c r="H22">
@@ -2049,19 +2132,23 @@
         <v>34</v>
       </c>
       <c r="N22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O22">
         <v>5.4226475279999997</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>9.6774193549999996</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>39</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>45.348837209999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43930</v>
       </c>
@@ -2081,7 +2168,7 @@
         <v>353</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>371</v>
       </c>
       <c r="H23">
@@ -2103,19 +2190,23 @@
         <v>40</v>
       </c>
       <c r="N23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O23">
         <v>5.8823529409999997</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>17.647058820000002</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>37</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>43.529411760000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43931</v>
       </c>
@@ -2135,7 +2226,7 @@
         <v>328</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="H24">
@@ -2157,19 +2248,23 @@
         <v>46</v>
       </c>
       <c r="N24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O24">
         <v>6.4606741569999997</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>15</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>36</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>41.379310340000004</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43932</v>
       </c>
@@ -2189,7 +2284,7 @@
         <v>135</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272</v>
       </c>
       <c r="H25">
@@ -2211,19 +2306,23 @@
         <v>49</v>
       </c>
       <c r="N25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O25">
         <v>6.6037735849999999</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>6.5217391300000003</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>38</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>42.222222219999999</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43933</v>
       </c>
@@ -2243,7 +2342,7 @@
         <v>351</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271.33333333333331</v>
       </c>
       <c r="H26">
@@ -2265,19 +2364,23 @@
         <v>50</v>
       </c>
       <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>6.5104166670000003</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.0408163269999999</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>36</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>37.113402059999999</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43934</v>
       </c>
@@ -2297,7 +2400,7 @@
         <v>145</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.33333333333334</v>
       </c>
       <c r="H27">
@@ -2319,19 +2422,23 @@
         <v>50</v>
       </c>
       <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>6.3211125160000003</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>37</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>38.144329900000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43935</v>
       </c>
@@ -2351,7 +2458,7 @@
         <v>311</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269</v>
       </c>
       <c r="H28">
@@ -2373,19 +2480,23 @@
         <v>56</v>
       </c>
       <c r="N28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O28">
         <v>6.714628297</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>12</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>35</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>36.082474230000003</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43936</v>
       </c>
@@ -2405,7 +2516,7 @@
         <v>355</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270.33333333333331</v>
       </c>
       <c r="H29">
@@ -2427,19 +2538,23 @@
         <v>57</v>
       </c>
       <c r="N29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>6.4552661379999998</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.7857142859999999</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>35</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>36.082474230000003</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43937</v>
       </c>
@@ -2459,7 +2574,7 @@
         <v>284</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>316.66666666666669</v>
       </c>
       <c r="H30">
@@ -2481,19 +2596,23 @@
         <v>62</v>
       </c>
       <c r="N30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O30">
         <v>6.6523605149999998</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>8.7719298250000008</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>35</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>36.458333330000002</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43938</v>
       </c>
@@ -2513,7 +2632,7 @@
         <v>372</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="H31">
@@ -2535,19 +2654,23 @@
         <v>64</v>
       </c>
       <c r="N31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O31">
         <v>6.5775950669999999</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>3.225806452</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>35</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>36.458333330000002</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43939</v>
       </c>
@@ -2567,7 +2690,7 @@
         <v>126</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260.66666666666669</v>
       </c>
       <c r="H32">
@@ -2589,19 +2712,23 @@
         <v>68</v>
       </c>
       <c r="N32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O32">
         <v>6.8</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>6.25</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>32</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>34.40860215</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43940</v>
       </c>
@@ -2621,7 +2748,7 @@
         <v>278</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>258.66666666666669</v>
       </c>
       <c r="H33">
@@ -2643,34 +2770,38 @@
         <v>71</v>
       </c>
       <c r="N33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O33">
         <v>6.9676153090000001</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>4.4117647059999996</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>30</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>30.927835049999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>503</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>406</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>19.28429423</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>5.9642147120000004</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43941</v>
       </c>
@@ -2690,7 +2821,7 @@
         <v>110</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171.33333333333334</v>
       </c>
       <c r="H34">
@@ -2712,34 +2843,38 @@
         <v>81</v>
       </c>
       <c r="N34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O34">
         <v>7.803468208</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>14.08450704</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>28</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>29.787234040000001</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>489</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>395</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>19.222903890000001</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>5.7259713699999999</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43942</v>
       </c>
@@ -2759,7 +2894,7 @@
         <v>508</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>298.66666666666669</v>
       </c>
       <c r="H35">
@@ -2781,34 +2916,38 @@
         <v>86</v>
       </c>
       <c r="N35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O35">
         <v>7.9851439180000003</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>6.1728395059999999</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>30</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>30.3030303</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>500</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>401</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>19.8</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>6</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43943</v>
       </c>
@@ -2828,7 +2967,7 @@
         <v>636</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>418</v>
       </c>
       <c r="H36">
@@ -2850,34 +2989,38 @@
         <v>88</v>
       </c>
       <c r="N36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
         <v>7.7669902909999999</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2.3255813949999999</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>30</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>30.6122449</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>537</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>439</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>18.249534449999999</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>5.5865921790000002</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43944</v>
       </c>
@@ -2897,7 +3040,7 @@
         <v>412</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>518.66666666666663</v>
       </c>
       <c r="H37">
@@ -2919,34 +3062,38 @@
         <v>91</v>
       </c>
       <c r="N37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O37">
         <v>7.7512776829999996</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>3.4090909090000001</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>30</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>29.41176471</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>555</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>453</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>18.378378380000001</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>5.4054054049999998</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43945</v>
       </c>
@@ -2966,7 +3113,7 @@
         <v>408</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>485.33333333333331</v>
       </c>
       <c r="H38">
@@ -2988,34 +3135,38 @@
         <v>96</v>
       </c>
       <c r="N38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O38">
         <v>7.8688524590000002</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>5.4945054950000003</v>
-      </c>
-      <c r="P38">
-        <v>30</v>
       </c>
       <c r="Q38">
         <v>30</v>
       </c>
       <c r="R38">
+        <v>30</v>
+      </c>
+      <c r="S38">
         <v>585</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>485</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>17.094017090000001</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>5.1282051280000003</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43946</v>
       </c>
@@ -3035,7 +3186,7 @@
         <v>411</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410.33333333333331</v>
       </c>
       <c r="H39">
@@ -3057,34 +3208,38 @@
         <v>99</v>
       </c>
       <c r="N39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O39">
         <v>7.8571428570000004</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>3.125</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>29</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>28.712871289999999</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>601</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>500</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>16.805324460000001</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>4.8252911809999999</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43947</v>
       </c>
@@ -3104,7 +3259,7 @@
         <v>194</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337.66666666666669</v>
       </c>
       <c r="H40">
@@ -3126,34 +3281,38 @@
         <v>106</v>
       </c>
       <c r="N40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O40">
         <v>8.28125</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>7.0707070710000002</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>23</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>21.296296300000002</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>577</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>469</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>18.717504330000001</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3.9861351819999999</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43948</v>
       </c>
@@ -3173,7 +3332,7 @@
         <v>286</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="H41">
@@ -3195,34 +3354,38 @@
         <v>108</v>
       </c>
       <c r="N41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O41">
         <v>8.3140877599999996</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1.886792453</v>
-      </c>
-      <c r="P41">
-        <v>21</v>
       </c>
       <c r="Q41">
         <v>21</v>
       </c>
       <c r="R41">
+        <v>21</v>
+      </c>
+      <c r="S41">
         <v>587</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>487</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>17.035775130000001</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>3.5775127769999999</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43949</v>
       </c>
@@ -3242,7 +3405,7 @@
         <v>492</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H42">
@@ -3264,34 +3427,38 @@
         <v>112</v>
       </c>
       <c r="N42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O42">
         <v>8.3271375459999994</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>3.703703704</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>22</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>21.568627450000001</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>622</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>520</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>16.398713829999998</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>3.5369774920000001</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43950</v>
       </c>
@@ -3311,7 +3478,7 @@
         <v>323</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>367</v>
       </c>
       <c r="H43">
@@ -3333,34 +3500,38 @@
         <v>113</v>
       </c>
       <c r="N43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>8.2421590079999998</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.89285714299999996</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>22</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>22.916666670000001</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>634</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>538</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>15.14195584</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>3.470031546</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43951</v>
       </c>
@@ -3380,7 +3551,7 @@
         <v>480</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>431.66666666666669</v>
       </c>
       <c r="H44">
@@ -3402,34 +3573,38 @@
         <v>115</v>
       </c>
       <c r="N44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O44">
         <v>8.1157374739999995</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>1.769911504</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>23</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>23.958333329999999</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>646</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>550</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>14.86068111</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>3.5603715170000001</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43952</v>
       </c>
@@ -3449,7 +3624,7 @@
         <v>511</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>438</v>
       </c>
       <c r="H45">
@@ -3471,34 +3646,38 @@
         <v>121</v>
       </c>
       <c r="N45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O45">
         <v>8.3047357579999996</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>5.2173913040000004</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>22</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>22.222222219999999</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>644</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>545</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>15.372670810000001</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>3.4161490680000002</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43953</v>
       </c>
@@ -3518,7 +3697,7 @@
         <v>572</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>521</v>
       </c>
       <c r="H46">
@@ -3540,34 +3719,38 @@
         <v>126</v>
       </c>
       <c r="N46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O46">
         <v>8.3609820839999998</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>4.1322314049999997</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>22</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>22.44897959</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>668</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>570</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>14.670658680000001</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>3.2934131739999999</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43954</v>
       </c>
@@ -3587,7 +3770,7 @@
         <v>532</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>538.33333333333337</v>
       </c>
       <c r="H47">
@@ -3609,34 +3792,38 @@
         <v>127</v>
       </c>
       <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
         <v>8.2467532469999991</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.79365079400000005</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>22</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>20.952380949999998</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>699</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>594</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>15.02145923</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>3.147353362</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43955</v>
       </c>
@@ -3656,7 +3843,7 @@
         <v>684</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="H48">
@@ -3678,34 +3865,38 @@
         <v>128</v>
       </c>
       <c r="N48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>8.2103912759999993</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.78740157499999996</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>19</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>18.26923077</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>702</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>598</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>14.81481481</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>2.7065527070000002</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43956</v>
       </c>
@@ -3725,7 +3916,7 @@
         <v>744</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>653.33333333333337</v>
       </c>
       <c r="H49">
@@ -3747,34 +3938,38 @@
         <v>131</v>
       </c>
       <c r="N49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O49">
         <v>8.1926203879999999</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>2.34375</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>17</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>17.346938779999999</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>661</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>563</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>14.82602118</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>2.5718608170000001</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43957</v>
       </c>
@@ -3794,7 +3989,7 @@
         <v>801</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>743</v>
       </c>
       <c r="H50">
@@ -3816,34 +4011,38 @@
         <v>137</v>
       </c>
       <c r="N50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O50">
         <v>8.4255842560000005</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>4.5801526719999996</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>17</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>17.346938779999999</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>666</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>568</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>14.714714710000001</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>2.5525525529999999</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43958</v>
       </c>
@@ -3863,7 +4062,7 @@
         <v>752</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765.66666666666663</v>
       </c>
       <c r="H51">
@@ -3885,34 +4084,38 @@
         <v>139</v>
       </c>
       <c r="N51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O51">
         <v>8.3133971290000002</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>1.4598540149999999</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>16</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>17.777777780000001</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>678</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>588</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>13.27433628</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>2.3598820059999999</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43959</v>
       </c>
@@ -3932,7 +4135,7 @@
         <v>790</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>781</v>
       </c>
       <c r="H52">
@@ -3954,34 +4157,38 @@
         <v>143</v>
       </c>
       <c r="N52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O52">
         <v>8.3920187790000007</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>2.8776978419999999</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>16</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>18.18181818</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>672</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>584</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>13.0952381</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>2.3809523810000002</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43960</v>
       </c>
@@ -4001,7 +4208,7 @@
         <v>966</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>836</v>
       </c>
       <c r="H53">
@@ -4023,34 +4230,38 @@
         <v>147</v>
       </c>
       <c r="N53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O53">
         <v>8.4385763489999999</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>2.7972027970000002</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>19</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>23.170731709999998</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>675</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>593</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>12.148148150000001</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>2.8148148150000001</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43961</v>
       </c>
@@ -4070,7 +4281,7 @@
         <v>987</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>914.33333333333337</v>
       </c>
       <c r="H54">
@@ -4092,34 +4303,38 @@
         <v>148</v>
       </c>
       <c r="N54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
         <v>8.2774049220000006</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0.68027210900000001</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>19</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>22.352941179999998</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>669</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>584</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>12.705530639999999</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>2.8400597909999998</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43962</v>
       </c>
@@ -4139,7 +4354,7 @@
         <v>369</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>774</v>
       </c>
       <c r="H55">
@@ -4161,34 +4376,38 @@
         <v>152</v>
       </c>
       <c r="N55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O55">
         <v>8.3654375339999998</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>2.7027027029999999</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>19</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>20.879120879999999</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>665</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>574</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>13.68421053</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>2.8571428569999999</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43963</v>
       </c>
@@ -4208,7 +4427,7 @@
         <v>622</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>659.33333333333337</v>
       </c>
       <c r="H56">
@@ -4230,34 +4449,38 @@
         <v>156</v>
       </c>
       <c r="N56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O56">
         <v>8.4278768230000001</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2.6315789469999999</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>19</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>20.430107530000001</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>670</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>577</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>13.880597010000001</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>2.835820896</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43964</v>
       </c>
@@ -4277,7 +4500,7 @@
         <v>1704</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>898.33333333333337</v>
       </c>
       <c r="H57">
@@ -4299,34 +4522,38 @@
         <v>162</v>
       </c>
       <c r="N57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O57">
         <v>8.3764219230000005</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>3.846153846</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>20</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>19.801980199999999</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>717</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>616</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>14.08647141</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>2.7894002790000001</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43965</v>
       </c>
@@ -4346,7 +4573,7 @@
         <v>1225</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1183.6666666666667</v>
       </c>
       <c r="H58">
@@ -4368,34 +4595,38 @@
         <v>163</v>
       </c>
       <c r="N58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O58">
         <v>8.1094527359999997</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.617283951</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>20</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>18.348623849999999</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>783</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>674</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>13.92081737</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>2.5542784159999998</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43966</v>
       </c>
@@ -4415,7 +4646,7 @@
         <v>1176</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1368.3333333333333</v>
       </c>
       <c r="H59">
@@ -4437,34 +4668,38 @@
         <v>167</v>
       </c>
       <c r="N59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O59">
         <v>7.9372623569999998</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>2.4539877300000001</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>22</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>18.48739496</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>837</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>718</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>14.217443250000001</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>2.628434886</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43967</v>
       </c>
@@ -4484,7 +4719,7 @@
         <v>947</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1116</v>
       </c>
       <c r="H60">
@@ -4506,34 +4741,38 @@
         <v>171</v>
       </c>
       <c r="N60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O60">
         <v>7.8332569860000003</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2.395209581</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>21</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>17.647058820000002</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>887</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>768</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>13.416009020000001</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>2.3675310029999999</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43968</v>
       </c>
@@ -4553,7 +4792,7 @@
         <v>1577</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1233.3333333333333</v>
       </c>
       <c r="H61">
@@ -4575,46 +4814,50 @@
         <v>172</v>
       </c>
       <c r="N61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
         <v>7.7199281869999998</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>0.58479532199999995</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>21</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>16.935483869999999</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>911</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>787</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>13.611416030000001</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>2.3051591660000001</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43969</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B76" si="1">B61+C62</f>
+        <f t="shared" ref="B62:B76" si="2">B61+C62</f>
         <v>2269</v>
       </c>
       <c r="C62">
         <v>41</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D111" si="2">((B62-B61)/B61)*100</f>
+        <f t="shared" ref="D62:D119" si="3">((B62-B61)/B61)*100</f>
         <v>1.8402154398563735</v>
       </c>
       <c r="E62">
@@ -4625,23 +4868,23 @@
         <v>675</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1066.3333333333333</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H81" si="3">((E62-E61)/E61)*100</f>
+        <f t="shared" ref="H62:H81" si="4">((E62-E61)/E61)*100</f>
         <v>2.4173620313003616</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I81" si="4">B62</f>
+        <f t="shared" ref="I62:I81" si="5">B62</f>
         <v>2269</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J81" si="5">(I62/E62)*100</f>
+        <f t="shared" ref="J62:J81" si="6">(I62/E62)*100</f>
         <v>7.9341212672214834</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K81" si="6">(C62/F62)*100</f>
+        <f t="shared" ref="K62:K81" si="7">(C62/F62)*100</f>
         <v>6.0740740740740744</v>
       </c>
       <c r="L62">
@@ -4651,53 +4894,57 @@
         <v>174</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N111" si="7">(M62/B62)*100</f>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62:O119" si="8">(M62/B62)*100</f>
         <v>7.6685764654032607</v>
       </c>
-      <c r="O62">
-        <f t="shared" ref="O62:O111" si="8">((M62-M61)/M61)*100</f>
+      <c r="P62">
+        <f t="shared" ref="P62:P112" si="9">((M62-M61)/M61)*100</f>
         <v>1.1627906976744187</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>21</v>
       </c>
-      <c r="Q62">
-        <f t="shared" ref="Q62:Q111" si="9">(P62/L62)*100</f>
+      <c r="R62">
+        <f t="shared" ref="R62:R119" si="10">(Q62/L62)*100</f>
         <v>15.441176470588236</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>941</v>
       </c>
-      <c r="S62">
-        <f t="shared" ref="S62:S83" si="10">R62-L62</f>
+      <c r="T62">
+        <f t="shared" ref="T62:T83" si="11">S62-L62</f>
         <v>805</v>
       </c>
-      <c r="T62">
-        <f t="shared" ref="T62:T83" si="11">(L62/R62)*100</f>
+      <c r="U62">
+        <f t="shared" ref="U62:U83" si="12">(L62/S62)*100</f>
         <v>14.452709883103083</v>
       </c>
-      <c r="U62">
-        <f t="shared" ref="U62:U83" si="12">(P62/R62)*100</f>
+      <c r="V62">
+        <f t="shared" ref="V62:V83" si="13">(Q62/S62)*100</f>
         <v>2.2316684378320937</v>
       </c>
-      <c r="V62">
-        <f t="shared" ref="V62:V83" si="13">L62-P62</f>
+      <c r="W62">
+        <f t="shared" ref="W62:W83" si="14">L62-Q62</f>
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43970</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2365</v>
       </c>
       <c r="C63">
         <v>96</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2309387395328333</v>
       </c>
       <c r="E63">
@@ -4708,23 +4955,23 @@
         <v>1372</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1208</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7975382893908662</v>
       </c>
       <c r="I63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2365</v>
       </c>
       <c r="J63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8912245578912241</v>
       </c>
       <c r="K63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9970845481049562</v>
       </c>
       <c r="L63">
@@ -4734,53 +4981,57 @@
         <v>178</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
-        <v>7.5264270613107822</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="O63">
         <f t="shared" si="8"/>
+        <v>7.5264270613107822</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="9"/>
         <v>2.2988505747126435</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>17</v>
       </c>
-      <c r="Q63">
-        <f t="shared" si="9"/>
+      <c r="R63">
+        <f t="shared" si="10"/>
         <v>11.643835616438356</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>1032</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="10"/>
-        <v>886</v>
       </c>
       <c r="T63">
         <f t="shared" si="11"/>
-        <v>14.147286821705427</v>
+        <v>886</v>
       </c>
       <c r="U63">
         <f t="shared" si="12"/>
-        <v>1.6472868217054266</v>
+        <v>14.147286821705427</v>
       </c>
       <c r="V63">
         <f t="shared" si="13"/>
+        <v>1.6472868217054266</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="14"/>
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43971</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2425</v>
       </c>
       <c r="C64">
         <v>60</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.536997885835095</v>
       </c>
       <c r="E64">
@@ -4791,23 +5042,23 @@
         <v>716</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>921</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3890557223890561</v>
       </c>
       <c r="I64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2425</v>
       </c>
       <c r="J64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.902626604966434</v>
       </c>
       <c r="K64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3798882681564244</v>
       </c>
       <c r="L64">
@@ -4817,53 +5068,57 @@
         <v>182</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
-        <v>7.5051546391752568</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
+        <v>7.5051546391752568</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="9"/>
         <v>2.2471910112359552</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>15</v>
       </c>
-      <c r="Q64">
-        <f t="shared" si="9"/>
+      <c r="R64">
+        <f t="shared" si="10"/>
         <v>10.135135135135135</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>1033</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="10"/>
-        <v>885</v>
       </c>
       <c r="T64">
         <f t="shared" si="11"/>
-        <v>14.327202323330107</v>
+        <v>885</v>
       </c>
       <c r="U64">
         <f t="shared" si="12"/>
-        <v>1.452081316553727</v>
+        <v>14.327202323330107</v>
       </c>
       <c r="V64">
         <f t="shared" si="13"/>
+        <v>1.452081316553727</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="14"/>
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43972</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2505</v>
       </c>
       <c r="C65">
         <v>80</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2989690721649487</v>
       </c>
       <c r="E65">
@@ -4874,23 +5129,23 @@
         <v>624</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>904</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0335006191748679</v>
       </c>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2505</v>
       </c>
       <c r="J65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0006387735547744</v>
       </c>
       <c r="K65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.820512820512819</v>
       </c>
       <c r="L65">
@@ -4900,80 +5155,84 @@
         <v>185</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
-        <v>7.3852295409181634</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O65">
         <f t="shared" si="8"/>
+        <v>7.3852295409181634</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="9"/>
         <v>1.6483516483516485</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>16</v>
       </c>
-      <c r="Q65">
-        <f t="shared" si="9"/>
+      <c r="R65">
+        <f t="shared" si="10"/>
         <v>10.191082802547772</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>1084</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="10"/>
-        <v>927</v>
       </c>
       <c r="T65">
         <f t="shared" si="11"/>
-        <v>14.48339483394834</v>
+        <v>927</v>
       </c>
       <c r="U65">
         <f t="shared" si="12"/>
-        <v>1.4760147601476015</v>
+        <v>14.48339483394834</v>
       </c>
       <c r="V65">
         <f t="shared" si="13"/>
+        <v>1.4760147601476015</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43973</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2575</v>
       </c>
       <c r="C66">
         <v>70</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7944111776447107</v>
       </c>
       <c r="E66" s="2">
         <v>32304</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F81" si="14">E66-E65</f>
+        <f t="shared" ref="F66:F81" si="15">E66-E65</f>
         <v>994</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>778</v>
       </c>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1747045672309167</v>
       </c>
       <c r="I66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2575</v>
       </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9711490837048036</v>
       </c>
       <c r="K66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.042253521126761</v>
       </c>
       <c r="L66">
@@ -4983,80 +5242,84 @@
         <v>188</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
-        <v>7.3009708737864081</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O66">
         <f t="shared" si="8"/>
+        <v>7.3009708737864081</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="9"/>
         <v>1.6216216216216217</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>15</v>
       </c>
-      <c r="Q66">
-        <f t="shared" si="9"/>
+      <c r="R66">
+        <f t="shared" si="10"/>
         <v>8.7719298245614024</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>1114</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="10"/>
-        <v>943</v>
       </c>
       <c r="T66">
         <f t="shared" si="11"/>
-        <v>15.350089766606823</v>
+        <v>943</v>
       </c>
       <c r="U66">
         <f t="shared" si="12"/>
-        <v>1.3464991023339317</v>
+        <v>15.350089766606823</v>
       </c>
       <c r="V66">
         <f t="shared" si="13"/>
+        <v>1.3464991023339317</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="14"/>
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43974</v>
       </c>
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2627</v>
       </c>
       <c r="C67">
         <v>52</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0194174757281553</v>
       </c>
       <c r="E67">
         <v>32850</v>
       </c>
       <c r="F67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>721.33333333333337</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6901931649331352</v>
       </c>
       <c r="I67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2627</v>
       </c>
       <c r="J67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9969558599695585</v>
       </c>
       <c r="K67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5238095238095237</v>
       </c>
       <c r="L67">
@@ -5066,80 +5329,84 @@
         <v>191</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
-        <v>7.2706509326227629</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O67">
         <f t="shared" si="8"/>
+        <v>7.2706509326227629</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="9"/>
         <v>1.5957446808510638</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>14</v>
       </c>
-      <c r="Q67">
-        <f t="shared" si="9"/>
+      <c r="R67">
+        <f t="shared" si="10"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>1118</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="10"/>
-        <v>950</v>
       </c>
       <c r="T67">
         <f t="shared" si="11"/>
-        <v>15.026833631484795</v>
+        <v>950</v>
       </c>
       <c r="U67">
         <f t="shared" si="12"/>
-        <v>1.2522361359570662</v>
+        <v>15.026833631484795</v>
       </c>
       <c r="V67">
         <f t="shared" si="13"/>
+        <v>1.2522361359570662</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="14"/>
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43975</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2648</v>
       </c>
       <c r="C68">
         <v>21</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79939094023601054</v>
       </c>
       <c r="E68">
         <v>33626</v>
       </c>
       <c r="F68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>776</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>772</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3622526636225265</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2648</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8748587402605121</v>
       </c>
       <c r="K68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7061855670103094</v>
       </c>
       <c r="L68">
@@ -5149,80 +5416,84 @@
         <v>194</v>
       </c>
       <c r="N68">
-        <f t="shared" si="7"/>
-        <v>7.3262839879154082</v>
+        <f t="shared" ref="N68:N119" si="16">M68-M67</f>
+        <v>3</v>
       </c>
       <c r="O68">
         <f t="shared" si="8"/>
+        <v>7.3262839879154082</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="9"/>
         <v>1.5706806282722512</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>15</v>
       </c>
-      <c r="Q68">
-        <f t="shared" si="9"/>
+      <c r="R68">
+        <f t="shared" si="10"/>
         <v>8.5227272727272716</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>1077</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="10"/>
-        <v>901</v>
       </c>
       <c r="T68">
         <f t="shared" si="11"/>
-        <v>16.341689879294336</v>
+        <v>901</v>
       </c>
       <c r="U68">
         <f t="shared" si="12"/>
-        <v>1.392757660167131</v>
+        <v>16.341689879294336</v>
       </c>
       <c r="V68">
         <f t="shared" si="13"/>
+        <v>1.392757660167131</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="14"/>
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43976</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2676</v>
       </c>
       <c r="C69">
         <v>28</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0574018126888218</v>
       </c>
       <c r="E69">
         <v>35059</v>
       </c>
       <c r="F69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1433</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>918.33333333333337</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2615832986379587</v>
       </c>
       <c r="I69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2676</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.6328474856670185</v>
       </c>
       <c r="K69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9539427773900906</v>
       </c>
       <c r="L69">
@@ -5232,80 +5503,84 @@
         <v>194</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
-        <v>7.2496263079222718</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O69">
         <f t="shared" si="8"/>
+        <v>7.2496263079222718</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>15</v>
       </c>
-      <c r="Q69">
-        <f t="shared" si="9"/>
+      <c r="R69">
+        <f t="shared" si="10"/>
         <v>8.2872928176795568</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>1094</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="10"/>
-        <v>913</v>
       </c>
       <c r="T69">
         <f t="shared" si="11"/>
-        <v>16.544789762340038</v>
+        <v>913</v>
       </c>
       <c r="U69">
         <f t="shared" si="12"/>
-        <v>1.3711151736745886</v>
+        <v>16.544789762340038</v>
       </c>
       <c r="V69">
         <f t="shared" si="13"/>
+        <v>1.3711151736745886</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43977</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2702</v>
       </c>
       <c r="C70">
         <v>26</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97159940209267559</v>
       </c>
       <c r="E70">
         <v>35985</v>
       </c>
       <c r="F70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>926</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1045</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.641261872842922</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2702</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.508684173961373</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8077753779697625</v>
       </c>
       <c r="L70">
@@ -5315,80 +5590,84 @@
         <v>198</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
-        <v>7.3279052553663959</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="O70">
         <f t="shared" si="8"/>
+        <v>7.3279052553663959</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="9"/>
         <v>2.0618556701030926</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>17</v>
       </c>
-      <c r="Q70">
-        <f t="shared" si="9"/>
+      <c r="R70">
+        <f t="shared" si="10"/>
         <v>9.1397849462365599</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>1083</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="10"/>
-        <v>897</v>
       </c>
       <c r="T70">
         <f t="shared" si="11"/>
-        <v>17.174515235457065</v>
+        <v>897</v>
       </c>
       <c r="U70">
         <f t="shared" si="12"/>
-        <v>1.5697137580794089</v>
+        <v>17.174515235457065</v>
       </c>
       <c r="V70">
         <f t="shared" si="13"/>
+        <v>1.5697137580794089</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="14"/>
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43978</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2741</v>
       </c>
       <c r="C71">
         <v>39</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4433752775721687</v>
       </c>
       <c r="E71">
         <v>36586</v>
       </c>
       <c r="F71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>601</v>
       </c>
       <c r="G71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>986.66666666666663</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6701403362512159</v>
       </c>
       <c r="I71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2741</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4919368064286882</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4891846921797001</v>
       </c>
       <c r="L71">
@@ -5398,80 +5677,84 @@
         <v>211</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
-        <v>7.6979204669828531</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="O71">
         <f t="shared" si="8"/>
+        <v>7.6979204669828531</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="9"/>
         <v>6.5656565656565666</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>18</v>
       </c>
-      <c r="Q71">
-        <f t="shared" si="9"/>
+      <c r="R71">
+        <f t="shared" si="10"/>
         <v>9.4736842105263168</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>1059</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="10"/>
-        <v>869</v>
       </c>
       <c r="T71">
         <f t="shared" si="11"/>
-        <v>17.941454202077431</v>
+        <v>869</v>
       </c>
       <c r="U71">
         <f t="shared" si="12"/>
-        <v>1.6997167138810201</v>
+        <v>17.941454202077431</v>
       </c>
       <c r="V71">
         <f t="shared" si="13"/>
+        <v>1.6997167138810201</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43979</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2773</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1674571324334184</v>
       </c>
       <c r="E72">
         <v>37442</v>
       </c>
       <c r="F72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>856</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>794.33333333333337</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3396927786585033</v>
       </c>
       <c r="I72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2773</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4061214678703067</v>
       </c>
       <c r="K72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7383177570093453</v>
       </c>
       <c r="L72">
@@ -5481,80 +5764,84 @@
         <v>216</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
-        <v>7.7893977641543461</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="O72">
         <f t="shared" si="8"/>
+        <v>7.7893977641543461</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="9"/>
         <v>2.3696682464454977</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>19</v>
       </c>
-      <c r="Q72">
-        <f t="shared" si="9"/>
+      <c r="R72">
+        <f t="shared" si="10"/>
         <v>9.9476439790575917</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>1060</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="10"/>
-        <v>869</v>
       </c>
       <c r="T72">
         <f t="shared" si="11"/>
-        <v>18.018867924528301</v>
+        <v>869</v>
       </c>
       <c r="U72">
         <f t="shared" si="12"/>
-        <v>1.7924528301886793</v>
+        <v>18.018867924528301</v>
       </c>
       <c r="V72">
         <f t="shared" si="13"/>
+        <v>1.7924528301886793</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43980</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2807</v>
       </c>
       <c r="C73">
         <v>34</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2261089073205915</v>
       </c>
       <c r="E73">
         <v>38178</v>
       </c>
       <c r="F73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>736</v>
       </c>
       <c r="G73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>731</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9657069600982853</v>
       </c>
       <c r="I73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2807</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3524019068573514</v>
       </c>
       <c r="K73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6195652173913038</v>
       </c>
       <c r="L73">
@@ -5564,80 +5851,84 @@
         <v>218</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
-        <v>7.766298539365871</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O73">
         <f t="shared" si="8"/>
+        <v>7.766298539365871</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="9"/>
         <v>0.92592592592592582</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>19</v>
       </c>
-      <c r="Q73">
-        <f t="shared" si="9"/>
+      <c r="R73">
+        <f t="shared" si="10"/>
         <v>10.160427807486631</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>1030</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="10"/>
-        <v>843</v>
       </c>
       <c r="T73">
         <f t="shared" si="11"/>
-        <v>18.155339805825243</v>
+        <v>843</v>
       </c>
       <c r="U73">
         <f t="shared" si="12"/>
-        <v>1.8446601941747571</v>
+        <v>18.155339805825243</v>
       </c>
       <c r="V73">
         <f t="shared" si="13"/>
+        <v>1.8446601941747571</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43981</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2851</v>
       </c>
       <c r="C74">
         <v>44</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5675097969362308</v>
       </c>
       <c r="E74">
         <v>40070</v>
       </c>
       <c r="F74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1892</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1161.3333333333333</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9557336686049558</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2851</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1150486648365359</v>
       </c>
       <c r="K74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3255813953488373</v>
       </c>
       <c r="L74">
@@ -5647,80 +5938,84 @@
         <v>218</v>
       </c>
       <c r="N74">
-        <f t="shared" si="7"/>
-        <v>7.6464398456681861</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O74">
         <f t="shared" si="8"/>
+        <v>7.6464398456681861</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>20</v>
       </c>
-      <c r="Q74">
-        <f t="shared" si="9"/>
+      <c r="R74">
+        <f t="shared" si="10"/>
         <v>10.582010582010582</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>985</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="10"/>
-        <v>796</v>
       </c>
       <c r="T74">
         <f t="shared" si="11"/>
-        <v>19.18781725888325</v>
+        <v>796</v>
       </c>
       <c r="U74">
         <f t="shared" si="12"/>
-        <v>2.030456852791878</v>
+        <v>19.18781725888325</v>
       </c>
       <c r="V74">
         <f t="shared" si="13"/>
+        <v>2.030456852791878</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="14"/>
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43982</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2876</v>
       </c>
       <c r="C75">
         <v>25</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87688530340231485</v>
       </c>
       <c r="E75">
         <v>41459</v>
       </c>
       <c r="F75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1389</v>
       </c>
       <c r="G75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1339</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4664337409533315</v>
       </c>
       <c r="I75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2876</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9369738778069898</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7998560115190785</v>
       </c>
       <c r="L75">
@@ -5730,80 +6025,84 @@
         <v>219</v>
       </c>
       <c r="N75">
-        <f t="shared" si="7"/>
-        <v>7.6147426981919324</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O75">
         <f t="shared" si="8"/>
+        <v>7.6147426981919324</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="9"/>
         <v>0.45871559633027525</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>19</v>
       </c>
-      <c r="Q75">
-        <f t="shared" si="9"/>
+      <c r="R75">
+        <f t="shared" si="10"/>
         <v>9.7435897435897445</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>952</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="10"/>
-        <v>757</v>
       </c>
       <c r="T75">
         <f t="shared" si="11"/>
-        <v>20.483193277310924</v>
+        <v>757</v>
       </c>
       <c r="U75">
         <f t="shared" si="12"/>
-        <v>1.9957983193277309</v>
+        <v>20.483193277310924</v>
       </c>
       <c r="V75">
         <f t="shared" si="13"/>
+        <v>1.9957983193277309</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43983</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2887</v>
       </c>
       <c r="C76">
         <v>11</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3824756606397775</v>
       </c>
       <c r="E76">
         <v>42825</v>
       </c>
       <c r="F76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1366</v>
       </c>
       <c r="G76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1549</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2948213898067973</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2887</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7413893753648573</v>
       </c>
       <c r="K76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80527086383601754</v>
       </c>
       <c r="L76">
@@ -5813,80 +6112,84 @@
         <v>224</v>
       </c>
       <c r="N76">
-        <f t="shared" si="7"/>
-        <v>7.7589192933841353</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="O76">
         <f t="shared" si="8"/>
+        <v>7.7589192933841353</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="9"/>
         <v>2.2831050228310499</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>20</v>
       </c>
-      <c r="Q76">
-        <f t="shared" si="9"/>
+      <c r="R76">
+        <f t="shared" si="10"/>
         <v>10.638297872340425</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>916</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="10"/>
-        <v>728</v>
       </c>
       <c r="T76">
         <f t="shared" si="11"/>
-        <v>20.52401746724891</v>
+        <v>728</v>
       </c>
       <c r="U76">
         <f t="shared" si="12"/>
-        <v>2.1834061135371177</v>
+        <v>20.52401746724891</v>
       </c>
       <c r="V76">
         <f t="shared" si="13"/>
+        <v>2.1834061135371177</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43984</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:B82" si="15">B76+C77</f>
+        <f t="shared" ref="B77:B82" si="17">B76+C77</f>
         <v>2930</v>
       </c>
       <c r="C77">
         <v>43</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.489435400069276</v>
       </c>
       <c r="E77">
         <v>45273</v>
       </c>
       <c r="F77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2448</v>
       </c>
       <c r="G77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1734.3333333333333</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7162872154115583</v>
       </c>
       <c r="I77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2930</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4718485631612657</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7565359477124183</v>
       </c>
       <c r="L77">
@@ -5896,80 +6199,84 @@
         <v>227</v>
       </c>
       <c r="N77">
-        <f t="shared" si="7"/>
-        <v>7.747440273037542</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="O77">
         <f t="shared" si="8"/>
+        <v>7.747440273037542</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="9"/>
         <v>1.3392857142857142</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>20</v>
       </c>
-      <c r="Q77">
-        <f t="shared" si="9"/>
+      <c r="R77">
+        <f t="shared" si="10"/>
         <v>10.695187165775401</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>893</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="10"/>
-        <v>706</v>
       </c>
       <c r="T77">
         <f t="shared" si="11"/>
-        <v>20.940649496080628</v>
+        <v>706</v>
       </c>
       <c r="U77">
         <f t="shared" si="12"/>
-        <v>2.2396416573348263</v>
+        <v>20.940649496080628</v>
       </c>
       <c r="V77">
         <f t="shared" si="13"/>
+        <v>2.2396416573348263</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="14"/>
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43985</v>
       </c>
       <c r="B78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2967</v>
       </c>
       <c r="C78">
         <v>37</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2627986348122866</v>
       </c>
       <c r="E78">
         <v>45529</v>
       </c>
       <c r="F78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="G78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1356.6666666666667</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56545844101340759</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2967</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5167256034615306</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.453125</v>
       </c>
       <c r="L78">
@@ -5979,80 +6286,84 @@
         <v>228</v>
       </c>
       <c r="N78">
-        <f t="shared" si="7"/>
-        <v>7.684529828109202</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O78">
         <f t="shared" si="8"/>
+        <v>7.684529828109202</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="9"/>
         <v>0.44052863436123352</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>19</v>
       </c>
-      <c r="Q78">
-        <f t="shared" si="9"/>
+      <c r="R78">
+        <f t="shared" si="10"/>
         <v>10.382513661202186</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>903</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="10"/>
-        <v>720</v>
       </c>
       <c r="T78">
         <f t="shared" si="11"/>
-        <v>20.26578073089701</v>
+        <v>720</v>
       </c>
       <c r="U78">
         <f t="shared" si="12"/>
-        <v>2.1040974529346621</v>
+        <v>20.26578073089701</v>
       </c>
       <c r="V78">
         <f t="shared" si="13"/>
+        <v>2.1040974529346621</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43986</v>
       </c>
       <c r="B79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="C79">
         <v>33</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1122345803842264</v>
       </c>
       <c r="E79">
         <v>46588</v>
       </c>
       <c r="F79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1059</v>
       </c>
       <c r="G79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1254.3333333333333</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3259900283335897</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4394264617498074</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1161473087818696</v>
       </c>
       <c r="L79">
@@ -6062,80 +6373,84 @@
         <v>230</v>
       </c>
       <c r="N79">
-        <f t="shared" si="7"/>
-        <v>7.6666666666666661</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O79">
         <f t="shared" si="8"/>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="9"/>
         <v>0.8771929824561403</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>17</v>
       </c>
-      <c r="Q79">
-        <f t="shared" si="9"/>
+      <c r="R79">
+        <f t="shared" si="10"/>
         <v>9.5505617977528079</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>903</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="10"/>
-        <v>725</v>
       </c>
       <c r="T79">
         <f t="shared" si="11"/>
-        <v>19.712070874861574</v>
+        <v>725</v>
       </c>
       <c r="U79">
         <f t="shared" si="12"/>
-        <v>1.8826135105204873</v>
+        <v>19.712070874861574</v>
       </c>
       <c r="V79">
         <f t="shared" si="13"/>
+        <v>1.8826135105204873</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="14"/>
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43987</v>
       </c>
       <c r="B80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3030</v>
       </c>
       <c r="C80">
         <v>30</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E80">
         <v>47935</v>
       </c>
       <c r="F80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1347</v>
       </c>
       <c r="G80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>887.33333333333337</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8913024813256629</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3030</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3210597684364238</v>
       </c>
       <c r="K80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2271714922048997</v>
       </c>
       <c r="L80">
@@ -6145,80 +6460,84 @@
         <v>230</v>
       </c>
       <c r="N80">
-        <f t="shared" si="7"/>
-        <v>7.5907590759075907</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O80">
         <f t="shared" si="8"/>
+        <v>7.5907590759075907</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>16</v>
       </c>
-      <c r="Q80">
-        <f t="shared" si="9"/>
+      <c r="R80">
+        <f t="shared" si="10"/>
         <v>9.5238095238095237</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>902</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="10"/>
-        <v>734</v>
       </c>
       <c r="T80">
         <f t="shared" si="11"/>
-        <v>18.625277161862527</v>
+        <v>734</v>
       </c>
       <c r="U80">
         <f t="shared" si="12"/>
-        <v>1.7738359201773837</v>
+        <v>18.625277161862527</v>
       </c>
       <c r="V80">
         <f t="shared" si="13"/>
+        <v>1.7738359201773837</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="14"/>
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43988</v>
       </c>
       <c r="B81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3062</v>
       </c>
       <c r="C81">
         <v>32</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.056105610561056</v>
       </c>
       <c r="E81">
         <v>50621</v>
       </c>
       <c r="F81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2686</v>
       </c>
       <c r="G81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1697.3333333333333</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6034212996766453</v>
       </c>
       <c r="I81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3062</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0488729973726318</v>
       </c>
       <c r="K81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1913626209977661</v>
       </c>
       <c r="L81">
@@ -6228,80 +6547,84 @@
         <v>235</v>
       </c>
       <c r="N81">
-        <f t="shared" si="7"/>
-        <v>7.6747224036577393</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="O81">
         <f t="shared" si="8"/>
+        <v>7.6747224036577393</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="9"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>16</v>
       </c>
-      <c r="Q81">
-        <f t="shared" si="9"/>
+      <c r="R81">
+        <f t="shared" si="10"/>
         <v>9.7560975609756095</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>851</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="10"/>
-        <v>687</v>
       </c>
       <c r="T81">
         <f t="shared" si="11"/>
-        <v>19.271445358401881</v>
+        <v>687</v>
       </c>
       <c r="U81">
         <f t="shared" si="12"/>
-        <v>1.8801410105757932</v>
+        <v>19.271445358401881</v>
       </c>
       <c r="V81">
         <f t="shared" si="13"/>
+        <v>1.8801410105757932</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="14"/>
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43989</v>
       </c>
       <c r="B82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3086</v>
       </c>
       <c r="C82">
         <v>24</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78380143696930116</v>
       </c>
       <c r="E82">
         <v>51455</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="16">E82-E81</f>
+        <f t="shared" ref="F82" si="18">E82-E81</f>
         <v>834</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="17">AVERAGE(F80:F82)</f>
+        <f t="shared" ref="G82" si="19">AVERAGE(F80:F82)</f>
         <v>1622.3333333333333</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="18">((E82-E81)/E81)*100</f>
+        <f t="shared" ref="H82" si="20">((E82-E81)/E81)*100</f>
         <v>1.6475375832164518</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82:I99" si="19">B82</f>
+        <f t="shared" ref="I82:I99" si="21">B82</f>
         <v>3086</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J94" si="20">(I82/E82)*100</f>
+        <f t="shared" ref="J82:J94" si="22">(I82/E82)*100</f>
         <v>5.9974735205519387</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="21">(C82/F82)*100</f>
+        <f t="shared" ref="K82" si="23">(C82/F82)*100</f>
         <v>2.877697841726619</v>
       </c>
       <c r="L82">
@@ -6311,60 +6634,64 @@
         <v>236</v>
       </c>
       <c r="N82">
-        <f t="shared" si="7"/>
-        <v>7.6474400518470516</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O82">
         <f t="shared" si="8"/>
+        <v>7.6474400518470516</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="9"/>
         <v>0.42553191489361702</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>17</v>
       </c>
-      <c r="Q82">
-        <f t="shared" si="9"/>
+      <c r="R82">
+        <f t="shared" si="10"/>
         <v>10.179640718562874</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>870</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="10"/>
-        <v>703</v>
       </c>
       <c r="T82">
         <f t="shared" si="11"/>
-        <v>19.195402298850574</v>
+        <v>703</v>
       </c>
       <c r="U82">
         <f t="shared" si="12"/>
-        <v>1.9540229885057472</v>
+        <v>19.195402298850574</v>
       </c>
       <c r="V82">
         <f t="shared" si="13"/>
+        <v>1.9540229885057472</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43990</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:B100" si="22">B82+C83</f>
+        <f t="shared" ref="B83:B100" si="24">B82+C83</f>
         <v>3104</v>
       </c>
       <c r="C83">
         <v>18</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58327932598833443</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
       </c>
       <c r="I83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3104</v>
       </c>
       <c r="L83">
@@ -6374,60 +6701,64 @@
         <v>239</v>
       </c>
       <c r="N83">
-        <f t="shared" si="7"/>
-        <v>7.6997422680412377</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="O83">
         <f t="shared" si="8"/>
+        <v>7.6997422680412377</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="9"/>
         <v>1.2711864406779663</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>17</v>
       </c>
-      <c r="Q83">
-        <f t="shared" si="9"/>
+      <c r="R83">
+        <f t="shared" si="10"/>
         <v>10.059171597633137</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>866</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="10"/>
-        <v>697</v>
       </c>
       <c r="T83">
         <f t="shared" si="11"/>
-        <v>19.515011547344109</v>
+        <v>697</v>
       </c>
       <c r="U83">
         <f t="shared" si="12"/>
-        <v>1.9630484988452657</v>
+        <v>19.515011547344109</v>
       </c>
       <c r="V83">
         <f t="shared" si="13"/>
+        <v>1.9630484988452657</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="14"/>
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43991</v>
       </c>
       <c r="B84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3127</v>
       </c>
       <c r="C84">
         <v>23</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74097938144329889</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
       </c>
       <c r="I84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3127</v>
       </c>
       <c r="L84">
@@ -6437,60 +6768,64 @@
         <v>239</v>
       </c>
       <c r="N84">
-        <f t="shared" si="7"/>
-        <v>7.6431084106172058</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O84">
         <f t="shared" si="8"/>
+        <v>7.6431084106172058</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>17</v>
       </c>
-      <c r="Q84">
-        <f t="shared" si="9"/>
+      <c r="R84">
+        <f t="shared" si="10"/>
         <v>10.059171597633137</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>866</v>
       </c>
-      <c r="S84">
-        <f t="shared" ref="S84:S95" si="23">R84-L84</f>
+      <c r="T84">
+        <f t="shared" ref="T84:T95" si="25">S84-L84</f>
         <v>697</v>
       </c>
-      <c r="T84">
-        <f t="shared" ref="T84:T95" si="24">(L84/R84)*100</f>
+      <c r="U84">
+        <f t="shared" ref="U84:U95" si="26">(L84/S84)*100</f>
         <v>19.515011547344109</v>
       </c>
-      <c r="U84">
-        <f t="shared" ref="U84:U95" si="25">(P84/R84)*100</f>
+      <c r="V84">
+        <f t="shared" ref="V84:V95" si="27">(Q84/S84)*100</f>
         <v>1.9630484988452657</v>
       </c>
-      <c r="V84">
-        <f t="shared" ref="V84:V95" si="26">L84-P84</f>
+      <c r="W84">
+        <f t="shared" ref="W84:W95" si="28">L84-Q84</f>
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43992</v>
       </c>
       <c r="B85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3148</v>
       </c>
       <c r="C85">
         <v>21</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67157019507515192</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
       </c>
       <c r="I85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3148</v>
       </c>
       <c r="L85">
@@ -6500,64 +6835,68 @@
         <v>247</v>
       </c>
       <c r="N85">
-        <f t="shared" si="7"/>
-        <v>7.8462515883100377</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="O85">
         <f t="shared" si="8"/>
+        <v>7.8462515883100377</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="9"/>
         <v>3.3472803347280333</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>16</v>
       </c>
-      <c r="Q85">
-        <f t="shared" si="9"/>
+      <c r="R85">
+        <f t="shared" si="10"/>
         <v>10.38961038961039</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>844</v>
       </c>
-      <c r="S85">
-        <f t="shared" si="23"/>
+      <c r="T85">
+        <f t="shared" si="25"/>
         <v>690</v>
       </c>
-      <c r="T85">
-        <f t="shared" si="24"/>
+      <c r="U85">
+        <f t="shared" si="26"/>
         <v>18.246445497630333</v>
       </c>
-      <c r="U85">
-        <f t="shared" si="25"/>
+      <c r="V85">
+        <f t="shared" si="27"/>
         <v>1.8957345971563981</v>
       </c>
-      <c r="V85">
-        <f t="shared" si="26"/>
+      <c r="W85">
+        <f t="shared" si="28"/>
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43993</v>
       </c>
       <c r="B86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3170</v>
       </c>
       <c r="C86">
         <v>22</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69885641677255406</v>
       </c>
       <c r="E86">
         <v>55697</v>
       </c>
       <c r="I86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3170</v>
       </c>
       <c r="J86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.6915094170242559</v>
       </c>
       <c r="L86">
@@ -6567,76 +6906,80 @@
         <v>247</v>
       </c>
       <c r="N86">
-        <f t="shared" si="7"/>
-        <v>7.7917981072555209</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O86">
         <f t="shared" si="8"/>
+        <v>7.7917981072555209</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>16</v>
       </c>
-      <c r="Q86">
-        <f t="shared" si="9"/>
+      <c r="R86">
+        <f t="shared" si="10"/>
         <v>10.596026490066226</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>848</v>
       </c>
-      <c r="S86">
-        <f t="shared" si="23"/>
+      <c r="T86">
+        <f t="shared" si="25"/>
         <v>697</v>
       </c>
-      <c r="T86">
-        <f t="shared" si="24"/>
+      <c r="U86">
+        <f t="shared" si="26"/>
         <v>17.806603773584907</v>
       </c>
-      <c r="U86">
-        <f t="shared" si="25"/>
+      <c r="V86">
+        <f t="shared" si="27"/>
         <v>1.8867924528301887</v>
       </c>
-      <c r="V86">
-        <f t="shared" si="26"/>
+      <c r="W86">
+        <f t="shared" si="28"/>
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43994</v>
       </c>
       <c r="B87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3194</v>
       </c>
       <c r="C87">
         <v>24</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75709779179810721</v>
       </c>
       <c r="E87">
         <v>56320</v>
       </c>
       <c r="F87">
-        <f t="shared" ref="F87:F101" si="27">E87-E86</f>
+        <f t="shared" ref="F87:F101" si="29">E87-E86</f>
         <v>623</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87:H103" si="28">((E87-E86)/E86)*100</f>
+        <f t="shared" ref="H87:H103" si="30">((E87-E86)/E86)*100</f>
         <v>1.1185521661848932</v>
       </c>
       <c r="I87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3194</v>
       </c>
       <c r="J87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.6711647727272725</v>
       </c>
       <c r="K87">
-        <f t="shared" ref="K87:K99" si="29">(C87/F87)*100</f>
+        <f t="shared" ref="K87:K99" si="31">(C87/F87)*100</f>
         <v>3.8523274478330656</v>
       </c>
       <c r="L87">
@@ -6646,76 +6989,80 @@
         <v>247</v>
       </c>
       <c r="N87">
-        <f t="shared" si="7"/>
-        <v>7.7332498434564814</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O87">
         <f t="shared" si="8"/>
+        <v>7.7332498434564814</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>17</v>
       </c>
-      <c r="Q87">
-        <f t="shared" si="9"/>
+      <c r="R87">
+        <f t="shared" si="10"/>
         <v>11.564625850340136</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>861</v>
       </c>
-      <c r="S87">
-        <f t="shared" si="23"/>
+      <c r="T87">
+        <f t="shared" si="25"/>
         <v>714</v>
       </c>
-      <c r="T87">
-        <f t="shared" si="24"/>
+      <c r="U87">
+        <f t="shared" si="26"/>
         <v>17.073170731707318</v>
       </c>
-      <c r="U87">
-        <f t="shared" si="25"/>
+      <c r="V87">
+        <f t="shared" si="27"/>
         <v>1.9744483159117305</v>
       </c>
-      <c r="V87">
-        <f t="shared" si="26"/>
+      <c r="W87">
+        <f t="shared" si="28"/>
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43995</v>
       </c>
       <c r="B88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3205</v>
       </c>
       <c r="C88">
         <v>11</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34439574201628054</v>
       </c>
       <c r="E88">
         <v>57328</v>
       </c>
       <c r="F88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1008</v>
       </c>
       <c r="H88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.7897727272727273</v>
       </c>
       <c r="I88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3205</v>
       </c>
       <c r="J88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.5906363382640247</v>
       </c>
       <c r="K88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0912698412698412</v>
       </c>
       <c r="L88">
@@ -6725,80 +7072,84 @@
         <v>248</v>
       </c>
       <c r="N88">
-        <f t="shared" si="7"/>
-        <v>7.7379095163806548</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O88">
         <f t="shared" si="8"/>
+        <v>7.7379095163806548</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="9"/>
         <v>0.40485829959514169</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>18</v>
       </c>
-      <c r="Q88">
-        <f t="shared" si="9"/>
+      <c r="R88">
+        <f t="shared" si="10"/>
         <v>12.76595744680851</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>860</v>
       </c>
-      <c r="S88">
-        <f t="shared" si="23"/>
+      <c r="T88">
+        <f t="shared" si="25"/>
         <v>719</v>
       </c>
-      <c r="T88">
-        <f t="shared" si="24"/>
+      <c r="U88">
+        <f t="shared" si="26"/>
         <v>16.395348837209305</v>
       </c>
-      <c r="U88">
-        <f t="shared" si="25"/>
+      <c r="V88">
+        <f t="shared" si="27"/>
         <v>2.0930232558139537</v>
       </c>
-      <c r="V88">
-        <f t="shared" si="26"/>
+      <c r="W88">
+        <f t="shared" si="28"/>
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43996</v>
       </c>
       <c r="B89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3232</v>
       </c>
       <c r="C89">
         <v>27</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84243369734789386</v>
       </c>
       <c r="E89">
         <v>59130</v>
       </c>
       <c r="F89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1802</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89:G104" si="30">AVERAGE(F87:F89)</f>
+        <f t="shared" ref="G89:G104" si="32">AVERAGE(F87:F89)</f>
         <v>1144.3333333333333</v>
       </c>
       <c r="H89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1433156572704437</v>
       </c>
       <c r="I89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3232</v>
       </c>
       <c r="J89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.465922543548114</v>
       </c>
       <c r="K89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.4983351831298557</v>
       </c>
       <c r="L89">
@@ -6808,80 +7159,84 @@
         <v>250</v>
       </c>
       <c r="N89">
-        <f t="shared" si="7"/>
-        <v>7.7351485148514847</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O89">
         <f t="shared" si="8"/>
+        <v>7.7351485148514847</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="9"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>17</v>
       </c>
-      <c r="Q89">
-        <f t="shared" si="9"/>
+      <c r="R89">
+        <f t="shared" si="10"/>
         <v>11.805555555555555</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>847</v>
       </c>
-      <c r="S89">
-        <f t="shared" si="23"/>
+      <c r="T89">
+        <f t="shared" si="25"/>
         <v>703</v>
       </c>
-      <c r="T89">
-        <f t="shared" si="24"/>
+      <c r="U89">
+        <f t="shared" si="26"/>
         <v>17.001180637544273</v>
       </c>
-      <c r="U89">
-        <f t="shared" si="25"/>
+      <c r="V89">
+        <f t="shared" si="27"/>
         <v>2.0070838252656436</v>
       </c>
-      <c r="V89">
-        <f t="shared" si="26"/>
+      <c r="W89">
+        <f t="shared" si="28"/>
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43997</v>
       </c>
       <c r="B90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3240</v>
       </c>
       <c r="C90">
         <v>8</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24752475247524752</v>
       </c>
       <c r="E90">
         <v>59388</v>
       </c>
       <c r="F90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>258</v>
       </c>
       <c r="G90">
+        <f t="shared" si="32"/>
+        <v>1022.6666666666666</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="30"/>
-        <v>1022.6666666666666</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="28"/>
         <v>0.43632673769660069</v>
       </c>
       <c r="I90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3240</v>
       </c>
       <c r="J90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.4556476055768837</v>
       </c>
       <c r="K90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.1007751937984498</v>
       </c>
       <c r="L90">
@@ -6891,80 +7246,84 @@
         <v>250</v>
       </c>
       <c r="N90">
-        <f t="shared" si="7"/>
-        <v>7.716049382716049</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O90">
         <f t="shared" si="8"/>
+        <v>7.716049382716049</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>17</v>
       </c>
-      <c r="Q90">
-        <f t="shared" si="9"/>
+      <c r="R90">
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>818</v>
       </c>
-      <c r="S90">
-        <f t="shared" si="23"/>
+      <c r="T90">
+        <f t="shared" si="25"/>
         <v>682</v>
       </c>
-      <c r="T90">
-        <f t="shared" si="24"/>
+      <c r="U90">
+        <f t="shared" si="26"/>
         <v>16.625916870415647</v>
       </c>
-      <c r="U90">
-        <f t="shared" si="25"/>
+      <c r="V90">
+        <f t="shared" si="27"/>
         <v>2.0782396088019559</v>
       </c>
-      <c r="V90">
-        <f t="shared" si="26"/>
+      <c r="W90">
+        <f t="shared" si="28"/>
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43998</v>
       </c>
       <c r="B91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3256</v>
       </c>
       <c r="C91">
         <v>16</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49382716049382713</v>
       </c>
       <c r="E91">
         <v>60467</v>
       </c>
       <c r="F91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1079</v>
       </c>
       <c r="G91">
+        <f t="shared" si="32"/>
+        <v>1046.3333333333333</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="30"/>
-        <v>1046.3333333333333</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="28"/>
         <v>1.8168653600053881</v>
       </c>
       <c r="I91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3256</v>
       </c>
       <c r="J91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.3847553210842278</v>
       </c>
       <c r="K91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.4828544949026876</v>
       </c>
       <c r="L91">
@@ -6974,80 +7333,84 @@
         <v>252</v>
       </c>
       <c r="N91">
-        <f t="shared" si="7"/>
-        <v>7.73955773955774</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O91">
         <f t="shared" si="8"/>
+        <v>7.73955773955774</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>16</v>
       </c>
-      <c r="Q91">
-        <f t="shared" si="9"/>
+      <c r="R91">
+        <f t="shared" si="10"/>
         <v>12.213740458015266</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>802</v>
       </c>
-      <c r="S91">
-        <f t="shared" si="23"/>
+      <c r="T91">
+        <f t="shared" si="25"/>
         <v>671</v>
       </c>
-      <c r="T91">
-        <f t="shared" si="24"/>
+      <c r="U91">
+        <f t="shared" si="26"/>
         <v>16.334164588528679</v>
       </c>
-      <c r="U91">
-        <f t="shared" si="25"/>
+      <c r="V91">
+        <f t="shared" si="27"/>
         <v>1.99501246882793</v>
       </c>
-      <c r="V91">
-        <f t="shared" si="26"/>
+      <c r="W91">
+        <f t="shared" si="28"/>
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43999</v>
       </c>
       <c r="B92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3275</v>
       </c>
       <c r="C92">
         <v>19</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58353808353808345</v>
       </c>
       <c r="E92">
         <v>61330</v>
       </c>
       <c r="F92">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>863</v>
       </c>
       <c r="G92">
+        <f t="shared" si="32"/>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="30"/>
-        <v>733.33333333333337</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="28"/>
         <v>1.4272247672284057</v>
       </c>
       <c r="I92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3275</v>
       </c>
       <c r="J92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.3399641284852439</v>
       </c>
       <c r="K92">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.2016222479721899</v>
       </c>
       <c r="L92">
@@ -7057,80 +7420,84 @@
         <v>254</v>
       </c>
       <c r="N92">
-        <f t="shared" si="7"/>
-        <v>7.7557251908396951</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O92">
         <f t="shared" si="8"/>
+        <v>7.7557251908396951</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="9"/>
         <v>0.79365079365079361</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>15</v>
       </c>
-      <c r="Q92">
-        <f t="shared" si="9"/>
+      <c r="R92">
+        <f t="shared" si="10"/>
         <v>12.195121951219512</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>543</v>
       </c>
-      <c r="S92">
-        <f t="shared" si="23"/>
+      <c r="T92">
+        <f t="shared" si="25"/>
         <v>420</v>
       </c>
-      <c r="T92">
-        <f t="shared" si="24"/>
+      <c r="U92">
+        <f t="shared" si="26"/>
         <v>22.651933701657459</v>
       </c>
-      <c r="U92">
-        <f t="shared" si="25"/>
+      <c r="V92">
+        <f t="shared" si="27"/>
         <v>2.7624309392265194</v>
       </c>
-      <c r="V92">
-        <f t="shared" si="26"/>
+      <c r="W92">
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44000</v>
       </c>
       <c r="B93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3296</v>
       </c>
       <c r="C93">
         <v>21</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64122137404580148</v>
       </c>
       <c r="E93">
         <v>61861</v>
       </c>
       <c r="F93">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>531</v>
       </c>
       <c r="G93">
+        <f t="shared" si="32"/>
+        <v>824.33333333333337</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="30"/>
-        <v>824.33333333333337</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="28"/>
         <v>0.86580792434371423</v>
       </c>
       <c r="I93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3296</v>
       </c>
       <c r="J93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.3280742309371005</v>
       </c>
       <c r="K93">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.9548022598870061</v>
       </c>
       <c r="L93">
@@ -7140,80 +7507,84 @@
         <v>255</v>
       </c>
       <c r="N93">
-        <f t="shared" si="7"/>
-        <v>7.7366504854368925</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O93">
         <f t="shared" si="8"/>
+        <v>7.7366504854368925</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="9"/>
         <v>0.39370078740157477</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>14</v>
       </c>
-      <c r="Q93">
-        <f t="shared" si="9"/>
+      <c r="R93">
+        <f t="shared" si="10"/>
         <v>11.965811965811966</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>450</v>
       </c>
-      <c r="S93">
-        <f t="shared" si="23"/>
+      <c r="T93">
+        <f t="shared" si="25"/>
         <v>333</v>
       </c>
-      <c r="T93">
-        <f t="shared" si="24"/>
+      <c r="U93">
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="U93">
-        <f t="shared" si="25"/>
+      <c r="V93">
+        <f t="shared" si="27"/>
         <v>3.1111111111111112</v>
       </c>
-      <c r="V93">
-        <f t="shared" si="26"/>
+      <c r="W93">
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44001</v>
       </c>
       <c r="B94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3316</v>
       </c>
       <c r="C94">
         <v>20</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60679611650485432</v>
       </c>
       <c r="E94">
         <v>62205</v>
       </c>
       <c r="F94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>344</v>
       </c>
       <c r="G94">
+        <f t="shared" si="32"/>
+        <v>579.33333333333337</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="30"/>
-        <v>579.33333333333337</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="28"/>
         <v>0.55608541730654215</v>
       </c>
       <c r="I94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3316</v>
       </c>
       <c r="J94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.3307611928301588</v>
       </c>
       <c r="K94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.8139534883720927</v>
       </c>
       <c r="L94">
@@ -7223,80 +7594,84 @@
         <v>257</v>
       </c>
       <c r="N94">
-        <f t="shared" si="7"/>
-        <v>7.7503015681544021</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O94">
         <f t="shared" si="8"/>
+        <v>7.7503015681544021</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="9"/>
         <v>0.78431372549019607</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>13</v>
       </c>
-      <c r="Q94">
-        <f t="shared" si="9"/>
+      <c r="R94">
+        <f t="shared" si="10"/>
         <v>11.711711711711711</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>447</v>
       </c>
-      <c r="S94">
-        <f t="shared" si="23"/>
+      <c r="T94">
+        <f t="shared" si="25"/>
         <v>336</v>
       </c>
-      <c r="T94">
-        <f t="shared" si="24"/>
+      <c r="U94">
+        <f t="shared" si="26"/>
         <v>24.832214765100673</v>
       </c>
-      <c r="U94">
-        <f t="shared" si="25"/>
+      <c r="V94">
+        <f t="shared" si="27"/>
         <v>2.9082774049217002</v>
       </c>
-      <c r="V94">
-        <f t="shared" si="26"/>
+      <c r="W94">
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44002</v>
       </c>
       <c r="B95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3332</v>
       </c>
       <c r="C95">
         <v>16</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48250904704463204</v>
       </c>
       <c r="E95">
         <v>63312</v>
       </c>
       <c r="F95">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1107</v>
       </c>
       <c r="G95">
+        <f t="shared" si="32"/>
+        <v>660.66666666666663</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="30"/>
-        <v>660.66666666666663</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="28"/>
         <v>1.7795997106341932</v>
       </c>
       <c r="I95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3332</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95" si="31">(I95/E95)*100</f>
+        <f t="shared" ref="J95" si="33">(I95/E95)*100</f>
         <v>5.2628253727571392</v>
       </c>
       <c r="K95">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.4453477868112015</v>
       </c>
       <c r="L95">
@@ -7306,126 +7681,130 @@
         <v>259</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
-        <v>7.7731092436974789</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="O95">
         <f t="shared" si="8"/>
+        <v>7.7731092436974789</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="9"/>
         <v>0.77821011673151752</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>11</v>
       </c>
-      <c r="Q95">
-        <f t="shared" si="9"/>
+      <c r="R95">
+        <f t="shared" si="10"/>
         <v>10.185185185185185</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>435</v>
       </c>
-      <c r="S95">
-        <f t="shared" si="23"/>
+      <c r="T95">
+        <f t="shared" si="25"/>
         <v>327</v>
       </c>
-      <c r="T95">
-        <f t="shared" si="24"/>
+      <c r="U95">
+        <f t="shared" si="26"/>
         <v>24.827586206896552</v>
       </c>
-      <c r="U95">
-        <f t="shared" si="25"/>
+      <c r="V95">
+        <f t="shared" si="27"/>
         <v>2.5287356321839081</v>
       </c>
-      <c r="V95">
-        <f t="shared" si="26"/>
+      <c r="W95">
+        <f t="shared" si="28"/>
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44003</v>
       </c>
       <c r="B96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3350</v>
       </c>
       <c r="C96">
         <v>18</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54021608643457386</v>
       </c>
       <c r="E96">
         <v>64363</v>
       </c>
       <c r="F96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1051</v>
       </c>
       <c r="G96">
+        <f t="shared" si="32"/>
+        <v>834</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="30"/>
-        <v>834</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="28"/>
         <v>1.6600328531715947</v>
       </c>
       <c r="I96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3350</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96:J99" si="32">(I96/E96)*100</f>
+        <f t="shared" ref="J96:J99" si="34">(I96/E96)*100</f>
         <v>5.2048537203051444</v>
       </c>
       <c r="K96">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.7126546146527115</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44004</v>
       </c>
       <c r="B97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3356</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17910447761194029</v>
       </c>
       <c r="E97">
         <v>65186</v>
       </c>
       <c r="F97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>823</v>
       </c>
       <c r="G97">
+        <f t="shared" si="32"/>
+        <v>993.66666666666663</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="30"/>
-        <v>993.66666666666663</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="28"/>
         <v>1.2786849587495921</v>
       </c>
       <c r="I97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3356</v>
       </c>
       <c r="J97">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.148344736599884</v>
       </c>
       <c r="K97">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.72904009720534624</v>
       </c>
       <c r="L97">
@@ -7435,76 +7814,80 @@
         <v>261</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
+        <f>M97-M95</f>
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="8"/>
         <v>7.7771156138259832</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>12</v>
       </c>
-      <c r="Q97">
-        <f t="shared" si="9"/>
+      <c r="R97">
+        <f t="shared" si="10"/>
         <v>11.320754716981133</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>415</v>
       </c>
-      <c r="S97">
-        <f t="shared" ref="S97:S110" si="33">R97-L97</f>
+      <c r="T97">
+        <f t="shared" ref="T97:T111" si="35">S97-L97</f>
         <v>309</v>
       </c>
-      <c r="T97">
-        <f t="shared" ref="T97:T110" si="34">(L97/R97)*100</f>
+      <c r="U97">
+        <f t="shared" ref="U97:U111" si="36">(L97/S97)*100</f>
         <v>25.542168674698797</v>
       </c>
-      <c r="U97">
-        <f t="shared" ref="U97:U110" si="35">(P97/R97)*100</f>
+      <c r="V97">
+        <f t="shared" ref="V97:V111" si="37">(Q97/S97)*100</f>
         <v>2.8915662650602409</v>
       </c>
-      <c r="V97">
-        <f t="shared" ref="V97:V111" si="36">L97-P97</f>
+      <c r="W97">
+        <f t="shared" ref="W97:W111" si="38">L97-Q97</f>
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44005</v>
       </c>
       <c r="B98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3386</v>
       </c>
       <c r="C98">
         <v>30</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89392133492252679</v>
       </c>
       <c r="E98">
         <v>66197</v>
       </c>
       <c r="F98">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1011</v>
       </c>
       <c r="G98">
+        <f t="shared" si="32"/>
+        <v>961.66666666666663</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="30"/>
-        <v>961.66666666666663</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="28"/>
         <v>1.5509465222593808</v>
       </c>
       <c r="I98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3386</v>
       </c>
       <c r="J98">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.1150354245660683</v>
       </c>
       <c r="K98">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.9673590504451042</v>
       </c>
       <c r="L98">
@@ -7514,80 +7897,84 @@
         <v>264</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
-        <v>7.7968103957471948</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="O98">
         <f t="shared" si="8"/>
+        <v>7.7968103957471948</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="9"/>
         <v>1.1494252873563218</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>11</v>
       </c>
-      <c r="Q98">
-        <f t="shared" si="9"/>
+      <c r="R98">
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>429</v>
       </c>
-      <c r="S98">
-        <f t="shared" si="33"/>
+      <c r="T98">
+        <f t="shared" si="35"/>
         <v>341</v>
       </c>
-      <c r="T98">
-        <f t="shared" si="34"/>
+      <c r="U98">
+        <f t="shared" si="36"/>
         <v>20.512820512820511</v>
       </c>
-      <c r="U98">
-        <f t="shared" si="35"/>
+      <c r="V98">
+        <f t="shared" si="37"/>
         <v>2.5641025641025639</v>
       </c>
-      <c r="V98">
-        <f t="shared" si="36"/>
+      <c r="W98">
+        <f t="shared" si="38"/>
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44006</v>
       </c>
       <c r="B99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3419</v>
       </c>
       <c r="C99">
         <v>33</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97460129946839935</v>
       </c>
       <c r="E99">
         <v>67172</v>
       </c>
       <c r="F99">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>975</v>
       </c>
       <c r="G99">
+        <f t="shared" si="32"/>
+        <v>936.33333333333337</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="30"/>
-        <v>936.33333333333337</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="28"/>
         <v>1.4728764143390183</v>
       </c>
       <c r="I99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3419</v>
       </c>
       <c r="J99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0899184183886144</v>
       </c>
       <c r="K99">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.3846153846153846</v>
       </c>
       <c r="L99">
@@ -7597,80 +7984,84 @@
         <v>265</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
-        <v>7.750804328751097</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O99">
         <f t="shared" si="8"/>
+        <v>7.750804328751097</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="9"/>
         <v>0.37878787878787878</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>10</v>
       </c>
-      <c r="Q99">
-        <f t="shared" si="9"/>
+      <c r="R99">
+        <f t="shared" si="10"/>
         <v>11.235955056179774</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>436</v>
       </c>
-      <c r="S99">
-        <f t="shared" si="33"/>
+      <c r="T99">
+        <f t="shared" si="35"/>
         <v>347</v>
       </c>
-      <c r="T99">
-        <f t="shared" si="34"/>
+      <c r="U99">
+        <f t="shared" si="36"/>
         <v>20.412844036697248</v>
       </c>
-      <c r="U99">
-        <f t="shared" si="35"/>
+      <c r="V99">
+        <f t="shared" si="37"/>
         <v>2.2935779816513762</v>
       </c>
-      <c r="V99">
-        <f t="shared" si="36"/>
+      <c r="W99">
+        <f t="shared" si="38"/>
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44007</v>
       </c>
       <c r="B100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3457</v>
       </c>
       <c r="C100">
         <v>38</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1114360924246856</v>
       </c>
       <c r="E100">
         <v>67914</v>
       </c>
       <c r="F100">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>742</v>
       </c>
       <c r="G100">
+        <f t="shared" si="32"/>
+        <v>909.33333333333337</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="30"/>
-        <v>909.33333333333337</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="28"/>
         <v>1.1046269278866194</v>
       </c>
       <c r="I100">
-        <f t="shared" ref="I100:I103" si="37">B100</f>
+        <f t="shared" ref="I100:I103" si="39">B100</f>
         <v>3457</v>
       </c>
       <c r="J100">
-        <f t="shared" ref="J100:J102" si="38">(I100/E100)*100</f>
+        <f t="shared" ref="J100:J102" si="40">(I100/E100)*100</f>
         <v>5.0902612127101925</v>
       </c>
       <c r="K100">
-        <f t="shared" ref="K100:K102" si="39">(C100/F100)*100</f>
+        <f t="shared" ref="K100:K102" si="41">(C100/F100)*100</f>
         <v>5.1212938005390836</v>
       </c>
       <c r="L100">
@@ -7680,80 +8071,84 @@
         <v>266</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
-        <v>7.694532831935204</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O100">
         <f t="shared" si="8"/>
+        <v>7.694532831935204</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="9"/>
         <v>0.37735849056603776</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>10</v>
       </c>
-      <c r="Q100">
-        <f t="shared" si="9"/>
+      <c r="R100">
+        <f t="shared" si="10"/>
         <v>12.048192771084338</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>451</v>
       </c>
-      <c r="S100">
-        <f t="shared" si="33"/>
+      <c r="T100">
+        <f t="shared" si="35"/>
         <v>368</v>
       </c>
-      <c r="T100">
-        <f t="shared" si="34"/>
+      <c r="U100">
+        <f t="shared" si="36"/>
         <v>18.403547671840354</v>
       </c>
-      <c r="U100">
-        <f t="shared" si="35"/>
+      <c r="V100">
+        <f t="shared" si="37"/>
         <v>2.2172949002217295</v>
       </c>
-      <c r="V100">
-        <f t="shared" si="36"/>
+      <c r="W100">
+        <f t="shared" si="38"/>
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44008</v>
       </c>
       <c r="B101">
-        <f>B100+C101</f>
+        <f t="shared" ref="B101:B111" si="42">B100+C101</f>
         <v>3488</v>
       </c>
       <c r="C101">
         <v>31</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89673126988718543</v>
       </c>
       <c r="E101">
         <v>68535</v>
       </c>
       <c r="F101">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>621</v>
       </c>
       <c r="G101">
+        <f t="shared" si="32"/>
+        <v>779.33333333333337</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="30"/>
-        <v>779.33333333333337</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="28"/>
         <v>0.91439173071826141</v>
       </c>
       <c r="I101">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3488</v>
       </c>
       <c r="J101">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0893703946888449</v>
       </c>
       <c r="K101">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.9919484702093397</v>
       </c>
       <c r="L101">
@@ -7763,53 +8158,57 @@
         <v>269</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
-        <v>7.7121559633027523</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="O101">
         <f t="shared" si="8"/>
+        <v>7.7121559633027523</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="9"/>
         <v>1.1278195488721803</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <v>10</v>
       </c>
-      <c r="Q101">
-        <f t="shared" si="9"/>
+      <c r="R101">
+        <f t="shared" si="10"/>
         <v>12.195121951219512</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <v>453</v>
       </c>
-      <c r="S101">
-        <f t="shared" si="33"/>
+      <c r="T101">
+        <f t="shared" si="35"/>
         <v>371</v>
       </c>
-      <c r="T101">
-        <f t="shared" si="34"/>
+      <c r="U101">
+        <f t="shared" si="36"/>
         <v>18.101545253863137</v>
       </c>
-      <c r="U101">
-        <f t="shared" si="35"/>
+      <c r="V101">
+        <f t="shared" si="37"/>
         <v>2.2075055187637971</v>
       </c>
-      <c r="V101">
-        <f t="shared" si="36"/>
+      <c r="W101">
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44009</v>
       </c>
       <c r="B102">
-        <f>B101+C102</f>
+        <f t="shared" si="42"/>
         <v>3511</v>
       </c>
       <c r="C102">
         <v>23</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65940366972477071</v>
       </c>
       <c r="E102">
@@ -7820,23 +8219,23 @@
         <v>1136</v>
       </c>
       <c r="G102">
+        <f t="shared" si="32"/>
+        <v>833</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="30"/>
-        <v>833</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="28"/>
         <v>1.6575472386371928</v>
       </c>
       <c r="I102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3511</v>
       </c>
       <c r="J102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0393994631912848</v>
       </c>
       <c r="K102">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.024647887323944</v>
       </c>
       <c r="L102">
@@ -7846,53 +8245,57 @@
         <v>269</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
-        <v>7.6616348618627175</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O102">
         <f t="shared" si="8"/>
+        <v>7.6616348618627175</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <v>10</v>
       </c>
-      <c r="Q102">
-        <f t="shared" si="9"/>
+      <c r="R102">
+        <f t="shared" si="10"/>
         <v>13.157894736842104</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <v>454</v>
       </c>
-      <c r="S102">
-        <f t="shared" si="33"/>
+      <c r="T102">
+        <f t="shared" si="35"/>
         <v>378</v>
       </c>
-      <c r="T102">
-        <f t="shared" si="34"/>
+      <c r="U102">
+        <f t="shared" si="36"/>
         <v>16.740088105726873</v>
       </c>
-      <c r="U102">
-        <f t="shared" si="35"/>
+      <c r="V102">
+        <f t="shared" si="37"/>
         <v>2.2026431718061676</v>
       </c>
-      <c r="V102">
-        <f t="shared" si="36"/>
+      <c r="W102">
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44010</v>
       </c>
       <c r="B103">
-        <f>B102+C103</f>
+        <f t="shared" si="42"/>
         <v>3534</v>
       </c>
       <c r="C103">
         <v>23</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65508402164625468</v>
       </c>
       <c r="E103">
@@ -7903,23 +8306,23 @@
         <v>1051</v>
       </c>
       <c r="G103">
+        <f t="shared" si="32"/>
+        <v>936</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="30"/>
-        <v>936</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="28"/>
         <v>1.5085186088903559</v>
       </c>
       <c r="I103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3534</v>
       </c>
       <c r="J103">
-        <f t="shared" ref="J103" si="40">(I103/E103)*100</f>
+        <f t="shared" ref="J103" si="43">(I103/E103)*100</f>
         <v>4.9970306269619069</v>
       </c>
       <c r="K103">
-        <f t="shared" ref="K103" si="41">(C103/F103)*100</f>
+        <f t="shared" ref="K103" si="44">(C103/F103)*100</f>
         <v>2.1883920076117986</v>
       </c>
       <c r="L103">
@@ -7929,53 +8332,57 @@
         <v>269</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
-        <v>7.6117713638936042</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O103">
         <f t="shared" si="8"/>
+        <v>7.6117713638936042</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <v>10</v>
       </c>
-      <c r="Q103">
-        <f t="shared" si="9"/>
+      <c r="R103">
+        <f t="shared" si="10"/>
         <v>13.157894736842104</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <v>460</v>
       </c>
-      <c r="S103">
-        <f t="shared" si="33"/>
+      <c r="T103">
+        <f t="shared" si="35"/>
         <v>384</v>
       </c>
-      <c r="T103">
-        <f t="shared" si="34"/>
+      <c r="U103">
+        <f t="shared" si="36"/>
         <v>16.521739130434781</v>
       </c>
-      <c r="U103">
-        <f t="shared" si="35"/>
+      <c r="V103">
+        <f t="shared" si="37"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="V103">
-        <f t="shared" si="36"/>
+      <c r="W103">
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44011</v>
       </c>
       <c r="B104">
-        <f>B103+C104</f>
+        <f t="shared" si="42"/>
         <v>3563</v>
       </c>
       <c r="C104">
         <v>29</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82059988681380869</v>
       </c>
       <c r="E104">
@@ -7986,23 +8393,23 @@
         <v>709</v>
       </c>
       <c r="G104">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>965.33333333333337</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104" si="42">((E104-E103)/E103)*100</f>
+        <f t="shared" ref="H104" si="45">((E104-E103)/E103)*100</f>
         <v>1.0025168971465739</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I111" si="43">B104</f>
+        <f t="shared" ref="I104:I115" si="46">B104</f>
         <v>3563</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:J106" si="44">(I104/E104)*100</f>
+        <f t="shared" ref="J104:J106" si="47">(I104/E104)*100</f>
         <v>4.9880304069661632</v>
       </c>
       <c r="K104">
-        <f t="shared" ref="K104:K106" si="45">(C104/F104)*100</f>
+        <f t="shared" ref="K104:K106" si="48">(C104/F104)*100</f>
         <v>4.090267983074753</v>
       </c>
       <c r="L104">
@@ -8012,53 +8419,57 @@
         <v>270</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
-        <v>7.5778838057816449</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O104">
         <f t="shared" si="8"/>
+        <v>7.5778838057816449</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="9"/>
         <v>0.37174721189591076</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <v>9</v>
       </c>
-      <c r="Q104">
-        <f t="shared" si="9"/>
+      <c r="R104">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <v>469</v>
       </c>
-      <c r="S104">
-        <f t="shared" si="33"/>
+      <c r="T104">
+        <f t="shared" si="35"/>
         <v>394</v>
       </c>
-      <c r="T104">
-        <f t="shared" si="34"/>
+      <c r="U104">
+        <f t="shared" si="36"/>
         <v>15.991471215351813</v>
       </c>
-      <c r="U104">
-        <f t="shared" si="35"/>
+      <c r="V104">
+        <f t="shared" si="37"/>
         <v>1.9189765458422177</v>
       </c>
-      <c r="V104">
-        <f t="shared" si="36"/>
+      <c r="W104">
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44012</v>
       </c>
       <c r="B105">
-        <f>B104+C105</f>
+        <f t="shared" si="42"/>
         <v>3596</v>
       </c>
       <c r="C105">
         <v>33</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92618579848442328</v>
       </c>
       <c r="E105">
@@ -8069,23 +8480,23 @@
         <v>1055</v>
       </c>
       <c r="G105">
-        <f t="shared" ref="G105" si="46">AVERAGE(F103:F105)</f>
+        <f t="shared" ref="G105" si="49">AVERAGE(F103:F105)</f>
         <v>938.33333333333337</v>
       </c>
       <c r="H105">
-        <f t="shared" ref="H105" si="47">((E105-E104)/E104)*100</f>
+        <f t="shared" ref="H105" si="50">((E105-E104)/E104)*100</f>
         <v>1.476949783707354</v>
       </c>
       <c r="I105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3596</v>
       </c>
       <c r="J105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.9609579780923214</v>
       </c>
       <c r="K105">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.1279620853080567</v>
       </c>
       <c r="L105">
@@ -8095,53 +8506,57 @@
         <v>271</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
-        <v>7.5361512791991103</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O105">
         <f t="shared" si="8"/>
+        <v>7.5361512791991103</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="9"/>
         <v>0.37037037037037041</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>9</v>
       </c>
-      <c r="Q105">
-        <f t="shared" si="9"/>
+      <c r="R105">
+        <f t="shared" si="10"/>
         <v>11.842105263157894</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <v>486</v>
       </c>
-      <c r="S105">
-        <f t="shared" si="33"/>
+      <c r="T105">
+        <f t="shared" si="35"/>
         <v>410</v>
       </c>
-      <c r="T105">
-        <f t="shared" si="34"/>
+      <c r="U105">
+        <f t="shared" si="36"/>
         <v>15.637860082304528</v>
       </c>
-      <c r="U105">
-        <f t="shared" si="35"/>
+      <c r="V105">
+        <f t="shared" si="37"/>
         <v>1.8518518518518516</v>
       </c>
-      <c r="V105">
-        <f t="shared" si="36"/>
+      <c r="W105">
+        <f t="shared" si="38"/>
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44013</v>
       </c>
       <c r="B106">
-        <f>B105+C106</f>
+        <f t="shared" si="42"/>
         <v>3628</v>
       </c>
       <c r="C106">
         <v>32</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88987764182424911</v>
       </c>
       <c r="E106">
@@ -8152,23 +8567,23 @@
         <v>1027</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G107" si="48">AVERAGE(F104:F106)</f>
+        <f t="shared" ref="G106:G107" si="51">AVERAGE(F104:F106)</f>
         <v>930.33333333333337</v>
       </c>
       <c r="H106">
-        <f t="shared" ref="H106:H107" si="49">((E106-E105)/E105)*100</f>
+        <f t="shared" ref="H106:H118" si="52">((E106-E105)/E105)*100</f>
         <v>1.4168253179924399</v>
       </c>
       <c r="I106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3628</v>
       </c>
       <c r="J106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.9351815325180581</v>
       </c>
       <c r="K106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.1158714703018502</v>
       </c>
       <c r="L106">
@@ -8178,53 +8593,57 @@
         <v>272</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
-        <v>7.4972436604189632</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O106">
         <f t="shared" si="8"/>
+        <v>7.4972436604189632</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="9"/>
         <v>0.36900369003690037</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <v>7</v>
       </c>
-      <c r="Q106">
-        <f t="shared" si="9"/>
+      <c r="R106">
+        <f t="shared" si="10"/>
         <v>9.8591549295774641</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <v>492</v>
       </c>
-      <c r="S106">
-        <f t="shared" si="33"/>
+      <c r="T106">
+        <f t="shared" si="35"/>
         <v>421</v>
       </c>
-      <c r="T106">
-        <f t="shared" si="34"/>
+      <c r="U106">
+        <f t="shared" si="36"/>
         <v>14.43089430894309</v>
       </c>
-      <c r="U106">
-        <f t="shared" si="35"/>
+      <c r="V106">
+        <f t="shared" si="37"/>
         <v>1.4227642276422763</v>
       </c>
-      <c r="V106">
-        <f t="shared" si="36"/>
+      <c r="W106">
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44014</v>
       </c>
       <c r="B107">
-        <f>B106+C107</f>
+        <f t="shared" si="42"/>
         <v>3668</v>
       </c>
       <c r="C107">
         <v>40</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1025358324145533</v>
       </c>
       <c r="E107">
@@ -8235,23 +8654,23 @@
         <v>1044</v>
       </c>
       <c r="G107">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1042</v>
       </c>
       <c r="H107">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1.4201569790377213</v>
       </c>
       <c r="I107">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3668</v>
       </c>
       <c r="J107">
-        <f t="shared" ref="J107:J111" si="50">(I107/E107)*100</f>
+        <f t="shared" ref="J107:J114" si="53">(I107/E107)*100</f>
         <v>4.9197258473382774</v>
       </c>
       <c r="K107">
-        <f t="shared" ref="K107" si="51">(C107/F107)*100</f>
+        <f t="shared" ref="K107:K114" si="54">(C107/F107)*100</f>
         <v>3.8314176245210727</v>
       </c>
       <c r="L107">
@@ -8261,57 +8680,61 @@
         <v>273</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
-        <v>7.4427480916030531</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O107">
         <f t="shared" si="8"/>
+        <v>7.4427480916030531</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="9"/>
         <v>0.36764705882352938</v>
       </c>
-      <c r="P107">
+      <c r="Q107">
         <v>8</v>
       </c>
-      <c r="Q107">
-        <f t="shared" si="9"/>
+      <c r="R107">
+        <f t="shared" si="10"/>
         <v>10.95890410958904</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <v>500</v>
       </c>
-      <c r="S107">
-        <f t="shared" si="33"/>
+      <c r="T107">
+        <f t="shared" si="35"/>
         <v>427</v>
       </c>
-      <c r="T107">
-        <f t="shared" si="34"/>
+      <c r="U107">
+        <f t="shared" si="36"/>
         <v>14.6</v>
       </c>
-      <c r="U107">
-        <f t="shared" si="35"/>
+      <c r="V107">
+        <f t="shared" si="37"/>
         <v>1.6</v>
       </c>
-      <c r="V107">
-        <f t="shared" si="36"/>
+      <c r="W107">
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44015</v>
       </c>
       <c r="B108">
-        <f>B107+C108</f>
+        <f t="shared" si="42"/>
         <v>3706</v>
       </c>
       <c r="C108">
         <v>38</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0359869138495092</v>
       </c>
       <c r="I108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3706</v>
       </c>
       <c r="L108">
@@ -8321,57 +8744,61 @@
         <v>273</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
-        <v>7.3664328116567726</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O108">
         <f t="shared" si="8"/>
+        <v>7.3664328116567726</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>8</v>
       </c>
-      <c r="Q108">
-        <f t="shared" si="9"/>
+      <c r="R108">
+        <f t="shared" si="10"/>
         <v>10.526315789473683</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <v>506</v>
       </c>
-      <c r="S108">
-        <f t="shared" si="33"/>
+      <c r="T108">
+        <f t="shared" si="35"/>
         <v>430</v>
       </c>
-      <c r="T108">
-        <f t="shared" si="34"/>
+      <c r="U108">
+        <f t="shared" si="36"/>
         <v>15.019762845849801</v>
       </c>
-      <c r="U108">
-        <f t="shared" si="35"/>
+      <c r="V108">
+        <f t="shared" si="37"/>
         <v>1.5810276679841897</v>
       </c>
-      <c r="V108">
-        <f t="shared" si="36"/>
+      <c r="W108">
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44016</v>
       </c>
       <c r="B109">
-        <f>B108+C109</f>
+        <f t="shared" si="42"/>
         <v>3738</v>
       </c>
       <c r="C109">
         <v>32</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86346465191581223</v>
       </c>
       <c r="I109">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3738</v>
       </c>
       <c r="L109">
@@ -8381,57 +8808,61 @@
         <v>273</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
-        <v>7.3033707865168536</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O109">
         <f t="shared" si="8"/>
+        <v>7.3033707865168536</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <v>8</v>
       </c>
-      <c r="Q109">
-        <f t="shared" si="9"/>
+      <c r="R109">
+        <f t="shared" si="10"/>
         <v>10.38961038961039</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <v>483</v>
       </c>
-      <c r="S109">
-        <f t="shared" si="33"/>
+      <c r="T109">
+        <f t="shared" si="35"/>
         <v>406</v>
       </c>
-      <c r="T109">
-        <f t="shared" si="34"/>
+      <c r="U109">
+        <f t="shared" si="36"/>
         <v>15.942028985507244</v>
       </c>
-      <c r="U109">
-        <f t="shared" si="35"/>
+      <c r="V109">
+        <f t="shared" si="37"/>
         <v>1.6563146997929608</v>
       </c>
-      <c r="V109">
-        <f t="shared" si="36"/>
+      <c r="W109">
+        <f t="shared" si="38"/>
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44017</v>
       </c>
       <c r="B110">
-        <f>B109+C110</f>
+        <f t="shared" si="42"/>
         <v>3766</v>
       </c>
       <c r="C110">
         <v>28</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74906367041198507</v>
       </c>
       <c r="I110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3766</v>
       </c>
       <c r="L110">
@@ -8441,67 +8872,74 @@
         <v>273</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
-        <v>7.2490706319702598</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O110">
         <f t="shared" si="8"/>
+        <v>7.2490706319702598</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P110">
+      <c r="Q110">
         <v>8</v>
       </c>
-      <c r="Q110">
-        <f t="shared" si="9"/>
+      <c r="R110">
+        <f t="shared" si="10"/>
         <v>10.810810810810811</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <v>456</v>
       </c>
-      <c r="S110">
-        <f t="shared" si="33"/>
+      <c r="T110">
+        <f t="shared" si="35"/>
         <v>382</v>
       </c>
-      <c r="T110">
-        <f t="shared" si="34"/>
+      <c r="U110">
+        <f t="shared" si="36"/>
         <v>16.228070175438596</v>
       </c>
-      <c r="U110">
-        <f t="shared" si="35"/>
+      <c r="V110">
+        <f t="shared" si="37"/>
         <v>1.7543859649122806</v>
       </c>
-      <c r="V110">
-        <f t="shared" si="36"/>
+      <c r="W110">
+        <f t="shared" si="38"/>
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44018</v>
       </c>
       <c r="B111">
-        <f>B110+C111</f>
+        <f t="shared" si="42"/>
         <v>3783</v>
       </c>
       <c r="C111">
         <v>17</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45140732873074879</v>
       </c>
       <c r="E111">
         <v>79441</v>
       </c>
+      <c r="F111">
+        <v>4884</v>
+      </c>
       <c r="G111">
         <v>1628</v>
       </c>
       <c r="I111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3783</v>
       </c>
       <c r="J111">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>4.762024647222467</v>
       </c>
       <c r="L111">
@@ -8511,23 +8949,703 @@
         <v>273</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
-        <v>7.216494845360824</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O111">
         <f t="shared" si="8"/>
+        <v>7.216494845360824</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>8</v>
       </c>
-      <c r="Q111">
-        <f t="shared" si="9"/>
+      <c r="R111">
+        <f t="shared" si="10"/>
         <v>10.810810810810811</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="S111">
+        <v>437</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="35"/>
+        <v>363</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="36"/>
+        <v>16.933638443935926</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="37"/>
+        <v>1.8306636155606408</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="38"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B112">
+        <f>B111+C112</f>
+        <v>3808</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>0.66085117631509382</v>
+      </c>
+      <c r="E112">
+        <v>80453</v>
+      </c>
+      <c r="F112">
+        <f>E112-E111</f>
+        <v>1012</v>
+      </c>
+      <c r="G112">
+        <v>1965</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="52"/>
+        <v>1.2739013859342154</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="46"/>
+        <v>3808</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="53"/>
+        <v>4.7331982648254254</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="54"/>
+        <v>2.4703557312252964</v>
+      </c>
+      <c r="L112">
+        <v>69</v>
+      </c>
+      <c r="M112">
+        <v>276</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="8"/>
+        <v>7.2478991596638664</v>
+      </c>
+      <c r="P112">
+        <f>((M112-M111)/M111)*100</f>
+        <v>1.098901098901099</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="10"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="S112">
+        <v>427</v>
+      </c>
+      <c r="T112">
+        <f>S112-L112</f>
+        <v>358</v>
+      </c>
+      <c r="U112">
+        <f>(L112/S112)*100</f>
+        <v>16.159250585480095</v>
+      </c>
+      <c r="V112">
+        <f t="shared" ref="V112:V119" si="55">(Q112/S112)*100</f>
+        <v>1.405152224824356</v>
+      </c>
+      <c r="W112">
+        <f>L112-Q112</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B113">
+        <f>B112+C113</f>
+        <v>3841</v>
+      </c>
+      <c r="C113">
+        <v>33</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>0.86659663865546221</v>
+      </c>
+      <c r="E113">
+        <v>81976</v>
+      </c>
+      <c r="F113">
+        <f>E113-E112</f>
+        <v>1523</v>
+      </c>
+      <c r="G113">
+        <v>2473</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="52"/>
+        <v>1.893030713584329</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="46"/>
+        <v>3841</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="53"/>
+        <v>4.6855177125012197</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="54"/>
+        <v>2.1667760998030205</v>
+      </c>
+      <c r="L113">
+        <v>65</v>
+      </c>
+      <c r="M113">
+        <v>277</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="8"/>
+        <v>7.2116636292632128</v>
+      </c>
+      <c r="P113">
+        <f>((M113-M112)/M112)*100</f>
+        <v>0.36231884057971014</v>
+      </c>
+      <c r="Q113">
+        <v>5</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="S113">
+        <v>433</v>
+      </c>
+      <c r="T113">
+        <f>S113-L113</f>
+        <v>368</v>
+      </c>
+      <c r="U113">
+        <f>(L113/S113)*100</f>
+        <v>15.011547344110854</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="55"/>
+        <v>1.1547344110854503</v>
+      </c>
+      <c r="W113">
+        <f>L113-Q113</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B114">
+        <f>B113+C114</f>
+        <v>3872</v>
+      </c>
+      <c r="C114">
+        <v>31</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>0.80708148919552203</v>
+      </c>
+      <c r="E114">
+        <v>83057</v>
+      </c>
+      <c r="F114">
+        <f>E114-E113</f>
+        <v>1081</v>
+      </c>
+      <c r="G114">
+        <f>AVERAGE(F112:F114)</f>
+        <v>1205.3333333333333</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="52"/>
+        <v>1.3186786376500439</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="46"/>
+        <v>3872</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="53"/>
+        <v>4.6618587235272164</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="54"/>
+        <v>2.8677150786308974</v>
+      </c>
+      <c r="L114">
+        <v>65</v>
+      </c>
+      <c r="M114">
+        <v>277</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="8"/>
+        <v>7.1539256198347108</v>
+      </c>
+      <c r="P114">
+        <f>((M114-M113)/M113)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="S114">
+        <v>427</v>
+      </c>
+      <c r="T114">
+        <f>S114-L114</f>
+        <v>362</v>
+      </c>
+      <c r="U114">
+        <f>(L114/S114)*100</f>
+        <v>15.22248243559719</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="55"/>
+        <v>1.1709601873536302</v>
+      </c>
+      <c r="W114">
+        <f>L114-Q114</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B115">
+        <f>B114+C115</f>
+        <v>3927</v>
+      </c>
+      <c r="C115">
+        <v>55</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>1.4204545454545454</v>
+      </c>
+      <c r="E115">
+        <v>84209</v>
+      </c>
+      <c r="F115">
+        <f>E115-E114</f>
+        <v>1152</v>
+      </c>
+      <c r="G115">
+        <f>AVERAGE(F113:F115)</f>
+        <v>1252</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="52"/>
+        <v>1.3869992896444612</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="46"/>
+        <v>3927</v>
+      </c>
+      <c r="J115">
+        <f t="shared" ref="J115" si="56">(I115/E115)*100</f>
+        <v>4.6633970240710614</v>
+      </c>
+      <c r="K115">
+        <f t="shared" ref="K115" si="57">(C115/F115)*100</f>
+        <v>4.7743055555555554</v>
+      </c>
+      <c r="L115">
+        <v>64</v>
+      </c>
+      <c r="M115">
+        <v>277</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="8"/>
+        <v>7.0537305831423485</v>
+      </c>
+      <c r="P115">
+        <f>((M115-M114)/M114)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="10"/>
+        <v>6.25</v>
+      </c>
+      <c r="S115">
+        <v>434</v>
+      </c>
+      <c r="T115">
+        <f>S115-L115</f>
+        <v>370</v>
+      </c>
+      <c r="U115">
+        <f>(L115/S115)*100</f>
+        <v>14.746543778801843</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="55"/>
+        <v>0.92165898617511521</v>
+      </c>
+      <c r="W115">
+        <f>L115-Q115</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B116">
+        <f>B115+C116</f>
+        <v>3958</v>
+      </c>
+      <c r="C116">
+        <v>31</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>0.78940667175961299</v>
+      </c>
+      <c r="E116">
+        <v>85649</v>
+      </c>
+      <c r="F116">
+        <f>E116-E115</f>
+        <v>1440</v>
+      </c>
+      <c r="G116">
+        <f>AVERAGE(F114:F116)</f>
+        <v>1224.3333333333333</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="52"/>
+        <v>1.710030994311772</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ref="I116:I119" si="58">B116</f>
+        <v>3958</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ref="J116:J119" si="59">(I116/E116)*100</f>
+        <v>4.6211864703615921</v>
+      </c>
+      <c r="K116">
+        <f t="shared" ref="K116:K119" si="60">(C116/F116)*100</f>
+        <v>2.1527777777777777</v>
+      </c>
+      <c r="L116">
+        <v>68</v>
+      </c>
+      <c r="M116">
+        <v>277</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="8"/>
+        <v>6.998484082870136</v>
+      </c>
+      <c r="P116">
+        <f>((M116-M115)/M115)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="10"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="S116">
+        <v>421</v>
+      </c>
+      <c r="T116">
+        <f>S116-L116</f>
+        <v>353</v>
+      </c>
+      <c r="U116">
+        <f>(L116/S116)*100</f>
+        <v>16.152019002375297</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="55"/>
+        <v>0.95011876484560576</v>
+      </c>
+      <c r="W116">
+        <f>L116-Q116</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B117">
+        <f>B116+C117</f>
+        <v>3986</v>
+      </c>
+      <c r="C117">
+        <v>28</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>0.70742799393633149</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="58"/>
+        <v>3986</v>
+      </c>
+      <c r="L117">
+        <v>66</v>
+      </c>
+      <c r="M117">
+        <v>277</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="8"/>
+        <v>6.9493226292022081</v>
+      </c>
+      <c r="P117">
+        <f>((M117-M116)/M116)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="10"/>
+        <v>7.5757575757575761</v>
+      </c>
+      <c r="S117">
+        <v>413</v>
+      </c>
+      <c r="T117">
+        <f>S117-L117</f>
+        <v>347</v>
+      </c>
+      <c r="U117">
+        <f>(L117/S117)*100</f>
+        <v>15.980629539951574</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="55"/>
+        <v>1.2106537530266344</v>
+      </c>
+      <c r="W117">
+        <f>L117-Q117</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B118">
+        <f>B117+C118</f>
+        <v>4006</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>0.50175614651279477</v>
+      </c>
+      <c r="E118">
+        <v>87700</v>
+      </c>
+      <c r="G118">
+        <v>1164</v>
+      </c>
+      <c r="H118">
+        <f>((E118-E116)/E116)*100</f>
+        <v>2.3946572639493748</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="58"/>
+        <v>4006</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="59"/>
+        <v>4.5678449258836942</v>
+      </c>
+      <c r="L118">
+        <v>61</v>
+      </c>
+      <c r="M118">
+        <v>277</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="8"/>
+        <v>6.9146280579131307</v>
+      </c>
+      <c r="P118">
+        <f>((M118-M117)/M117)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="10"/>
+        <v>6.557377049180328</v>
+      </c>
+      <c r="S118">
+        <v>406</v>
+      </c>
+      <c r="T118">
+        <f>S118-L118</f>
+        <v>345</v>
+      </c>
+      <c r="U118">
+        <f>(L118/S118)*100</f>
+        <v>15.024630541871922</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="55"/>
+        <v>0.98522167487684731</v>
+      </c>
+      <c r="W118">
+        <f>L118-Q118</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B119">
+        <f>B118+C119</f>
+        <v>4053</v>
+      </c>
+      <c r="C119">
+        <v>47</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>1.1732401397903147</v>
+      </c>
+      <c r="E119">
+        <v>89692</v>
+      </c>
+      <c r="F119">
+        <f>E119-E118</f>
+        <v>1992</v>
+      </c>
+      <c r="G119">
+        <v>1348</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="58"/>
+        <v>4053</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="59"/>
+        <v>4.5187976631137676</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="60"/>
+        <v>2.3594377510040161</v>
+      </c>
+      <c r="L119">
+        <v>62</v>
+      </c>
+      <c r="M119">
+        <v>277</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="8"/>
+        <v>6.8344436220083891</v>
+      </c>
+      <c r="P119">
+        <f>((M119-M118)/M118)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="10"/>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="S119">
+        <v>426</v>
+      </c>
+      <c r="T119">
+        <f>S119-L119</f>
+        <v>364</v>
+      </c>
+      <c r="U119">
+        <f>(L119/S119)*100</f>
+        <v>14.553990610328638</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="55"/>
+        <v>1.1737089201877933</v>
+      </c>
+      <c r="W119">
+        <f>L119-Q119</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
